--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -75,54 +75,54 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>MMB-FUBINACA</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -153,33 +153,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -592,7 +592,7 @@
         <v>45310</v>
       </c>
       <c r="I2" s="1">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -1024,7 +1024,7 @@
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>88890</v>
@@ -1168,7 +1168,7 @@
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1291,16 +1291,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1312,7 +1312,7 @@
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1456,7 +1456,7 @@
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -1600,7 +1600,7 @@
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1723,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1744,7 +1744,7 @@
         <v>45345</v>
       </c>
       <c r="I10" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2011,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -2032,7 +2032,7 @@
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
@@ -2176,7 +2176,7 @@
         <v>45310</v>
       </c>
       <c r="I13" s="1">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2320,13 +2320,13 @@
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2464,13 +2464,13 @@
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2608,7 +2608,7 @@
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2752,13 +2752,13 @@
         <v>45316</v>
       </c>
       <c r="I17" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2878,7 +2878,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -2887,7 +2887,7 @@
         <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2896,13 +2896,13 @@
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3022,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>3446</v>
+        <v>5462328</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -3040,7 +3040,7 @@
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3163,16 +3163,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -3184,7 +3184,7 @@
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3309,17 +3309,15 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3328,13 +3326,13 @@
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3425,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3451,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -3472,13 +3470,13 @@
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3500,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3595,16 +3593,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>12562546</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3616,7 +3614,7 @@
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -3689,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="1">
         <v>0</v>
@@ -3698,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3739,17 +3737,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3100</v>
+      </c>
       <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3758,13 +3758,13 @@
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>165361568</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -3902,7 +3902,7 @@
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -4169,19 +4169,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4190,13 +4190,13 @@
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>62300</v>
+        <v>3446</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4334,7 +4334,7 @@
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4457,19 +4457,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4478,13 +4478,13 @@
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4506,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -4518,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>12562546</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>77</v>
@@ -4622,13 +4622,13 @@
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="1">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4747,12 +4747,14 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>6213</v>
+      </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -4764,7 +4766,7 @@
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4889,9 +4891,7 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1">
-        <v>165361568</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
         <v>42</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="1">
         <v>0</v>
@@ -5031,19 +5031,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5052,13 +5052,13 @@
         <v>45310</v>
       </c>
       <c r="I33" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5175,16 +5175,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -5196,7 +5196,7 @@
         <v>45310</v>
       </c>
       <c r="I34" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -5340,13 +5340,13 @@
         <v>45310</v>
       </c>
       <c r="I35" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
@@ -5463,16 +5463,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -5484,7 +5484,7 @@
         <v>45310</v>
       </c>
       <c r="I36" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5607,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -5628,13 +5628,13 @@
         <v>45310</v>
       </c>
       <c r="I37" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5728,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="1">
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>45310</v>
       </c>
       <c r="I38" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5916,13 +5916,13 @@
         <v>45310</v>
       </c>
       <c r="I39" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>45310</v>
       </c>
       <c r="I40" s="1">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>45310</v>
       </c>
       <c r="I41" s="1">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6327,7 +6327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1">
         <v>88890</v>
@@ -6348,7 +6348,7 @@
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6471,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>5462328</v>
+        <v>21812144</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6492,13 +6492,13 @@
         <v>45336</v>
       </c>
       <c r="I43" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -6636,7 +6636,7 @@
         <v>45336</v>
       </c>
       <c r="I44" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -6759,16 +6759,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -6780,7 +6780,7 @@
         <v>45336</v>
       </c>
       <c r="I45" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AS45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="1">
         <v>0</v>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -6924,13 +6924,13 @@
         <v>45336</v>
       </c>
       <c r="I46" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="1">
         <v>0</v>
@@ -7047,16 +7047,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -7068,7 +7068,7 @@
         <v>45336</v>
       </c>
       <c r="I47" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7191,16 +7191,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1">
         <v>6213</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -7212,7 +7212,7 @@
         <v>45309</v>
       </c>
       <c r="I48" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>45309</v>
       </c>
       <c r="I49" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7479,16 +7479,16 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -7500,7 +7500,7 @@
         <v>45310</v>
       </c>
       <c r="I50" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7623,16 +7623,16 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -7644,7 +7644,7 @@
         <v>45310</v>
       </c>
       <c r="I51" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7767,16 +7767,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -7788,7 +7788,7 @@
         <v>45310</v>
       </c>
       <c r="I52" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7807,16 +7807,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>45369</v>
       </c>
       <c r="I53" s="1">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>45310</v>
       </c>
       <c r="I54" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>45371</v>
       </c>
       <c r="I55" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8364,7 +8364,7 @@
         <v>45372</v>
       </c>
       <c r="I56" s="1">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8487,19 +8487,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8508,13 +8508,13 @@
         <v>45372</v>
       </c>
       <c r="I57" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8631,7 +8631,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1">
         <v>88890</v>
@@ -8652,7 +8652,7 @@
         <v>45372</v>
       </c>
       <c r="I58" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8775,19 +8775,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
         <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s">
-        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8796,13 +8796,13 @@
         <v>45372</v>
       </c>
       <c r="I59" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8815,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8940,13 +8940,13 @@
         <v>45372</v>
       </c>
       <c r="I60" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9084,13 +9084,13 @@
         <v>45372</v>
       </c>
       <c r="I61" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9207,16 +9207,16 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C62" s="1">
-        <v>165365057</v>
+        <v>5462507</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -9228,7 +9228,7 @@
         <v>45372</v>
       </c>
       <c r="I62" s="1">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -66,12 +66,12 @@
     <t>substance</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
@@ -90,30 +90,30 @@
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>gabapentin</t>
   </si>
   <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
@@ -135,12 +135,12 @@
     <t>cas</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -165,12 +165,12 @@
     <t>60142-96-3</t>
   </si>
   <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>6703-27-1</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -216,10 +216,10 @@
     <t>6CW7F3G59X</t>
   </si>
   <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
     <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>U59401ETXH</t>
@@ -574,7 +574,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -592,7 +592,7 @@
         <v>45310</v>
       </c>
       <c r="I2" s="1">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -736,7 +736,7 @@
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1168,7 +1168,7 @@
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1291,16 +1291,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1312,7 +1312,7 @@
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1456,7 +1456,7 @@
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -1600,7 +1600,7 @@
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>45345</v>
       </c>
       <c r="I10" s="1">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2011,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -2032,7 +2032,7 @@
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2155,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -2176,13 +2176,13 @@
         <v>45310</v>
       </c>
       <c r="I13" s="1">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2443,19 +2443,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2464,13 +2464,13 @@
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2731,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>66924</v>
       </c>
       <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2752,13 +2752,13 @@
         <v>45316</v>
       </c>
       <c r="I17" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2875,19 +2875,17 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>66924</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2896,13 +2894,13 @@
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3019,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>5462328</v>
@@ -3040,7 +3038,7 @@
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3163,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -3184,7 +3182,7 @@
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3203,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3266,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3290,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3307,17 +3305,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3100</v>
+      </c>
       <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3326,13 +3326,13 @@
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3449,16 +3449,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>5707</v>
+        <v>165361568</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -3470,7 +3470,7 @@
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="1">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3614,7 +3614,7 @@
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>3100</v>
+        <v>156346345</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3758,13 +3758,13 @@
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3881,19 +3881,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>165361568</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
         <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3902,13 +3902,13 @@
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -4046,7 +4046,7 @@
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -4172,7 +4172,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -4181,7 +4181,7 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4190,13 +4190,13 @@
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4315,14 +4315,12 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
-        <v>3446</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4334,7 +4332,7 @@
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4457,19 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>3446</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4478,13 +4476,13 @@
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4518,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4601,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>12562546</v>
+        <v>6213</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
@@ -4622,7 +4620,7 @@
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4695,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
         <v>0</v>
@@ -4745,19 +4743,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>6213</v>
+        <v>165365057</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -4766,13 +4764,13 @@
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4872,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -4891,12 +4889,14 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
@@ -4908,7 +4908,7 @@
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -5031,16 +5031,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -5052,7 +5052,7 @@
         <v>45310</v>
       </c>
       <c r="I33" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5175,16 +5175,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -5196,7 +5196,7 @@
         <v>45310</v>
       </c>
       <c r="I34" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>45310</v>
       </c>
       <c r="I35" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>45310</v>
       </c>
       <c r="I36" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5607,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -5628,7 +5628,7 @@
         <v>45310</v>
       </c>
       <c r="I37" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5751,19 +5751,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -5772,13 +5772,13 @@
         <v>45310</v>
       </c>
       <c r="I38" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1">
-        <v>5462507</v>
+        <v>5707</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5916,13 +5916,13 @@
         <v>45310</v>
       </c>
       <c r="I39" s="1">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5941,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6039,16 +6039,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -6060,7 +6060,7 @@
         <v>45310</v>
       </c>
       <c r="I40" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>45310</v>
       </c>
       <c r="I41" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6492,7 +6492,7 @@
         <v>45336</v>
       </c>
       <c r="I43" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>45336</v>
       </c>
       <c r="I44" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6762,7 +6762,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -6780,7 +6780,7 @@
         <v>45336</v>
       </c>
       <c r="I45" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1">
         <v>5462328</v>
@@ -6924,7 +6924,7 @@
         <v>45336</v>
       </c>
       <c r="I46" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
         <v>41</v>
@@ -7068,7 +7068,7 @@
         <v>45336</v>
       </c>
       <c r="I47" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7197,10 +7197,10 @@
         <v>6213</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -7212,7 +7212,7 @@
         <v>45309</v>
       </c>
       <c r="I48" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>45309</v>
       </c>
       <c r="I49" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7500,7 +7500,7 @@
         <v>45310</v>
       </c>
       <c r="I50" s="1">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7623,16 +7623,16 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
         <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -7644,7 +7644,7 @@
         <v>45310</v>
       </c>
       <c r="I51" s="1">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7788,7 +7788,7 @@
         <v>45310</v>
       </c>
       <c r="I52" s="1">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>45369</v>
       </c>
       <c r="I53" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>45310</v>
       </c>
       <c r="I54" s="1">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>45371</v>
       </c>
       <c r="I55" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8364,7 +8364,7 @@
         <v>45372</v>
       </c>
       <c r="I56" s="1">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8487,19 +8487,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
-        <v>5462328</v>
+        <v>156346345</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8508,13 +8508,13 @@
         <v>45372</v>
       </c>
       <c r="I57" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8652,13 +8652,13 @@
         <v>45372</v>
       </c>
       <c r="I58" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8775,16 +8775,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -8796,7 +8796,7 @@
         <v>45372</v>
       </c>
       <c r="I59" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8815,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
         <v>42</v>
-      </c>
-      <c r="E60" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8940,13 +8940,13 @@
         <v>45372</v>
       </c>
       <c r="I60" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
         <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" t="s">
-        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9084,13 +9084,13 @@
         <v>45372</v>
       </c>
       <c r="I61" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>45372</v>
       </c>
       <c r="I62" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -66,15 +66,15 @@
     <t>substance</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
@@ -87,42 +87,42 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>MMB-FUBINACA</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>diphenhydramine</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>cas</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
@@ -159,27 +159,27 @@
     <t>561-27-3</t>
   </si>
   <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t>58-73-1</t>
   </si>
   <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>2784-73-8</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -210,25 +210,25 @@
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t>8GTS82S83M</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -574,16 +574,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -862,16 +862,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>156346345</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>77</v>
@@ -1147,19 +1147,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
@@ -1291,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
@@ -1444,10 +1444,10 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1591,7 +1591,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -1735,7 +1735,7 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -1867,19 +1867,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -1907,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2051,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2452,10 +2452,10 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2733,17 +2733,15 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2755,10 +2753,10 @@
         <v>1661</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2877,15 +2875,17 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>66924</v>
+      </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2897,10 +2897,10 @@
         <v>1661</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3017,19 +3017,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -3041,10 +3041,10 @@
         <v>1661</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -3185,10 +3185,10 @@
         <v>1661</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3307,17 +3307,15 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3329,10 +3327,10 @@
         <v>1661</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3423,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3455,10 +3453,10 @@
         <v>165361568</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -3737,16 +3735,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>156346345</v>
+        <v>3446</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -3864,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3881,19 +3879,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3942,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4008,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
         <v>0</v>
@@ -4025,19 +4023,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -4049,10 +4047,10 @@
         <v>1661</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4169,19 +4167,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
         <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4193,10 +4191,10 @@
         <v>1661</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4230,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4272,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4313,14 +4311,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>62300</v>
+      </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>3446</v>
+        <v>12562546</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="1">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
@@ -4611,7 +4611,7 @@
         <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>77</v>
@@ -4623,10 +4623,10 @@
         <v>1661</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4743,19 +4743,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -4767,10 +4767,10 @@
         <v>1661</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -4887,19 +4887,19 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
-        <v>12562546</v>
+        <v>3345</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>77</v>
@@ -4911,10 +4911,10 @@
         <v>1661</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -4927,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5040,10 +5040,10 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5175,19 +5175,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -5199,10 +5199,10 @@
         <v>1665</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -5343,10 +5343,10 @@
         <v>1665</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
@@ -5463,19 +5463,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -5509,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1">
         <v>0</v>
@@ -5607,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5751,19 +5751,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -5775,10 +5775,10 @@
         <v>1665</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5919,10 +5919,10 @@
         <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5941,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39" s="1">
         <v>0</v>
@@ -6039,19 +6039,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -6079,16 +6079,16 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -6223,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>77</v>
@@ -6471,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>77</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6742,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -6759,19 +6759,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
         <v>77</v>
@@ -6783,10 +6783,10 @@
         <v>1678</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -6927,10 +6927,10 @@
         <v>1678</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7191,19 +7191,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>6213</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>77</v>
@@ -7347,7 +7347,7 @@
         <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -7479,19 +7479,19 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -7767,19 +7767,19 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -7813,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -8067,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>77</v>
@@ -8211,7 +8211,7 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>
@@ -8355,7 +8355,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -8487,19 +8487,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8511,10 +8511,10 @@
         <v>1719</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8631,16 +8631,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C58" s="1">
-        <v>165365057</v>
+        <v>5462507</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8799,10 +8799,10 @@
         <v>1719</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8928,10 +8928,10 @@
         <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -9075,7 +9075,7 @@
         <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9207,16 +9207,16 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>5462507</v>
+        <v>165365057</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -69,60 +69,60 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -138,12 +138,12 @@
     <t/>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
@@ -153,33 +153,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1723,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1867,16 +1867,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -2179,10 +2179,10 @@
         <v>1658</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2323,10 +2323,10 @@
         <v>1658</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2443,16 +2443,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2731,14 +2731,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>62300</v>
+      </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -2832,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2873,19 +2875,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>66924</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2897,10 +2899,10 @@
         <v>1661</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3000,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3017,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -3078,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3144,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3161,19 +3163,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -3185,10 +3187,10 @@
         <v>1661</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3264,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3305,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
@@ -3447,16 +3449,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>165361568</v>
+        <v>5707</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -3496,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3574,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="1">
         <v>0</v>
@@ -3591,16 +3593,14 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5707</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3735,16 +3735,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>3446</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -3879,19 +3879,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
-        <v>165365057</v>
+        <v>12562546</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3903,10 +3903,10 @@
         <v>1661</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="1">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>0</v>
@@ -4026,16 +4026,16 @@
         <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -4047,10 +4047,10 @@
         <v>1661</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4167,16 +4167,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>40</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4228,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>62300</v>
+        <v>165361568</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4438,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
@@ -4455,19 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>12562546</v>
+        <v>3100</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4479,10 +4479,10 @@
         <v>1661</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="1">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4599,19 +4599,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>3100</v>
+        <v>6213</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>77</v>
@@ -4623,10 +4623,10 @@
         <v>1661</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>6213</v>
+        <v>5462328</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4887,16 +4887,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -4927,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5031,19 +5031,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5055,10 +5055,10 @@
         <v>1665</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5175,16 +5175,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34" s="1">
         <v>0</v>
@@ -5319,16 +5319,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -5607,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5751,16 +5751,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5919,10 +5919,10 @@
         <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="1">
         <v>0</v>
@@ -6039,16 +6039,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -6327,16 +6327,16 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -6373,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6471,16 +6471,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1">
         <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -6759,19 +6759,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>77</v>
@@ -6783,10 +6783,10 @@
         <v>1678</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6903,16 +6903,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7071,10 +7071,10 @@
         <v>1678</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7191,16 +7191,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
         <v>6213</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -7479,16 +7479,16 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7623,16 +7623,16 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7767,16 +7767,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
         <v>40</v>
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -8487,19 +8487,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8511,10 +8511,10 @@
         <v>1719</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8655,10 +8655,10 @@
         <v>1719</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>20</v>
       </c>
       <c r="C59" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
         <v>40</v>
-      </c>
-      <c r="E59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s">
-        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8799,10 +8799,10 @@
         <v>1719</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8943,10 +8943,10 @@
         <v>1719</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,16 +9063,16 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C61" s="1">
         <v>5462328</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
@@ -9207,10 +9207,10 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -87,42 +87,42 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>MMB-FUBINACA</t>
   </si>
   <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
     <t>gabapentin</t>
   </si>
   <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>diphenhydramine</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -153,33 +153,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t>60142-96-3</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>58-73-1</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>8GTS82S83M</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -1003,16 +1003,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1723,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1867,16 +1867,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -2057,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -2179,10 +2179,10 @@
         <v>1658</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2323,10 +2323,10 @@
         <v>1658</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2443,16 +2443,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2731,16 +2731,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>62300</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>156346345</v>
+        <v>165361568</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3019,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3163,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -3175,7 +3175,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -3187,10 +3187,10 @@
         <v>1661</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3307,14 +3307,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>62300</v>
+      </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3593,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
@@ -3735,19 +3737,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>3446</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3759,10 +3761,10 @@
         <v>1661</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3862,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3879,19 +3881,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>12562546</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3903,10 +3905,10 @@
         <v>1661</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3919,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -3973,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
         <v>0</v>
@@ -3982,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4023,16 +4025,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -4167,19 +4169,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>12562546</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4191,10 +4193,10 @@
         <v>1661</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4207,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4261,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="1">
         <v>0</v>
@@ -4270,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4311,19 +4313,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>165361568</v>
+        <v>446220</v>
       </c>
       <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
         <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>77</v>
@@ -4335,10 +4337,10 @@
         <v>1661</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4372,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4438,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
@@ -4457,17 +4459,15 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4479,10 +4479,10 @@
         <v>1661</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>6213</v>
+        <v>3446</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -4890,7 +4890,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>66924</v>
+        <v>3100</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>5486550</v>
+        <v>68602</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -5187,7 +5187,7 @@
         <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -5199,10 +5199,10 @@
         <v>1665</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="1">
         <v>0</v>
@@ -5319,16 +5319,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5607,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5751,16 +5751,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5919,10 +5919,10 @@
         <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6039,16 +6039,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6471,16 +6471,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6759,16 +6759,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -6927,10 +6927,10 @@
         <v>1678</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7071,10 +7071,10 @@
         <v>1678</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -7191,16 +7191,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -7246,10 +7246,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7335,16 +7335,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
         <v>40</v>
@@ -7390,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -8487,16 +8487,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,16 +8631,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
         <v>40</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8799,10 +8799,10 @@
         <v>1719</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8919,16 +8919,16 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
-        <v>165365057</v>
+        <v>5462507</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,16 +9063,16 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
@@ -9103,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9207,19 +9207,19 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
         <v>40</v>
-      </c>
-      <c r="E62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s">
-        <v>75</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -9231,10 +9231,10 @@
         <v>1719</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -66,15 +66,15 @@
     <t>substance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
@@ -87,22 +87,25 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
+    <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>2-fluoro deschloroketamine</t>
+    <t>diphenhydramine</t>
   </si>
   <si>
     <t>gabapentin</t>
@@ -111,15 +114,12 @@
     <t>heroin</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>cas</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
@@ -153,30 +153,30 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t>71368-80-4</t>
   </si>
   <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>60142-96-3</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>58-73-1</t>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -204,28 +204,28 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
@@ -574,16 +574,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -862,16 +862,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>77</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
@@ -1291,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
@@ -1435,19 +1435,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -1723,19 +1723,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1867,19 +1867,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2057,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2339,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -2743,7 +2743,7 @@
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2755,10 +2755,10 @@
         <v>1661</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2875,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>165361568</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3019,19 +3019,17 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <v>66924</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -3043,10 +3041,10 @@
         <v>1661</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3163,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>156346345</v>
+        <v>165361568</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -3293,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
@@ -3307,16 +3305,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>62300</v>
+        <v>6213</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -3410,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3451,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -3475,10 +3473,10 @@
         <v>1661</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3500,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3512,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -3595,14 +3593,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5707</v>
+      </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3881,19 +3881,17 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3345</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3905,10 +3903,10 @@
         <v>1661</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3921,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -3984,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4025,19 +4023,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>165365057</v>
+        <v>12562546</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -4049,10 +4047,10 @@
         <v>1661</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4119,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="1">
         <v>0</v>
@@ -4152,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -4169,19 +4167,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>12562546</v>
+        <v>165365057</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4193,10 +4191,10 @@
         <v>1661</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4263,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
         <v>0</v>
@@ -4296,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4313,19 +4311,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>77</v>
@@ -4353,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4374,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4416,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4457,17 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3100</v>
+      </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4479,10 +4479,10 @@
         <v>1661</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4599,16 +4599,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>3446</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -4743,16 +4743,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>5462328</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -4887,19 +4887,19 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
-        <v>3100</v>
+        <v>62300</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>77</v>
@@ -4911,10 +4911,10 @@
         <v>1661</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>5486550</v>
+        <v>68602</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -5043,7 +5043,7 @@
         <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5055,10 +5055,10 @@
         <v>1665</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
@@ -5175,19 +5175,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -5343,10 +5343,10 @@
         <v>1665</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5440,13 +5440,13 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -5607,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5751,19 +5751,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
         <v>3345</v>
       </c>
       <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
         <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -6039,19 +6039,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -6079,16 +6079,16 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -6327,19 +6327,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
         <v>42</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>77</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6615,19 +6615,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>77</v>
@@ -6655,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -6759,19 +6759,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>77</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1">
-        <v>5462328</v>
+        <v>21812144</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -6927,10 +6927,10 @@
         <v>1678</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU46" s="1">
         <v>0</v>
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7071,10 +7071,10 @@
         <v>1678</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -7203,7 +7203,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>77</v>
@@ -7335,19 +7335,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1">
         <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -7491,7 +7491,7 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -7623,19 +7623,19 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7767,19 +7767,19 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
         <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -7807,16 +7807,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -8067,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>77</v>
@@ -8211,7 +8211,7 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>
@@ -8355,7 +8355,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -8487,16 +8487,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>156346345</v>
+        <v>5462507</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8775,16 +8775,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8943,10 +8943,10 @@
         <v>1719</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -9066,16 +9066,16 @@
         <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9087,10 +9087,10 @@
         <v>1719</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9103,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9207,19 +9207,19 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -9247,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -69,10 +69,13 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>xylazine</t>
   </si>
   <si>
     <t>4-ANPP</t>
@@ -81,48 +84,45 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>heroin</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -138,48 +138,48 @@
     <t>437-38-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t/>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -195,40 +195,40 @@
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -583,7 +583,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -718,16 +718,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>77</v>
@@ -1043,16 +1043,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
@@ -1291,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
@@ -1435,19 +1435,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1723,19 +1723,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1879,7 +1879,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2051,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -2455,7 +2455,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2627,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2733,17 +2733,15 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2755,10 +2753,10 @@
         <v>1661</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2875,16 +2873,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>156346345</v>
+        <v>3446</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -3002,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3019,17 +3017,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>88890</v>
+      </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -3041,10 +3041,10 @@
         <v>1661</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>165361568</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -3308,7 +3308,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -3317,7 +3317,7 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3329,10 +3329,10 @@
         <v>1661</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3449,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -3593,16 +3593,14 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5707</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3642,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3737,19 +3735,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>12562546</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3761,10 +3759,10 @@
         <v>1661</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3831,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="1">
         <v>0</v>
@@ -3864,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3881,14 +3879,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>156346345</v>
+      </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
         <v>0</v>
@@ -4023,16 +4023,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>12562546</v>
+        <v>62300</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4167,19 +4167,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4311,19 +4311,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>77</v>
@@ -4335,10 +4335,10 @@
         <v>1661</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4351,19 +4351,19 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4455,19 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
-        <v>3100</v>
+        <v>165365057</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>3446</v>
+        <v>5462328</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4887,19 +4887,19 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>77</v>
@@ -4911,10 +4911,10 @@
         <v>1661</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>68602</v>
+        <v>5486550</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -5043,7 +5043,7 @@
         <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5055,10 +5055,10 @@
         <v>1665</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
@@ -5175,19 +5175,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -5199,10 +5199,10 @@
         <v>1665</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5319,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -5343,10 +5343,10 @@
         <v>1665</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
@@ -5463,19 +5463,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
         <v>5707</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -5607,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5751,19 +5751,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5919,10 +5919,10 @@
         <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6039,19 +6039,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6327,19 +6327,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
         <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>77</v>
@@ -6471,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>77</v>
@@ -6655,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -6759,19 +6759,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C45" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
         <v>77</v>
@@ -6783,10 +6783,10 @@
         <v>1678</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="1">
         <v>0</v>
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7071,10 +7071,10 @@
         <v>1678</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>77</v>
@@ -7335,19 +7335,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1">
         <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -7479,19 +7479,19 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
         <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -7623,19 +7623,19 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7767,19 +7767,19 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -7807,16 +7807,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -8067,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>77</v>
@@ -8211,7 +8211,7 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>
@@ -8355,7 +8355,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -8487,16 +8487,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8799,10 +8799,10 @@
         <v>1719</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8815,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8943,10 +8943,10 @@
         <v>1719</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9087,10 +9087,10 @@
         <v>1719</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9207,19 +9207,19 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -9231,10 +9231,10 @@
         <v>1719</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9247,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -66,13 +66,16 @@
     <t>substance</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
@@ -81,48 +84,45 @@
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>MMB-FUBINACA</t>
   </si>
   <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
     <t>gabapentin</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>cas</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
@@ -153,33 +153,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>60142-96-3</t>
   </si>
   <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -574,16 +574,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -871,7 +871,7 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>77</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
@@ -1337,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -1723,19 +1723,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>5707</v>
@@ -1879,7 +1879,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -2011,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
@@ -2311,7 +2311,7 @@
         <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -2443,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>5707</v>
@@ -2455,7 +2455,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -2587,19 +2587,19 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>3345</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2733,15 +2733,17 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>66924</v>
+      </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2753,10 +2755,10 @@
         <v>1661</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2876,13 +2878,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>3446</v>
+        <v>5462328</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -2976,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3017,19 +3019,17 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>88890</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -3041,10 +3041,10 @@
         <v>1661</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>165361568</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -3185,10 +3185,10 @@
         <v>1661</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
@@ -3305,19 +3305,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>3100</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3329,10 +3329,10 @@
         <v>1661</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3449,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3593,14 +3593,14 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3735,16 +3735,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>12562546</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -3879,16 +3879,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>156346345</v>
+        <v>165361568</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4023,19 +4023,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -4047,10 +4047,10 @@
         <v>1661</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4167,19 +4167,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4191,10 +4191,10 @@
         <v>1661</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4455,19 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>165365057</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4599,16 +4599,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4743,19 +4743,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -4767,10 +4767,10 @@
         <v>1661</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4887,19 +4887,19 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>3446</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>77</v>
@@ -4911,10 +4911,10 @@
         <v>1661</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5031,19 +5031,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5055,10 +5055,10 @@
         <v>1665</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5152,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5175,19 +5175,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>5462507</v>
+        <v>68602</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -5199,10 +5199,10 @@
         <v>1665</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5463,19 +5463,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -5487,10 +5487,10 @@
         <v>1665</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5509,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
         <v>0</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5607,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -5653,10 +5653,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
@@ -5751,19 +5751,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5919,10 +5919,10 @@
         <v>1665</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39" s="1">
         <v>0</v>
@@ -6042,16 +6042,16 @@
         <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
         <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" t="s">
-        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6327,19 +6327,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>77</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6471,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>77</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -6759,16 +6759,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1">
         <v>5462328</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
         <v>75</v>
@@ -6906,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
@@ -6915,7 +6915,7 @@
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7047,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
         <v>40</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU47" s="1">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>77</v>
@@ -7335,19 +7335,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -7479,19 +7479,19 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -7519,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1">
         <v>5707</v>
@@ -7635,7 +7635,7 @@
         <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -7767,19 +7767,19 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
         <v>40</v>
-      </c>
-      <c r="E52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" t="s">
-        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -8067,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>77</v>
@@ -8211,7 +8211,7 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>
@@ -8355,7 +8355,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -8490,16 +8490,16 @@
         <v>22</v>
       </c>
       <c r="C57" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8511,10 +8511,10 @@
         <v>1719</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
         <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8775,19 +8775,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -8799,10 +8799,10 @@
         <v>1719</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8815,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8919,19 +8919,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -8943,10 +8943,10 @@
         <v>1719</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9087,10 +9087,10 @@
         <v>1719</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9207,16 +9207,16 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>5462507</v>
+        <v>165365057</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -75,43 +75,46 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
+    <t>gabapentin</t>
   </si>
   <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -120,9 +123,6 @@
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -153,22 +153,25 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>60142-96-3</t>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>86347-14-0</t>
@@ -177,9 +180,6 @@
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -592,7 +592,7 @@
         <v>45310</v>
       </c>
       <c r="I2" s="1">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1006,13 +1006,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>5707</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1024,7 +1024,7 @@
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
@@ -1312,7 +1312,7 @@
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1331,16 +1331,16 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -1456,7 +1456,7 @@
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1600,7 +1600,7 @@
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1723,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -1744,7 +1744,7 @@
         <v>45345</v>
       </c>
       <c r="I10" s="1">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>5707</v>
@@ -1888,7 +1888,7 @@
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2011,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -2032,7 +2032,7 @@
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -2176,13 +2176,13 @@
         <v>45310</v>
       </c>
       <c r="I13" s="1">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
@@ -2320,7 +2320,7 @@
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2443,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>5707</v>
@@ -2464,7 +2464,7 @@
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2587,19 +2587,19 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2608,13 +2608,13 @@
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2731,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -2752,13 +2752,13 @@
         <v>45316</v>
       </c>
       <c r="I17" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -2875,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -2896,7 +2896,7 @@
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3019,17 +3019,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>66924</v>
+      </c>
       <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -3038,13 +3040,13 @@
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3161,19 +3163,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -3182,13 +3184,13 @@
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3264,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3305,19 +3307,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>156346345</v>
+        <v>3100</v>
       </c>
       <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -3326,13 +3328,13 @@
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3423,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3432,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3470,7 +3472,7 @@
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -3612,7 +3614,7 @@
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -3735,19 +3737,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -3756,13 +3758,13 @@
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3829,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="1">
         <v>0</v>
@@ -3862,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3879,19 +3881,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>165361568</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
         <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -3900,13 +3902,13 @@
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4006,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4023,19 +4025,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>165361568</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -4044,13 +4046,13 @@
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4084,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -4167,19 +4169,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>6213</v>
+        <v>165365057</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
@@ -4188,13 +4190,13 @@
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4294,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4311,16 +4313,14 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1">
-        <v>62300</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4332,7 +4332,7 @@
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4455,19 +4455,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
@@ -4476,13 +4476,13 @@
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -4599,16 +4599,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -4620,7 +4620,7 @@
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>3100</v>
+        <v>3446</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -4755,7 +4755,7 @@
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -4764,13 +4764,13 @@
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>3446</v>
+        <v>12562546</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -4908,7 +4908,7 @@
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -5031,19 +5031,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -5052,13 +5052,13 @@
         <v>45310</v>
       </c>
       <c r="I33" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5152,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5175,16 +5175,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -5196,7 +5196,7 @@
         <v>45310</v>
       </c>
       <c r="I34" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5319,16 +5319,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -5340,7 +5340,7 @@
         <v>45310</v>
       </c>
       <c r="I35" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5463,16 +5463,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>5462507</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
@@ -5484,7 +5484,7 @@
         <v>45310</v>
       </c>
       <c r="I36" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5607,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -5628,7 +5628,7 @@
         <v>45310</v>
       </c>
       <c r="I37" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5647,16 +5647,16 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5751,16 +5751,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -5772,7 +5772,7 @@
         <v>45310</v>
       </c>
       <c r="I38" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5895,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -5916,13 +5916,13 @@
         <v>45310</v>
       </c>
       <c r="I39" s="1">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5941,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="1">
         <v>0</v>
@@ -6042,13 +6042,13 @@
         <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -6060,7 +6060,7 @@
         <v>45310</v>
       </c>
       <c r="I40" s="1">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -6204,7 +6204,7 @@
         <v>45310</v>
       </c>
       <c r="I41" s="1">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -6348,7 +6348,7 @@
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6471,16 +6471,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -6492,7 +6492,7 @@
         <v>45336</v>
       </c>
       <c r="I43" s="1">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -6636,7 +6636,7 @@
         <v>45336</v>
       </c>
       <c r="I44" s="1">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -6759,16 +6759,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>5462328</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>75</v>
@@ -6780,7 +6780,7 @@
         <v>45336</v>
       </c>
       <c r="I45" s="1">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -6903,16 +6903,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -6924,7 +6924,7 @@
         <v>45336</v>
       </c>
       <c r="I46" s="1">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7047,16 +7047,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -7068,7 +7068,7 @@
         <v>45336</v>
       </c>
       <c r="I47" s="1">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="1">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>45309</v>
       </c>
       <c r="I48" s="1">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -7335,16 +7335,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
         <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
         <v>40</v>
@@ -7356,7 +7356,7 @@
         <v>45309</v>
       </c>
       <c r="I49" s="1">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7479,16 +7479,16 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -7500,7 +7500,7 @@
         <v>45310</v>
       </c>
       <c r="I50" s="1">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>5707</v>
@@ -7644,7 +7644,7 @@
         <v>45310</v>
       </c>
       <c r="I51" s="1">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7767,16 +7767,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
         <v>40</v>
@@ -7788,7 +7788,7 @@
         <v>45310</v>
       </c>
       <c r="I52" s="1">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>45369</v>
       </c>
       <c r="I53" s="1">
-        <v>1692</v>
+        <v>1701</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>45310</v>
       </c>
       <c r="I54" s="1">
-        <v>1696</v>
+        <v>1705</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>45371</v>
       </c>
       <c r="I55" s="1">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8364,7 +8364,7 @@
         <v>45372</v>
       </c>
       <c r="I56" s="1">
-        <v>1714</v>
+        <v>1723</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8487,19 +8487,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -8508,13 +8508,13 @@
         <v>45372</v>
       </c>
       <c r="I57" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -8652,13 +8652,13 @@
         <v>45372</v>
       </c>
       <c r="I58" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8775,16 +8775,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -8796,7 +8796,7 @@
         <v>45372</v>
       </c>
       <c r="I59" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8919,16 +8919,16 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
         <v>40</v>
@@ -8940,7 +8940,7 @@
         <v>45372</v>
       </c>
       <c r="I60" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
         <v>40</v>
-      </c>
-      <c r="E61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s">
-        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -9084,13 +9084,13 @@
         <v>45372</v>
       </c>
       <c r="I61" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9103,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9207,19 +9207,19 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
         <v>40</v>
-      </c>
-      <c r="E62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s">
-        <v>75</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -9228,13 +9228,13 @@
         <v>45372</v>
       </c>
       <c r="I62" s="1">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -13,11 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="414" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="119">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600306</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>substance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
@@ -75,28 +81,37 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
     <t>diphenhydramine</t>
   </si>
   <si>
-    <t>MMB-FUBINACA</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>p-fluoro phenethyl 4-ANPP</t>
@@ -105,13 +120,7 @@
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetylcodeine</t>
@@ -120,21 +129,18 @@
     <t>medetomidine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
     <t>cas</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -144,18 +150,24 @@
     <t>437-38-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
@@ -165,10 +177,7 @@
     <t>561-27-3</t>
   </si>
   <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>6703-27-1</t>
@@ -177,36 +186,39 @@
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
@@ -216,10 +228,7 @@
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>U59401ETXH</t>
@@ -228,13 +237,7 @@
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
     <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
   </si>
   <si>
     <t>abundance</t>
@@ -414,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV62"/>
+  <dimension ref="A1:AV63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,145 +428,145 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AQ1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AS1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AT1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AU1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AV1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -571,28 +574,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2">
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="I2" s="1">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -602,10 +605,10 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -626,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -712,31 +715,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -856,31 +859,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -899,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1003,22 +1006,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
@@ -1034,25 +1037,25 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1144,31 +1147,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1187,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1288,31 +1291,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1331,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1394,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1432,31 +1435,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1576,31 +1579,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1723,28 +1726,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="I10" s="1">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1754,10 +1757,10 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1769,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1864,31 +1867,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1907,16 +1910,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1970,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2008,31 +2011,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2051,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2114,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2138,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2155,28 +2158,28 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="I13" s="1">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2186,7 +2189,7 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
@@ -2195,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2258,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2296,37 +2299,37 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2363,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2426,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2440,31 +2443,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2483,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2546,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2584,13 +2587,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -2599,22 +2602,22 @@
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2714,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2731,41 +2734,41 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="I17" s="1">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -2777,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -2872,31 +2875,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>12562546</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2969,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="1">
         <v>0</v>
@@ -3016,37 +3019,37 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>66924</v>
+        <v>156346345</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3146,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3160,37 +3163,37 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3224,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3266,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3304,37 +3307,37 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>3100</v>
+        <v>6213</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3425,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3448,37 +3451,37 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>3446</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3491,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3554,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3592,35 +3595,37 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>88890</v>
+      </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3720,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3734,31 +3739,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3864,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3878,37 +3883,37 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3930,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -3942,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4022,31 +4027,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>165361568</v>
+        <v>62300</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4128,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4152,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -4166,37 +4171,35 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1">
-        <v>165365057</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4296,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4310,35 +4313,37 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3100</v>
+      </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4429,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4452,31 +4457,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4596,31 +4601,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>156346345</v>
+        <v>165361568</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4729,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -4740,37 +4745,37 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>3446</v>
+        <v>165365057</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4870,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -4884,31 +4889,29 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1">
-        <v>12562546</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4981,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -5031,50 +5034,50 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" s="2">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="I33" s="1">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5152,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
@@ -5172,37 +5175,37 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" s="2">
         <v>45310</v>
       </c>
       <c r="I34" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5316,13 +5319,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -5331,16 +5334,16 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" s="2">
         <v>45310</v>
       </c>
       <c r="I35" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -5422,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5460,37 +5463,37 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" s="2">
         <v>45310</v>
       </c>
       <c r="I36" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5566,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5590,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5604,31 +5607,31 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
         <v>3345</v>
       </c>
       <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="E37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" s="2">
         <v>45310</v>
       </c>
       <c r="I37" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5748,37 +5751,37 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" s="2">
         <v>45310</v>
       </c>
       <c r="I38" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5854,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5872,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38" s="1">
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5892,31 +5895,31 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" s="2">
         <v>45310</v>
       </c>
       <c r="I39" s="1">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -5941,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -6039,28 +6042,28 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="2">
         <v>45310</v>
       </c>
       <c r="I40" s="1">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6070,10 +6073,10 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
@@ -6085,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6166,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6180,31 +6183,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>40</v>
-      </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" s="2">
         <v>45310</v>
       </c>
       <c r="I41" s="1">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6223,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6286,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6310,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6324,31 +6327,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6367,16 +6370,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6430,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6471,28 +6474,28 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" s="2">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="I43" s="1">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6502,10 +6505,10 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" s="1">
         <v>0</v>
@@ -6517,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -6574,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6601,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -6612,31 +6615,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" s="2">
         <v>45336</v>
       </c>
       <c r="I44" s="1">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6655,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -6745,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -6756,37 +6759,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" s="2">
         <v>45336</v>
       </c>
       <c r="I45" s="1">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6799,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6900,31 +6903,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" s="2">
         <v>45336</v>
       </c>
       <c r="I46" s="1">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7006,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7030,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7044,31 +7047,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" s="2">
         <v>45336</v>
       </c>
       <c r="I47" s="1">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7150,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7174,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7191,41 +7194,41 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" s="2">
-        <v>45309</v>
+        <v>45336</v>
       </c>
       <c r="I48" s="1">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
@@ -7246,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7294,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7332,31 +7335,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" s="2">
         <v>45309</v>
       </c>
       <c r="I49" s="1">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7390,10 +7393,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7479,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="I50" s="1">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7510,10 +7513,10 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="1">
         <v>0</v>
@@ -7606,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7620,31 +7623,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" s="2">
         <v>45310</v>
       </c>
       <c r="I51" s="1">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7669,10 +7672,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -7750,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7764,31 +7767,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s">
         <v>42</v>
       </c>
-      <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" s="2">
         <v>45310</v>
       </c>
       <c r="I52" s="1">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7807,16 +7810,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7870,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7911,25 +7914,25 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" s="2">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="I53" s="1">
         <v>1701</v>
@@ -7942,19 +7945,19 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -7972,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8014,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8055,28 +8058,28 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" s="2">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="I54" s="1">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8199,28 +8202,28 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
         <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" s="2">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="I55" s="1">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8343,28 +8346,28 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" s="2">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="I56" s="1">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8398,16 +8401,16 @@
         <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8487,41 +8490,41 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
-        <v>5462507</v>
+        <v>10836</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" s="2">
         <v>45372</v>
       </c>
       <c r="I57" s="1">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
         <v>0</v>
@@ -8542,10 +8545,10 @@
         <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
@@ -8590,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8628,31 +8631,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>165365057</v>
+        <v>5462507</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" s="2">
         <v>45372</v>
       </c>
       <c r="I58" s="1">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -8734,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8758,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8772,7 +8775,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -8781,22 +8784,22 @@
         <v>156346345</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" s="2">
         <v>45372</v>
       </c>
       <c r="I59" s="1">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -8916,31 +8919,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
         <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" s="2">
         <v>45372</v>
       </c>
       <c r="I60" s="1">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9060,31 +9063,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" t="s">
         <v>42</v>
       </c>
-      <c r="E61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" t="s">
-        <v>40</v>
-      </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" s="2">
         <v>45372</v>
       </c>
       <c r="I61" s="1">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9103,10 +9106,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9204,37 +9207,37 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" s="2">
         <v>45372</v>
       </c>
       <c r="I62" s="1">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9310,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9334,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9343,6 +9346,150 @@
         <v>0</v>
       </c>
       <c r="AV62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1735</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>6</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="480" uniqueCount="128">
   <si>
     <t>sampleid</t>
   </si>
@@ -63,6 +63,9 @@
     <t>600438</t>
   </si>
   <si>
+    <t>600453</t>
+  </si>
+  <si>
     <t>600468</t>
   </si>
   <si>
@@ -72,24 +75,24 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -99,39 +102,51 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
     <t>gabapentin</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>MMB-FUBINACA</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
+    <t>2-Fluoro-2-oxo PCE</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>acetanilide</t>
+  </si>
+  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -141,21 +156,21 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
@@ -165,30 +180,36 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>60142-96-3</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
     <t>unii</t>
   </si>
   <si>
@@ -201,12 +222,12 @@
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
@@ -216,28 +237,34 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>abundance</t>
@@ -417,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV63"/>
+  <dimension ref="A1:AV73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,145 +455,145 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="U1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="W1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="X1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Y1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Z1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AD1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AE1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AG1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AI1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AM1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AO1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AP1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AQ1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AR1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AS1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AT1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AU1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AV1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -574,22 +601,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2">
         <v>45415</v>
@@ -718,22 +745,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
@@ -821,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -845,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -862,22 +889,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
@@ -902,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1006,22 +1033,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
@@ -1046,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1109,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1133,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1150,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
@@ -1190,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1253,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1294,22 +1321,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
@@ -1438,22 +1465,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>156346345</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
@@ -1582,22 +1609,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
@@ -1726,22 +1753,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2">
         <v>45310</v>
@@ -1766,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1829,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1876,16 +1903,16 @@
         <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
@@ -2017,19 +2044,19 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
@@ -2060,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2141,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2161,19 +2188,19 @@
         <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2">
         <v>45345</v>
@@ -2204,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2285,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2302,22 +2329,22 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
@@ -2326,10 +2353,10 @@
         <v>1673</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2342,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2366,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2405,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2446,22 +2473,22 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
@@ -2486,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2549,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2573,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2590,22 +2617,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
@@ -2614,10 +2641,10 @@
         <v>1673</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2654,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2717,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2734,22 +2761,22 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2">
         <v>45310</v>
@@ -2878,22 +2905,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>12562546</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
@@ -2902,10 +2929,10 @@
         <v>1676</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -2918,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -2972,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1">
         <v>0</v>
@@ -2981,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3022,22 +3049,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>156346345</v>
+        <v>12562546</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
@@ -3116,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -3149,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3166,22 +3193,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
@@ -3190,10 +3217,10 @@
         <v>1676</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3215,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -3227,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3310,22 +3337,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>6213</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
@@ -3454,22 +3481,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>3446</v>
+        <v>3100</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
@@ -3478,10 +3505,10 @@
         <v>1676</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3572,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3598,22 +3625,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
-        <v>88890</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
@@ -3622,10 +3647,10 @@
         <v>1676</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3725,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3742,22 +3767,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>66924</v>
+        <v>3446</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
@@ -3766,10 +3791,10 @@
         <v>1676</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3886,22 +3911,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
@@ -3935,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -3989,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4030,22 +4055,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
@@ -4054,10 +4079,10 @@
         <v>1676</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4133,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4157,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -4174,20 +4199,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>446220</v>
+      </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
@@ -4196,10 +4223,10 @@
         <v>1676</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4233,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4316,22 +4343,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>3100</v>
+        <v>165365057</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
@@ -4434,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4443,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1">
         <v>0</v>
@@ -4466,16 +4493,16 @@
         <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
@@ -4610,16 +4637,16 @@
         <v>165361568</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
@@ -4748,22 +4775,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
@@ -4772,10 +4799,10 @@
         <v>1676</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4894,18 +4921,20 @@
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>66924</v>
+      </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
@@ -4914,10 +4943,10 @@
         <v>1676</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5034,22 +5063,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3345</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" s="2">
         <v>45316</v>
@@ -5058,10 +5085,10 @@
         <v>1676</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5074,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5137,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5178,22 +5205,22 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>5462507</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" s="2">
         <v>45310</v>
@@ -5322,22 +5349,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" s="2">
         <v>45310</v>
@@ -5425,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5466,22 +5493,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" s="2">
         <v>45310</v>
@@ -5490,10 +5517,10 @@
         <v>1680</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5569,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5587,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" s="1">
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5610,22 +5637,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" s="2">
         <v>45310</v>
@@ -5650,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5754,22 +5781,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" s="2">
         <v>45310</v>
@@ -5778,10 +5805,10 @@
         <v>1680</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5800,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
@@ -5857,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5875,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="1">
         <v>0</v>
@@ -5898,22 +5925,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" s="2">
         <v>45310</v>
@@ -6025,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6042,22 +6069,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" s="2">
         <v>45310</v>
@@ -6082,16 +6109,16 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6145,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6186,22 +6213,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" s="2">
         <v>45310</v>
@@ -6226,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6289,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6313,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6330,22 +6357,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
@@ -6370,16 +6397,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6433,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6477,19 +6504,19 @@
         <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" s="2">
         <v>45310</v>
@@ -6520,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -6601,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6618,22 +6645,22 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D44" t="s">
         <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44" s="2">
         <v>45336</v>
@@ -6642,10 +6669,10 @@
         <v>1694</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6748,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -6762,22 +6789,22 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" s="2">
         <v>45336</v>
@@ -6802,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -6906,22 +6933,22 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H46" s="2">
         <v>45336</v>
@@ -7009,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7033,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7050,22 +7077,22 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" s="2">
         <v>45336</v>
@@ -7153,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7177,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU47" s="1">
         <v>0</v>
@@ -7194,22 +7221,22 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" s="2">
         <v>45336</v>
@@ -7218,10 +7245,10 @@
         <v>1694</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7234,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7338,22 +7365,22 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" s="2">
         <v>45309</v>
@@ -7482,22 +7509,22 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
         <v>6213</v>
       </c>
       <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
         <v>49</v>
       </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" s="2">
         <v>45309</v>
@@ -7626,22 +7653,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1">
         <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" s="2">
         <v>45310</v>
@@ -7770,22 +7797,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
         <v>5707</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" s="2">
         <v>45310</v>
@@ -7920,16 +7947,16 @@
         <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H53" s="2">
         <v>45310</v>
@@ -8058,22 +8085,22 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1">
         <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" s="2">
         <v>45369</v>
@@ -8202,22 +8229,22 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1">
         <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" s="2">
         <v>45310</v>
@@ -8346,22 +8373,22 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
         <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" s="2">
         <v>45371</v>
@@ -8490,22 +8517,22 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>10836</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" s="2">
         <v>45372</v>
@@ -8634,41 +8661,41 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I58" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" s="1">
         <v>0</v>
@@ -8737,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8761,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8778,28 +8805,26 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="1">
-        <v>156346345</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I59" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -8809,10 +8834,10 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N59" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O59" s="1">
         <v>0</v>
@@ -8905,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8925,25 +8950,25 @@
         <v>23</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I60" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -8953,10 +8978,10 @@
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N60" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -8968,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -9049,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9066,41 +9091,41 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I61" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N61" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -9169,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9193,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9210,41 +9235,41 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H62" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I62" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N62" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O62" s="1">
         <v>0</v>
@@ -9271,10 +9296,10 @@
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
@@ -9337,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9354,28 +9379,28 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H63" s="2">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="I63" s="1">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -9385,111 +9410,1549 @@
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
+        <v>10</v>
+      </c>
+      <c r="N63" s="1">
+        <v>5</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45418</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1733</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
+        <v>10</v>
+      </c>
+      <c r="N64" s="1">
+        <v>5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1">
+        <v>165365057</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45418</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1733</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>10</v>
+      </c>
+      <c r="N65" s="1">
+        <v>5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45418</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1733</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1">
+        <v>10</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45418</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1733</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>10</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5462507</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
         <v>6</v>
       </c>
-      <c r="N63" s="1">
-        <v>3</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0</v>
-      </c>
-      <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV63" s="1">
+      <c r="N68" s="1">
+        <v>3</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1">
+        <v>156346345</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>6</v>
+      </c>
+      <c r="N69" s="1">
+        <v>3</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5462328</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
+        <v>6</v>
+      </c>
+      <c r="N70" s="1">
+        <v>3</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1">
+        <v>165365057</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1">
+        <v>6</v>
+      </c>
+      <c r="N71" s="1">
+        <v>3</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
+        <v>6</v>
+      </c>
+      <c r="N72" s="1">
+        <v>3</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
+        <v>6</v>
+      </c>
+      <c r="N73" s="1">
+        <v>3</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="585">
   <si>
     <t>sampleid</t>
   </si>
@@ -99,402 +99,402 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>N-desethyl etonitazene</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>benzocaine</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>pending nitazene</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>2-Fluoro-2-oxo PCE</t>
+  </si>
+  <si>
+    <t>acetanilide</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>N-desethyl etonitazene</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>benzocaine</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>pending nitazene</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>acetanilide</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>2-Fluoro-2-oxo PCE</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -504,64 +504,385 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>94-09-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>58-73-1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>60142-96-3</t>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t/>
@@ -573,738 +894,495 @@
     <t>437-38-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>unii</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>94-09-7</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>U3RSY48JW5</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>unii</t>
+    <t/>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>U3RSY48JW5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>abundance</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1314,6 +1392,9 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1332,9 +1413,15 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1344,15 +1431,42 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1392,6 +1506,15 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1401,21 +1524,66 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1428,18 +1596,39 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1450,228 +1639,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
   </si>
   <si>
     <t>method</t>
@@ -1871,130 +1838,130 @@
         <v>429</v>
       </c>
       <c r="G1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1" t="s">
+        <v>547</v>
+      </c>
+      <c r="L1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q1" t="s">
         <v>553</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S1" t="s">
         <v>555</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>556</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>557</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>558</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
         <v>559</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>560</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" t="s">
         <v>561</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Z1" t="s">
         <v>562</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AA1" t="s">
         <v>563</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AB1" t="s">
         <v>564</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AC1" t="s">
         <v>565</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AD1" t="s">
         <v>566</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AE1" t="s">
         <v>567</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AF1" t="s">
         <v>568</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AG1" t="s">
         <v>569</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AH1" t="s">
         <v>570</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AI1" t="s">
         <v>571</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AJ1" t="s">
         <v>572</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AK1" t="s">
         <v>573</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AL1" t="s">
         <v>574</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
         <v>575</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AN1" t="s">
         <v>576</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>577</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>578</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AQ1" t="s">
         <v>579</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AR1" t="s">
         <v>580</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AS1" t="s">
         <v>581</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AT1" t="s">
         <v>582</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AU1" t="s">
         <v>583</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AV1" t="s">
         <v>584</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>587</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>588</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>589</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>590</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>591</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>593</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2">
@@ -2017,13 +1984,13 @@
         <v>430</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H2" s="2">
         <v>45415</v>
       </c>
       <c r="I2" s="1">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -2149,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -2161,13 +2128,13 @@
         <v>431</v>
       </c>
       <c r="G3" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2249,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -2273,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -2305,13 +2272,13 @@
         <v>432</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -2437,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D5" t="s">
         <v>165</v>
@@ -2449,13 +2416,13 @@
         <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -2537,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -2561,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -2581,7 +2548,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D6" t="s">
         <v>166</v>
@@ -2593,13 +2560,13 @@
         <v>434</v>
       </c>
       <c r="G6" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -2624,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2705,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -2725,7 +2692,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>167</v>
@@ -2737,13 +2704,13 @@
         <v>435</v>
       </c>
       <c r="G7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -2762,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -2825,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -2849,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -2869,7 +2836,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>168</v>
@@ -2881,13 +2848,13 @@
         <v>436</v>
       </c>
       <c r="G8" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -2906,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -2969,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -2993,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -3013,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
         <v>169</v>
@@ -3025,13 +2992,13 @@
         <v>437</v>
       </c>
       <c r="G9" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -3056,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -3137,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -3169,13 +3136,13 @@
         <v>438</v>
       </c>
       <c r="G10" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H10" s="2">
         <v>45310</v>
       </c>
       <c r="I10" s="1">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -3301,7 +3268,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>171</v>
@@ -3313,13 +3280,13 @@
         <v>439</v>
       </c>
       <c r="G11" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -3344,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -3425,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -3445,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
         <v>172</v>
@@ -3457,13 +3424,13 @@
         <v>440</v>
       </c>
       <c r="G12" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -3482,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -3545,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -3569,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -3589,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
         <v>173</v>
@@ -3601,13 +3568,13 @@
         <v>441</v>
       </c>
       <c r="G13" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H13" s="2">
         <v>45345</v>
       </c>
       <c r="I13" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -3626,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -3689,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -3733,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
         <v>174</v>
@@ -3745,19 +3712,19 @@
         <v>442</v>
       </c>
       <c r="G14" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -3794,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -3857,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -3877,7 +3844,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
         <v>175</v>
@@ -3889,19 +3856,19 @@
         <v>443</v>
       </c>
       <c r="G15" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3938,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -4001,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -4021,7 +3988,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
         <v>176</v>
@@ -4033,13 +4000,13 @@
         <v>444</v>
       </c>
       <c r="G16" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -4058,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -4121,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -4165,7 +4132,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
         <v>177</v>
@@ -4177,13 +4144,13 @@
         <v>445</v>
       </c>
       <c r="G17" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H17" s="2">
         <v>45310</v>
       </c>
       <c r="I17" s="1">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -4202,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -4265,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -4308,7 +4275,9 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D18" t="s">
         <v>178</v>
       </c>
@@ -4319,13 +4288,13 @@
         <v>446</v>
       </c>
       <c r="G18" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -4407,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -4451,7 +4420,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="1">
-        <v>3100</v>
+        <v>12562546</v>
       </c>
       <c r="D19" t="s">
         <v>179</v>
@@ -4460,22 +4429,22 @@
         <v>313</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G19" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -4542,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -4566,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -4602,16 +4571,16 @@
         <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G20" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4737,7 +4706,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D21" t="s">
         <v>181</v>
@@ -4746,22 +4715,22 @@
         <v>315</v>
       </c>
       <c r="F21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G21" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4795,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -4837,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -4881,7 +4850,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="1">
-        <v>3446</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
         <v>182</v>
@@ -4893,19 +4862,19 @@
         <v>448</v>
       </c>
       <c r="G22" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -5005,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -5025,7 +4994,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>3446</v>
       </c>
       <c r="D23" t="s">
         <v>183</v>
@@ -5034,16 +5003,16 @@
         <v>317</v>
       </c>
       <c r="F23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G23" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -5149,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -5169,7 +5138,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>165361568</v>
+        <v>5707</v>
       </c>
       <c r="D24" t="s">
         <v>184</v>
@@ -5178,16 +5147,16 @@
         <v>318</v>
       </c>
       <c r="F24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G24" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -5215,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="1">
         <v>0</v>
@@ -5293,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="1">
         <v>0</v>
@@ -5313,7 +5282,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D25" t="s">
         <v>185</v>
@@ -5325,19 +5294,19 @@
         <v>449</v>
       </c>
       <c r="G25" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -5350,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -5413,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -5437,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
         <v>0</v>
@@ -5457,7 +5426,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>5707</v>
+        <v>6213</v>
       </c>
       <c r="D26" t="s">
         <v>186</v>
@@ -5466,16 +5435,16 @@
         <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G26" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -5503,10 +5472,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>0</v>
@@ -5601,7 +5570,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="1">
-        <v>6213</v>
+        <v>165361568</v>
       </c>
       <c r="D27" t="s">
         <v>187</v>
@@ -5610,16 +5579,16 @@
         <v>321</v>
       </c>
       <c r="F27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G27" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -5725,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -5754,16 +5723,16 @@
         <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G28" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5888,9 +5857,7 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
-        <v>62300</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>189</v>
       </c>
@@ -5898,16 +5865,16 @@
         <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G29" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5989,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -6033,7 +6000,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="1">
-        <v>12562546</v>
+        <v>62300</v>
       </c>
       <c r="D30" t="s">
         <v>190</v>
@@ -6042,16 +6009,16 @@
         <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G30" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -6124,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
         <v>0</v>
@@ -6133,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -6177,7 +6144,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D31" t="s">
         <v>191</v>
@@ -6186,16 +6153,16 @@
         <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G31" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -6321,7 +6288,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>3100</v>
       </c>
       <c r="D32" t="s">
         <v>192</v>
@@ -6330,16 +6297,16 @@
         <v>326</v>
       </c>
       <c r="F32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G32" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -6436,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -6445,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -6465,7 +6432,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -6474,16 +6441,16 @@
         <v>327</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G33" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H33" s="2">
         <v>45316</v>
       </c>
       <c r="I33" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -6502,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -6523,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -6565,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -6606,28 +6573,28 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G34" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H34" s="2">
         <v>45420</v>
       </c>
       <c r="I34" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -6646,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6709,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -6724,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -6750,28 +6717,28 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1">
-        <v>21812144</v>
+        <v>2519</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G35" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H35" s="2">
         <v>45420</v>
       </c>
       <c r="I35" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6817,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -6853,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -6868,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -6880,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="1">
         <v>0</v>
@@ -6894,28 +6861,28 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1">
-        <v>2519</v>
+        <v>3676</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G36" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H36" s="2">
         <v>45420</v>
       </c>
       <c r="I36" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6961,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -7038,34 +7005,34 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G37" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H37" s="2">
         <v>45420</v>
       </c>
       <c r="I37" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -7099,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -7141,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -7182,34 +7149,34 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G38" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H38" s="2">
         <v>45420</v>
       </c>
       <c r="I38" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -7222,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -7326,28 +7293,28 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1">
-        <v>66924</v>
+        <v>21812144</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G39" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H39" s="2">
         <v>45420</v>
       </c>
       <c r="I39" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -7429,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -7456,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39" s="1">
         <v>0</v>
@@ -7470,28 +7437,28 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G40" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H40" s="2">
         <v>45420</v>
       </c>
       <c r="I40" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7614,28 +7581,28 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G41" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H41" s="2">
         <v>45420</v>
       </c>
       <c r="I41" s="1">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7675,10 +7642,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -7758,28 +7725,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G42" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7804,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -7902,34 +7869,34 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G43" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H43" s="2">
         <v>45310</v>
       </c>
       <c r="I43" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -8005,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -8023,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -8046,28 +8013,28 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G44" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H44" s="2">
         <v>45310</v>
       </c>
       <c r="I44" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -8086,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -8149,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -8190,34 +8157,34 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G45" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H45" s="2">
         <v>45310</v>
       </c>
       <c r="I45" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -8334,34 +8301,34 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G46" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H46" s="2">
         <v>45310</v>
       </c>
       <c r="I46" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -8478,34 +8445,34 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G47" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H47" s="2">
         <v>45310</v>
       </c>
       <c r="I47" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8581,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -8599,13 +8566,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -8622,28 +8589,28 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G48" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H48" s="2">
         <v>45310</v>
       </c>
       <c r="I48" s="1">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8662,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8725,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8769,7 +8736,7 @@
         <v>73</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
         <v>208</v>
@@ -8778,16 +8745,16 @@
         <v>342</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H49" s="2">
         <v>45420</v>
       </c>
       <c r="I49" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8812,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8833,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -8884,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -8922,16 +8889,16 @@
         <v>343</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H50" s="2">
         <v>45420</v>
       </c>
       <c r="I50" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -9057,7 +9024,7 @@
         <v>75</v>
       </c>
       <c r="C51" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -9066,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="F51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H51" s="2">
         <v>45420</v>
       </c>
       <c r="I51" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9100,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -9181,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -9210,16 +9177,16 @@
         <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H52" s="2">
         <v>45420</v>
       </c>
       <c r="I52" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9354,16 +9321,16 @@
         <v>346</v>
       </c>
       <c r="F53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H53" s="2">
         <v>45420</v>
       </c>
       <c r="I53" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -9489,7 +9456,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D54" t="s">
         <v>213</v>
@@ -9498,16 +9465,16 @@
         <v>347</v>
       </c>
       <c r="F54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G54" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H54" s="2">
         <v>45420</v>
       </c>
       <c r="I54" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9526,10 +9493,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -9547,10 +9514,10 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -9589,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -9633,7 +9600,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -9642,22 +9609,22 @@
         <v>348</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H55" s="2">
         <v>45420</v>
       </c>
       <c r="I55" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9777,7 +9744,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
         <v>215</v>
@@ -9786,16 +9753,16 @@
         <v>349</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G56" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H56" s="2">
         <v>45420</v>
       </c>
       <c r="I56" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -9835,13 +9802,13 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1">
         <v>0</v>
@@ -9892,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="1">
         <v>0</v>
@@ -9921,7 +9888,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
         <v>216</v>
@@ -9930,16 +9897,16 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H57" s="2">
         <v>45420</v>
       </c>
       <c r="I57" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -9958,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -10021,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -10045,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -10062,28 +10029,28 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G58" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H58" s="2">
         <v>45310</v>
       </c>
       <c r="I58" s="1">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10102,16 +10069,16 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
@@ -10165,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -10206,28 +10173,28 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H59" s="2">
         <v>45310</v>
       </c>
       <c r="I59" s="1">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10252,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -10333,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -10350,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G60" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H60" s="2">
         <v>45310</v>
       </c>
       <c r="I60" s="1">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -10390,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -10453,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -10477,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -10494,34 +10461,32 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5462328</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H61" s="2">
         <v>45419</v>
       </c>
       <c r="I61" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10594,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="1">
         <v>1</v>
@@ -10638,26 +10603,28 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5707</v>
+      </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G62" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H62" s="2">
         <v>45419</v>
       </c>
       <c r="I62" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10682,10 +10649,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10736,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -10780,28 +10747,28 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G63" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H63" s="2">
         <v>45419</v>
       </c>
       <c r="I63" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -10838,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1">
         <v>0</v>
@@ -10924,28 +10891,28 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1">
         <v>3100</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G64" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H64" s="2">
         <v>45419</v>
       </c>
       <c r="I64" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -11068,28 +11035,28 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G65" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H65" s="2">
         <v>45419</v>
       </c>
       <c r="I65" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -11126,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="1">
         <v>0</v>
@@ -11212,34 +11179,34 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G66" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H66" s="2">
         <v>45419</v>
       </c>
       <c r="I66" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -11258,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -11315,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -11356,28 +11323,28 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F67" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G67" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H67" s="2">
         <v>45419</v>
       </c>
       <c r="I67" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11399,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11459,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -11483,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="1">
         <v>0</v>
@@ -11500,28 +11467,28 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F68" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G68" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H68" s="2">
         <v>45419</v>
       </c>
       <c r="I68" s="1">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11543,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -11603,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -11627,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -11644,28 +11611,28 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="1">
-        <v>3676</v>
+        <v>2519</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F69" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G69" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H69" s="2">
         <v>45420</v>
       </c>
       <c r="I69" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11711,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -11788,28 +11755,28 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="1">
-        <v>446220</v>
+        <v>3100</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H70" s="2">
         <v>45420</v>
       </c>
       <c r="I70" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -11852,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -11906,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -11932,34 +11899,34 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G71" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H71" s="2">
         <v>45420</v>
       </c>
       <c r="I71" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -11996,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="1">
         <v>0</v>
@@ -12059,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -12076,34 +12043,34 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F72" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G72" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H72" s="2">
         <v>45420</v>
       </c>
       <c r="I72" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12125,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="1">
         <v>0</v>
@@ -12203,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -12220,34 +12187,34 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G73" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H73" s="2">
         <v>45420</v>
       </c>
       <c r="I73" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12269,10 +12236,10 @@
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
@@ -12287,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="1">
         <v>0</v>
@@ -12338,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -12364,34 +12331,34 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G74" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H74" s="2">
         <v>45420</v>
       </c>
       <c r="I74" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12404,10 +12371,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -12508,28 +12475,28 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="1">
-        <v>3100</v>
+        <v>62300</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F75" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G75" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H75" s="2">
         <v>45420</v>
       </c>
       <c r="I75" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -12611,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -12626,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="1">
         <v>0</v>
@@ -12652,28 +12619,28 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G76" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H76" s="2">
         <v>45420</v>
       </c>
       <c r="I76" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -12692,10 +12659,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -12755,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -12770,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="AP76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ76" s="1">
         <v>0</v>
@@ -12796,28 +12763,28 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F77" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G77" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H77" s="2">
         <v>45420</v>
       </c>
       <c r="I77" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -12851,10 +12818,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -12923,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -12940,28 +12907,28 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F78" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G78" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H78" s="2">
         <v>45420</v>
       </c>
       <c r="I78" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -12986,10 +12953,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13067,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>
@@ -13084,28 +13051,28 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F79" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G79" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H79" s="2">
         <v>45420</v>
       </c>
       <c r="I79" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -13124,10 +13091,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
         <v>0</v>
@@ -13139,10 +13106,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13187,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
@@ -13228,28 +13195,28 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G80" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H80" s="2">
         <v>45420</v>
       </c>
       <c r="I80" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -13268,16 +13235,16 @@
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
@@ -13331,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="AK80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="1">
         <v>0</v>
@@ -13375,7 +13342,7 @@
         <v>104</v>
       </c>
       <c r="C81" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
         <v>239</v>
@@ -13384,16 +13351,16 @@
         <v>373</v>
       </c>
       <c r="F81" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G81" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H81" s="2">
         <v>45336</v>
       </c>
       <c r="I81" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -13412,10 +13379,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -13475,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="AK81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81" s="1">
         <v>0</v>
@@ -13499,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="AS81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="1">
         <v>0</v>
@@ -13519,7 +13486,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -13528,16 +13495,16 @@
         <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G82" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H82" s="2">
         <v>45336</v>
       </c>
       <c r="I82" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -13646,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="AT82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82" s="1">
         <v>0</v>
@@ -13663,7 +13630,7 @@
         <v>106</v>
       </c>
       <c r="C83" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D83" t="s">
         <v>241</v>
@@ -13672,16 +13639,16 @@
         <v>375</v>
       </c>
       <c r="F83" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G83" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H83" s="2">
         <v>45336</v>
       </c>
       <c r="I83" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -13700,10 +13667,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -13763,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -13787,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -13807,7 +13774,7 @@
         <v>107</v>
       </c>
       <c r="C84" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D84" t="s">
         <v>242</v>
@@ -13816,22 +13783,22 @@
         <v>376</v>
       </c>
       <c r="F84" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H84" s="2">
         <v>45336</v>
       </c>
       <c r="I84" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -13951,7 +13918,7 @@
         <v>108</v>
       </c>
       <c r="C85" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D85" t="s">
         <v>243</v>
@@ -13960,22 +13927,22 @@
         <v>377</v>
       </c>
       <c r="F85" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G85" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H85" s="2">
         <v>45336</v>
       </c>
       <c r="I85" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14078,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="AT85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="1">
         <v>0</v>
@@ -14095,7 +14062,7 @@
         <v>109</v>
       </c>
       <c r="C86" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D86" t="s">
         <v>244</v>
@@ -14104,22 +14071,22 @@
         <v>378</v>
       </c>
       <c r="F86" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G86" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H86" s="2">
         <v>45420</v>
       </c>
       <c r="I86" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14147,10 +14114,10 @@
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86" s="1">
         <v>0</v>
@@ -14219,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="AS86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="1">
         <v>0</v>
@@ -14239,7 +14206,7 @@
         <v>110</v>
       </c>
       <c r="C87" s="1">
-        <v>21812144</v>
+        <v>66924</v>
       </c>
       <c r="D87" t="s">
         <v>245</v>
@@ -14248,16 +14215,16 @@
         <v>379</v>
       </c>
       <c r="F87" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G87" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H87" s="2">
         <v>45420</v>
       </c>
       <c r="I87" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -14339,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -14366,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="AT87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU87" s="1">
         <v>0</v>
@@ -14383,7 +14350,7 @@
         <v>111</v>
       </c>
       <c r="C88" s="1">
-        <v>5707</v>
+        <v>2337</v>
       </c>
       <c r="D88" t="s">
         <v>246</v>
@@ -14392,22 +14359,22 @@
         <v>380</v>
       </c>
       <c r="F88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G88" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H88" s="2">
         <v>45420</v>
       </c>
       <c r="I88" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -14426,10 +14393,10 @@
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -14498,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="AP88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ88" s="1">
         <v>0</v>
@@ -14527,7 +14494,7 @@
         <v>112</v>
       </c>
       <c r="C89" s="1">
-        <v>10836</v>
+        <v>165361568</v>
       </c>
       <c r="D89" t="s">
         <v>247</v>
@@ -14536,22 +14503,22 @@
         <v>381</v>
       </c>
       <c r="F89" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G89" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H89" s="2">
         <v>45420</v>
       </c>
       <c r="I89" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -14579,10 +14546,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89" s="1">
         <v>0</v>
@@ -14651,10 +14618,10 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU89" s="1">
         <v>0</v>
@@ -14671,7 +14638,7 @@
         <v>113</v>
       </c>
       <c r="C90" s="1">
-        <v>2337</v>
+        <v>165365057</v>
       </c>
       <c r="D90" t="s">
         <v>248</v>
@@ -14680,16 +14647,16 @@
         <v>382</v>
       </c>
       <c r="F90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G90" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H90" s="2">
         <v>45420</v>
       </c>
       <c r="I90" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -14786,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="AP90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ90" s="1">
         <v>0</v>
@@ -14795,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -14815,7 +14782,7 @@
         <v>114</v>
       </c>
       <c r="C91" s="1">
-        <v>165361568</v>
+        <v>1983</v>
       </c>
       <c r="D91" t="s">
         <v>249</v>
@@ -14824,16 +14791,16 @@
         <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G91" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H91" s="2">
         <v>45420</v>
       </c>
       <c r="I91" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -14939,10 +14906,10 @@
         <v>0</v>
       </c>
       <c r="AS91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU91" s="1">
         <v>0</v>
@@ -14959,7 +14926,7 @@
         <v>115</v>
       </c>
       <c r="C92" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D92" t="s">
         <v>250</v>
@@ -14968,16 +14935,16 @@
         <v>384</v>
       </c>
       <c r="F92" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G92" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H92" s="2">
         <v>45420</v>
       </c>
       <c r="I92" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -14996,10 +14963,10 @@
         <v>0</v>
       </c>
       <c r="P92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92" s="1">
         <v>0</v>
@@ -15059,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -15102,9 +15069,7 @@
       <c r="B93" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="1">
-        <v>1983</v>
-      </c>
+      <c r="C93" s="1"/>
       <c r="D93" t="s">
         <v>251</v>
       </c>
@@ -15112,16 +15077,16 @@
         <v>385</v>
       </c>
       <c r="F93" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G93" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H93" s="2">
         <v>45420</v>
       </c>
       <c r="I93" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J93" s="1">
         <v>0</v>
@@ -15200,10 +15165,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
         <v>0</v>
@@ -15246,7 +15211,9 @@
       <c r="B94" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1">
+        <v>62300</v>
+      </c>
       <c r="D94" t="s">
         <v>252</v>
       </c>
@@ -15254,16 +15221,16 @@
         <v>386</v>
       </c>
       <c r="F94" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G94" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H94" s="2">
         <v>45420</v>
       </c>
       <c r="I94" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -15342,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -15389,7 +15356,7 @@
         <v>118</v>
       </c>
       <c r="C95" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D95" t="s">
         <v>253</v>
@@ -15398,16 +15365,16 @@
         <v>387</v>
       </c>
       <c r="F95" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G95" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H95" s="2">
         <v>45420</v>
       </c>
       <c r="I95" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -15426,16 +15393,16 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" s="1">
         <v>0</v>
@@ -15489,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="AK95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="1">
         <v>0</v>
@@ -15533,7 +15500,7 @@
         <v>119</v>
       </c>
       <c r="C96" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D96" t="s">
         <v>254</v>
@@ -15542,16 +15509,16 @@
         <v>388</v>
       </c>
       <c r="F96" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G96" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H96" s="2">
         <v>45420</v>
       </c>
       <c r="I96" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -15633,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="AK96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -15657,10 +15624,10 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU96" s="1">
         <v>0</v>
@@ -15677,7 +15644,7 @@
         <v>120</v>
       </c>
       <c r="C97" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D97" t="s">
         <v>255</v>
@@ -15686,22 +15653,22 @@
         <v>389</v>
       </c>
       <c r="F97" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G97" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H97" s="2">
         <v>45420</v>
       </c>
       <c r="I97" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -15777,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -15801,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="AS97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT97" s="1">
         <v>0</v>
@@ -15821,7 +15788,7 @@
         <v>121</v>
       </c>
       <c r="C98" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D98" t="s">
         <v>256</v>
@@ -15830,16 +15797,16 @@
         <v>390</v>
       </c>
       <c r="F98" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G98" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H98" s="2">
         <v>45309</v>
       </c>
       <c r="I98" s="1">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -15873,10 +15840,10 @@
         <v>0</v>
       </c>
       <c r="U98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
@@ -15965,7 +15932,7 @@
         <v>122</v>
       </c>
       <c r="C99" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D99" t="s">
         <v>257</v>
@@ -15974,16 +15941,16 @@
         <v>391</v>
       </c>
       <c r="F99" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G99" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H99" s="2">
         <v>45309</v>
       </c>
       <c r="I99" s="1">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -16017,10 +15984,10 @@
         <v>0</v>
       </c>
       <c r="U99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" s="1">
         <v>0</v>
@@ -16109,7 +16076,7 @@
         <v>123</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
         <v>258</v>
@@ -16118,16 +16085,16 @@
         <v>392</v>
       </c>
       <c r="F100" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G100" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H100" s="2">
         <v>45310</v>
       </c>
       <c r="I100" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -16146,10 +16113,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -16209,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -16233,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -16253,7 +16220,7 @@
         <v>124</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D101" t="s">
         <v>259</v>
@@ -16262,16 +16229,16 @@
         <v>393</v>
       </c>
       <c r="F101" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G101" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H101" s="2">
         <v>45310</v>
       </c>
       <c r="I101" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -16296,10 +16263,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -16377,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="AS101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT101" s="1">
         <v>0</v>
@@ -16397,7 +16364,7 @@
         <v>125</v>
       </c>
       <c r="C102" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D102" t="s">
         <v>260</v>
@@ -16406,16 +16373,16 @@
         <v>394</v>
       </c>
       <c r="F102" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G102" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H102" s="2">
         <v>45310</v>
       </c>
       <c r="I102" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -16434,16 +16401,16 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" s="1">
         <v>0</v>
@@ -16497,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>0</v>
@@ -16550,16 +16517,16 @@
         <v>395</v>
       </c>
       <c r="F103" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G103" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H103" s="2">
         <v>45369</v>
       </c>
       <c r="I103" s="1">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -16694,16 +16661,16 @@
         <v>395</v>
       </c>
       <c r="F104" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G104" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H104" s="2">
         <v>45310</v>
       </c>
       <c r="I104" s="1">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -16838,16 +16805,16 @@
         <v>395</v>
       </c>
       <c r="F105" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G105" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H105" s="2">
         <v>45371</v>
       </c>
       <c r="I105" s="1">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -16973,7 +16940,7 @@
         <v>127</v>
       </c>
       <c r="C106" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D106" t="s">
         <v>262</v>
@@ -16982,16 +16949,16 @@
         <v>396</v>
       </c>
       <c r="F106" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G106" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H106" s="2">
         <v>45420</v>
       </c>
       <c r="I106" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -17016,10 +16983,10 @@
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" s="1">
         <v>0</v>
@@ -17097,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="AS106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT106" s="1">
         <v>0</v>
@@ -17116,7 +17083,9 @@
       <c r="B107" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="1">
+        <v>3345</v>
+      </c>
       <c r="D107" t="s">
         <v>263</v>
       </c>
@@ -17124,22 +17093,22 @@
         <v>397</v>
       </c>
       <c r="F107" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G107" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H107" s="2">
         <v>45420</v>
       </c>
       <c r="I107" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -17152,10 +17121,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -17212,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -17268,16 +17237,16 @@
         <v>398</v>
       </c>
       <c r="F108" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G108" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H108" s="2">
         <v>45420</v>
       </c>
       <c r="I108" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -17402,9 +17371,7 @@
       <c r="B109" t="s">
         <v>130</v>
       </c>
-      <c r="C109" s="1">
-        <v>165365057</v>
-      </c>
+      <c r="C109" s="1"/>
       <c r="D109" t="s">
         <v>265</v>
       </c>
@@ -17412,22 +17379,22 @@
         <v>399</v>
       </c>
       <c r="F109" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G109" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H109" s="2">
         <v>45420</v>
       </c>
       <c r="I109" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
@@ -17500,10 +17467,10 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -17527,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="AS109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -17546,7 +17513,9 @@
       <c r="B110" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="1">
+        <v>2519</v>
+      </c>
       <c r="D110" t="s">
         <v>266</v>
       </c>
@@ -17554,22 +17523,22 @@
         <v>400</v>
       </c>
       <c r="F110" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G110" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H110" s="2">
         <v>45420</v>
       </c>
       <c r="I110" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -17609,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -17642,10 +17611,10 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -17660,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="AP110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ110" s="1">
         <v>0</v>
@@ -17688,9 +17657,7 @@
       <c r="B111" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="1">
-        <v>3345</v>
-      </c>
+      <c r="C111" s="1"/>
       <c r="D111" t="s">
         <v>267</v>
       </c>
@@ -17698,22 +17665,22 @@
         <v>401</v>
       </c>
       <c r="F111" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G111" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H111" s="2">
         <v>45420</v>
       </c>
       <c r="I111" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -17726,10 +17693,10 @@
         <v>0</v>
       </c>
       <c r="P111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" s="1">
         <v>0</v>
@@ -17786,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK111" s="1">
         <v>1</v>
@@ -17833,7 +17800,7 @@
         <v>133</v>
       </c>
       <c r="C112" s="1">
-        <v>2519</v>
+        <v>165365057</v>
       </c>
       <c r="D112" t="s">
         <v>268</v>
@@ -17842,16 +17809,16 @@
         <v>402</v>
       </c>
       <c r="F112" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G112" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H112" s="2">
         <v>45420</v>
       </c>
       <c r="I112" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -17897,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z112" s="1">
         <v>0</v>
@@ -17948,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="AP112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ112" s="1">
         <v>0</v>
@@ -17957,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -17977,7 +17944,7 @@
         <v>134</v>
       </c>
       <c r="C113" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D113" t="s">
         <v>269</v>
@@ -17986,22 +17953,22 @@
         <v>403</v>
       </c>
       <c r="F113" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G113" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H113" s="2">
         <v>45420</v>
       </c>
       <c r="I113" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
@@ -18101,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="AS113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT113" s="1">
         <v>0</v>
@@ -18121,7 +18088,7 @@
         <v>135</v>
       </c>
       <c r="C114" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D114" t="s">
         <v>270</v>
@@ -18130,22 +18097,22 @@
         <v>404</v>
       </c>
       <c r="F114" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G114" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H114" s="2">
         <v>45420</v>
       </c>
       <c r="I114" s="1">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
@@ -18164,10 +18131,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -18274,16 +18241,16 @@
         <v>405</v>
       </c>
       <c r="F115" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G115" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H115" s="2">
         <v>45372</v>
       </c>
       <c r="I115" s="1">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -18408,7 +18375,9 @@
       <c r="B116" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1">
+        <v>6213</v>
+      </c>
       <c r="D116" t="s">
         <v>272</v>
       </c>
@@ -18416,16 +18385,16 @@
         <v>406</v>
       </c>
       <c r="F116" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G116" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H116" s="2">
         <v>45418</v>
       </c>
       <c r="I116" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J116" s="1">
         <v>0</v>
@@ -18550,9 +18519,7 @@
       <c r="B117" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="1">
-        <v>2519</v>
-      </c>
+      <c r="C117" s="1"/>
       <c r="D117" t="s">
         <v>273</v>
       </c>
@@ -18560,22 +18527,22 @@
         <v>407</v>
       </c>
       <c r="F117" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G117" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H117" s="2">
         <v>45418</v>
       </c>
       <c r="I117" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
@@ -18615,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="1">
         <v>0</v>
@@ -18666,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ117" s="1">
         <v>0</v>
@@ -18694,9 +18661,7 @@
       <c r="B118" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="1">
-        <v>165365057</v>
-      </c>
+      <c r="C118" s="1"/>
       <c r="D118" t="s">
         <v>274</v>
       </c>
@@ -18704,16 +18669,16 @@
         <v>408</v>
       </c>
       <c r="F118" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G118" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H118" s="2">
         <v>45418</v>
       </c>
       <c r="I118" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J118" s="1">
         <v>0</v>
@@ -18819,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="AS118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT118" s="1">
         <v>0</v>
@@ -18848,16 +18813,16 @@
         <v>409</v>
       </c>
       <c r="F119" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G119" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H119" s="2">
         <v>45418</v>
       </c>
       <c r="I119" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J119" s="1">
         <v>1</v>
@@ -18983,7 +18948,7 @@
         <v>141</v>
       </c>
       <c r="C120" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D120" t="s">
         <v>276</v>
@@ -18992,16 +18957,16 @@
         <v>410</v>
       </c>
       <c r="F120" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G120" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H120" s="2">
         <v>45418</v>
       </c>
       <c r="I120" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J120" s="1">
         <v>0</v>
@@ -19126,7 +19091,9 @@
       <c r="B121" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="1">
+        <v>12107</v>
+      </c>
       <c r="D121" t="s">
         <v>277</v>
       </c>
@@ -19134,16 +19101,16 @@
         <v>411</v>
       </c>
       <c r="F121" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G121" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H121" s="2">
         <v>45418</v>
       </c>
       <c r="I121" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J121" s="1">
         <v>0</v>
@@ -19249,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="AS121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT121" s="1">
         <v>0</v>
@@ -19269,7 +19236,7 @@
         <v>143</v>
       </c>
       <c r="C122" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D122" t="s">
         <v>278</v>
@@ -19278,16 +19245,16 @@
         <v>412</v>
       </c>
       <c r="F122" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G122" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H122" s="2">
         <v>45418</v>
       </c>
       <c r="I122" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -19306,10 +19273,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" s="1">
         <v>0</v>
@@ -19369,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="AK122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL122" s="1">
         <v>0</v>
@@ -19393,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -19413,7 +19380,7 @@
         <v>144</v>
       </c>
       <c r="C123" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D123" t="s">
         <v>279</v>
@@ -19422,16 +19389,16 @@
         <v>413</v>
       </c>
       <c r="F123" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G123" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H123" s="2">
         <v>45418</v>
       </c>
       <c r="I123" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J123" s="1">
         <v>1</v>
@@ -19450,10 +19417,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123" s="1">
         <v>0</v>
@@ -19477,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z123" s="1">
         <v>0</v>
@@ -19513,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="AK123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123" s="1">
         <v>0</v>
@@ -19528,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="AP123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ123" s="1">
         <v>0</v>
@@ -19566,16 +19533,16 @@
         <v>414</v>
       </c>
       <c r="F124" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G124" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H124" s="2">
         <v>45418</v>
       </c>
       <c r="I124" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -19701,7 +19668,7 @@
         <v>146</v>
       </c>
       <c r="C125" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D125" t="s">
         <v>281</v>
@@ -19710,22 +19677,22 @@
         <v>415</v>
       </c>
       <c r="F125" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G125" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H125" s="2">
         <v>45418</v>
       </c>
       <c r="I125" s="1">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -19825,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="AS125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT125" s="1">
         <v>0</v>
@@ -19854,16 +19821,16 @@
         <v>416</v>
       </c>
       <c r="F126" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G126" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H126" s="2">
         <v>45420</v>
       </c>
       <c r="I126" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -19989,7 +19956,7 @@
         <v>148</v>
       </c>
       <c r="C127" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D127" t="s">
         <v>283</v>
@@ -19998,22 +19965,22 @@
         <v>417</v>
       </c>
       <c r="F127" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G127" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H127" s="2">
         <v>45420</v>
       </c>
       <c r="I127" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
@@ -20133,7 +20100,7 @@
         <v>149</v>
       </c>
       <c r="C128" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D128" t="s">
         <v>284</v>
@@ -20142,22 +20109,22 @@
         <v>418</v>
       </c>
       <c r="F128" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G128" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H128" s="2">
         <v>45420</v>
       </c>
       <c r="I128" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -20176,10 +20143,10 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" s="1">
         <v>0</v>
@@ -20257,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -20286,16 +20253,16 @@
         <v>419</v>
       </c>
       <c r="F129" t="s">
+        <v>536</v>
+      </c>
+      <c r="G129" t="s">
         <v>543</v>
-      </c>
-      <c r="G129" t="s">
-        <v>554</v>
       </c>
       <c r="H129" s="2">
         <v>45420</v>
       </c>
       <c r="I129" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J129" s="1">
         <v>1</v>
@@ -20421,7 +20388,7 @@
         <v>151</v>
       </c>
       <c r="C130" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D130" t="s">
         <v>286</v>
@@ -20430,22 +20397,22 @@
         <v>420</v>
       </c>
       <c r="F130" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G130" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H130" s="2">
         <v>45420</v>
       </c>
       <c r="I130" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
@@ -20521,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="AK130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="1">
         <v>0</v>
@@ -20545,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -20565,7 +20532,7 @@
         <v>152</v>
       </c>
       <c r="C131" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D131" t="s">
         <v>287</v>
@@ -20574,22 +20541,22 @@
         <v>421</v>
       </c>
       <c r="F131" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G131" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H131" s="2">
         <v>45420</v>
       </c>
       <c r="I131" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
@@ -20608,10 +20575,10 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -20665,7 +20632,7 @@
         <v>0</v>
       </c>
       <c r="AK131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL131" s="1">
         <v>0</v>
@@ -20709,7 +20676,7 @@
         <v>153</v>
       </c>
       <c r="C132" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D132" t="s">
         <v>288</v>
@@ -20718,16 +20685,16 @@
         <v>422</v>
       </c>
       <c r="F132" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G132" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H132" s="2">
         <v>45420</v>
       </c>
       <c r="I132" s="1">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J132" s="1">
         <v>0</v>
@@ -20853,7 +20820,7 @@
         <v>154</v>
       </c>
       <c r="C133" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D133" t="s">
         <v>289</v>
@@ -20862,22 +20829,22 @@
         <v>423</v>
       </c>
       <c r="F133" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G133" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H133" s="2">
         <v>45372</v>
       </c>
       <c r="I133" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
@@ -20890,10 +20857,10 @@
         <v>0</v>
       </c>
       <c r="P133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133" s="1">
         <v>0</v>
@@ -20997,7 +20964,7 @@
         <v>155</v>
       </c>
       <c r="C134" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D134" t="s">
         <v>290</v>
@@ -21006,16 +20973,16 @@
         <v>424</v>
       </c>
       <c r="F134" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G134" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H134" s="2">
         <v>45372</v>
       </c>
       <c r="I134" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J134" s="1">
         <v>0</v>
@@ -21097,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -21121,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -21141,7 +21108,7 @@
         <v>156</v>
       </c>
       <c r="C135" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D135" t="s">
         <v>291</v>
@@ -21150,22 +21117,22 @@
         <v>425</v>
       </c>
       <c r="F135" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="G135" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H135" s="2">
         <v>45372</v>
       </c>
       <c r="I135" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -21285,7 +21252,7 @@
         <v>157</v>
       </c>
       <c r="C136" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D136" t="s">
         <v>292</v>
@@ -21294,22 +21261,22 @@
         <v>426</v>
       </c>
       <c r="F136" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G136" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H136" s="2">
         <v>45372</v>
       </c>
       <c r="I136" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
@@ -21322,10 +21289,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
@@ -21385,7 +21352,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -21409,7 +21376,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -21438,16 +21405,16 @@
         <v>427</v>
       </c>
       <c r="F137" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G137" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H137" s="2">
         <v>45372</v>
       </c>
       <c r="I137" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J137" s="1">
         <v>1</v>
@@ -21573,7 +21540,7 @@
         <v>159</v>
       </c>
       <c r="C138" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D138" t="s">
         <v>294</v>
@@ -21582,22 +21549,22 @@
         <v>428</v>
       </c>
       <c r="F138" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G138" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H138" s="2">
         <v>45372</v>
       </c>
       <c r="I138" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="586">
   <si>
     <t>sampleid</t>
   </si>
@@ -99,402 +99,402 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>N-desethyl etonitazene</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>benzocaine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>pending nitazene</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>2-Fluoro-2-oxo PCE</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>acetanilide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-desethyl etonitazene</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>benzocaine</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>pending nitazene</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>2-Fluoro-2-oxo PCE</t>
-  </si>
-  <si>
-    <t>acetanilide</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -504,420 +504,792 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>94-09-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>67-71-0</t>
+    <t>2784-73-8</t>
+  </si>
+  <si>
+    <t>unii</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>94-09-7</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>6CW7F3G59X</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>U3RSY48JW5</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>unii</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
@@ -927,382 +1299,85 @@
     <t/>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>U3RSY48JW5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>abundance</t>
+    <t>trace</t>
   </si>
   <si>
     <t/>
@@ -1311,6 +1386,9 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1332,15 +1410,24 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1353,6 +1440,15 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1362,12 +1458,33 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1389,9 +1506,21 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1401,9 +1530,15 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1413,12 +1548,45 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1428,15 +1596,24 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>trace</t>
   </si>
   <si>
@@ -1452,6 +1629,9 @@
     <t/>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -1461,184 +1641,7 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>method</t>
@@ -1838,130 +1841,130 @@
         <v>429</v>
       </c>
       <c r="G1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="R1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="S1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="U1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="X1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Y1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AD1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AE1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AH1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AI1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AJ1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AK1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AQ1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AR1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AS1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AT1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AU1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AV1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2">
@@ -1984,13 +1987,13 @@
         <v>430</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H2" s="2">
         <v>45415</v>
       </c>
       <c r="I2" s="1">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -2116,7 +2119,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -2128,13 +2131,13 @@
         <v>431</v>
       </c>
       <c r="G3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2153,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -2216,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -2240,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -2260,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
         <v>164</v>
@@ -2272,13 +2275,13 @@
         <v>432</v>
       </c>
       <c r="G4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -2297,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -2404,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>165</v>
@@ -2416,13 +2419,13 @@
         <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -2528,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -2548,7 +2551,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D6" t="s">
         <v>166</v>
@@ -2560,13 +2563,13 @@
         <v>434</v>
       </c>
       <c r="G6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -2591,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2672,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -2692,7 +2695,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D7" t="s">
         <v>167</v>
@@ -2704,13 +2707,13 @@
         <v>435</v>
       </c>
       <c r="G7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -2729,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -2792,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -2836,7 +2839,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>168</v>
@@ -2848,13 +2851,13 @@
         <v>436</v>
       </c>
       <c r="G8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -2980,7 +2983,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
         <v>169</v>
@@ -2992,13 +2995,13 @@
         <v>437</v>
       </c>
       <c r="G9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -3017,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -3080,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -3124,7 +3127,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
         <v>170</v>
@@ -3136,13 +3139,13 @@
         <v>438</v>
       </c>
       <c r="G10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H10" s="2">
         <v>45310</v>
       </c>
       <c r="I10" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -3265,28 +3268,28 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
         <v>439</v>
       </c>
       <c r="G11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -3311,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -3392,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -3409,28 +3412,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F12" t="s">
         <v>440</v>
       </c>
       <c r="G12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -3449,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -3536,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -3553,28 +3556,28 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" t="s">
         <v>441</v>
       </c>
       <c r="G13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H13" s="2">
         <v>45345</v>
       </c>
       <c r="I13" s="1">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -3593,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -3697,34 +3700,34 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
         <v>442</v>
       </c>
       <c r="G14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -3743,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -3841,28 +3844,28 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F15" t="s">
         <v>443</v>
       </c>
       <c r="G15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -3881,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -3944,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -3985,28 +3988,28 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
         <v>444</v>
       </c>
       <c r="G16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -4031,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -4112,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -4129,34 +4132,34 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
         <v>445</v>
       </c>
       <c r="G17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H17" s="2">
         <v>45310</v>
       </c>
       <c r="I17" s="1">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -4169,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -4193,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -4232,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -4273,28 +4276,28 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -4376,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -4417,34 +4420,34 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
         <v>446</v>
       </c>
       <c r="G19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -4511,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -4544,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -4561,32 +4564,34 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3100</v>
+      </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -4677,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -4703,34 +4708,34 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4764,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -4830,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -4847,28 +4852,28 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4887,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4950,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -4974,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -4991,28 +4996,28 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>3446</v>
+        <v>165361568</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -5118,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="1">
         <v>0</v>
@@ -5135,28 +5140,28 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -5184,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>0</v>
@@ -5238,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -5279,34 +5284,34 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -5423,28 +5428,28 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
-        <v>6213</v>
+        <v>12562546</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F26" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -5517,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="1">
         <v>0</v>
@@ -5567,28 +5572,26 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1">
-        <v>165361568</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -5694,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -5711,28 +5714,28 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
         <v>66924</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5855,26 +5858,28 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G29" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5956,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -5997,28 +6002,28 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>62300</v>
+        <v>3446</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -6100,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -6141,34 +6146,32 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1">
-        <v>165365057</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -6268,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -6285,34 +6288,34 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -6334,10 +6337,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -6403,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -6429,28 +6432,28 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H33" s="2">
         <v>45316</v>
       </c>
       <c r="I33" s="1">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -6469,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -6490,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -6532,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -6573,28 +6576,28 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H34" s="2">
         <v>45420</v>
       </c>
       <c r="I34" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -6613,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6676,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -6691,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -6717,34 +6720,34 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H35" s="2">
         <v>45420</v>
       </c>
       <c r="I35" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -6820,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -6835,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -6861,28 +6864,28 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H36" s="2">
         <v>45420</v>
       </c>
       <c r="I36" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6922,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -6979,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -7005,28 +7008,28 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G37" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H37" s="2">
         <v>45420</v>
       </c>
       <c r="I37" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -7066,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -7123,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -7149,34 +7152,34 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H38" s="2">
         <v>45420</v>
       </c>
       <c r="I38" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -7189,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -7293,28 +7296,28 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G39" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H39" s="2">
         <v>45420</v>
       </c>
       <c r="I39" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -7396,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -7420,10 +7423,10 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="1">
         <v>0</v>
@@ -7437,28 +7440,28 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F40" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G40" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H40" s="2">
         <v>45420</v>
       </c>
       <c r="I40" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7564,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -7581,28 +7584,28 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1">
-        <v>66924</v>
+        <v>21812144</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F41" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G41" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H41" s="2">
         <v>45420</v>
       </c>
       <c r="I41" s="1">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7684,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -7711,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" s="1">
         <v>0</v>
@@ -7725,28 +7728,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1">
         <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F42" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G42" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7869,34 +7872,34 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G43" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H43" s="2">
         <v>45310</v>
       </c>
       <c r="I43" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7972,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7996,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -8013,28 +8016,28 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F44" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G44" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H44" s="2">
         <v>45310</v>
       </c>
       <c r="I44" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -8053,10 +8056,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -8116,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -8157,28 +8160,28 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F45" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G45" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H45" s="2">
         <v>45310</v>
       </c>
       <c r="I45" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8278,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="1">
         <v>0</v>
@@ -8301,28 +8304,28 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F46" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H46" s="2">
         <v>45310</v>
       </c>
       <c r="I46" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8404,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -8428,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -8445,34 +8448,34 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G47" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H47" s="2">
         <v>45310</v>
       </c>
       <c r="I47" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8566,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
@@ -8589,28 +8592,28 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F48" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G48" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H48" s="2">
         <v>45310</v>
       </c>
       <c r="I48" s="1">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8629,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8692,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8733,34 +8736,34 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F49" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G49" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H49" s="2">
         <v>45420</v>
       </c>
       <c r="I49" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8800,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -8851,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -8877,28 +8880,28 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1">
-        <v>3100</v>
+        <v>3676</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H50" s="2">
         <v>45420</v>
       </c>
       <c r="I50" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -9021,28 +9024,28 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G51" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H51" s="2">
         <v>45420</v>
       </c>
       <c r="I51" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9067,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -9088,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -9139,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -9165,28 +9168,28 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F52" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G52" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H52" s="2">
         <v>45420</v>
       </c>
       <c r="I52" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9211,10 +9214,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -9283,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -9309,34 +9312,34 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G53" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H53" s="2">
         <v>45420</v>
       </c>
       <c r="I53" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9427,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
@@ -9453,28 +9456,28 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1">
         <v>3345</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G54" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H54" s="2">
         <v>45420</v>
       </c>
       <c r="I54" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9597,34 +9600,34 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G55" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H55" s="2">
         <v>45420</v>
       </c>
       <c r="I55" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9741,34 +9744,34 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F56" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H56" s="2">
         <v>45420</v>
       </c>
       <c r="I56" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9802,10 +9805,10 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -9868,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -9885,28 +9888,28 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H57" s="2">
         <v>45420</v>
       </c>
       <c r="I57" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -9946,10 +9949,10 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -10012,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -10029,28 +10032,28 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G58" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H58" s="2">
         <v>45310</v>
       </c>
       <c r="I58" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10075,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="R58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
@@ -10156,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -10173,28 +10176,28 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G59" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H59" s="2">
         <v>45310</v>
       </c>
       <c r="I59" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10219,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -10317,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1">
         <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H60" s="2">
         <v>45310</v>
       </c>
       <c r="I60" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -10461,26 +10464,28 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5707</v>
+      </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G61" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H61" s="2">
         <v>45419</v>
       </c>
       <c r="I61" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10505,10 +10510,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
@@ -10559,10 +10564,10 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -10603,28 +10608,26 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5707</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G62" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H62" s="2">
         <v>45419</v>
       </c>
       <c r="I62" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10649,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10703,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -10747,28 +10750,28 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G63" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H63" s="2">
         <v>45419</v>
       </c>
       <c r="I63" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -10805,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="1">
         <v>0</v>
@@ -10850,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -10891,28 +10894,28 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="1">
-        <v>3100</v>
+        <v>6213</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H64" s="2">
         <v>45419</v>
       </c>
       <c r="I64" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -11009,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -11035,28 +11038,28 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F65" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G65" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H65" s="2">
         <v>45419</v>
       </c>
       <c r="I65" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -11153,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -11179,28 +11182,28 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G66" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H66" s="2">
         <v>45419</v>
       </c>
       <c r="I66" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -11237,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -11282,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -11323,28 +11326,28 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G67" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H67" s="2">
         <v>45419</v>
       </c>
       <c r="I67" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11366,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11426,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -11450,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="1">
         <v>0</v>
@@ -11467,28 +11470,28 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H68" s="2">
         <v>45419</v>
       </c>
       <c r="I68" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11510,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -11570,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -11594,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -11611,34 +11614,34 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F69" t="s">
         <v>485</v>
       </c>
       <c r="G69" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H69" s="2">
         <v>45420</v>
       </c>
       <c r="I69" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -11675,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -11729,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -11755,34 +11758,34 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F70" t="s">
         <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H70" s="2">
         <v>45420</v>
       </c>
       <c r="I70" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -11795,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -11858,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -11873,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -11899,34 +11902,34 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G71" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H71" s="2">
         <v>45420</v>
       </c>
       <c r="I71" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -11963,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
         <v>0</v>
@@ -12026,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -12043,28 +12046,28 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G72" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H72" s="2">
         <v>45420</v>
       </c>
       <c r="I72" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -12110,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="1">
         <v>0</v>
@@ -12161,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -12170,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -12187,34 +12190,34 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G73" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H73" s="2">
         <v>45420</v>
       </c>
       <c r="I73" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12236,10 +12239,10 @@
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
@@ -12305,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -12331,34 +12334,34 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G74" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H74" s="2">
         <v>45420</v>
       </c>
       <c r="I74" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12371,10 +12374,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -12475,28 +12478,28 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F75" t="s">
         <v>490</v>
       </c>
       <c r="G75" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H75" s="2">
         <v>45420</v>
       </c>
       <c r="I75" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -12524,10 +12527,10 @@
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="1">
         <v>0</v>
@@ -12578,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -12619,34 +12622,34 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1">
-        <v>3676</v>
+        <v>3100</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F76" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G76" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H76" s="2">
         <v>45420</v>
       </c>
       <c r="I76" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12763,28 +12766,28 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H77" s="2">
         <v>45420</v>
       </c>
       <c r="I77" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -12809,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -12890,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -12907,28 +12910,28 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G78" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H78" s="2">
         <v>45420</v>
       </c>
       <c r="I78" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -12947,16 +12950,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -13051,28 +13054,28 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1">
         <v>10836</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F79" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G79" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H79" s="2">
         <v>45420</v>
       </c>
       <c r="I79" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -13195,28 +13198,28 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G80" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H80" s="2">
         <v>45420</v>
       </c>
       <c r="I80" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -13235,10 +13238,10 @@
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -13298,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="AK80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
         <v>0</v>
@@ -13322,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="AS80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
@@ -13342,7 +13345,7 @@
         <v>104</v>
       </c>
       <c r="C81" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D81" t="s">
         <v>239</v>
@@ -13351,16 +13354,16 @@
         <v>373</v>
       </c>
       <c r="F81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H81" s="2">
         <v>45336</v>
       </c>
       <c r="I81" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -13379,10 +13382,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -13469,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="AT81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU81" s="1">
         <v>0</v>
@@ -13486,7 +13489,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -13495,16 +13498,16 @@
         <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G82" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H82" s="2">
         <v>45336</v>
       </c>
       <c r="I82" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -13586,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -13610,10 +13613,10 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="1">
         <v>0</v>
@@ -13630,7 +13633,7 @@
         <v>106</v>
       </c>
       <c r="C83" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D83" t="s">
         <v>241</v>
@@ -13639,22 +13642,22 @@
         <v>375</v>
       </c>
       <c r="F83" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H83" s="2">
         <v>45336</v>
       </c>
       <c r="I83" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
@@ -13730,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -13754,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -13783,16 +13786,16 @@
         <v>376</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H84" s="2">
         <v>45336</v>
       </c>
       <c r="I84" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -13918,7 +13921,7 @@
         <v>108</v>
       </c>
       <c r="C85" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
         <v>243</v>
@@ -13927,22 +13930,22 @@
         <v>377</v>
       </c>
       <c r="F85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G85" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H85" s="2">
         <v>45336</v>
       </c>
       <c r="I85" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -13955,10 +13958,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -14062,7 +14065,7 @@
         <v>109</v>
       </c>
       <c r="C86" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D86" t="s">
         <v>244</v>
@@ -14071,16 +14074,16 @@
         <v>378</v>
       </c>
       <c r="F86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G86" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H86" s="2">
         <v>45420</v>
       </c>
       <c r="I86" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -14114,10 +14117,10 @@
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86" s="1">
         <v>0</v>
@@ -14206,7 +14209,7 @@
         <v>110</v>
       </c>
       <c r="C87" s="1">
-        <v>66924</v>
+        <v>21812144</v>
       </c>
       <c r="D87" t="s">
         <v>245</v>
@@ -14215,16 +14218,16 @@
         <v>379</v>
       </c>
       <c r="F87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G87" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H87" s="2">
         <v>45420</v>
       </c>
       <c r="I87" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -14306,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -14333,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="AT87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87" s="1">
         <v>0</v>
@@ -14349,9 +14352,7 @@
       <c r="B88" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="1">
-        <v>2337</v>
-      </c>
+      <c r="C88" s="1"/>
       <c r="D88" t="s">
         <v>246</v>
       </c>
@@ -14359,16 +14360,16 @@
         <v>380</v>
       </c>
       <c r="F88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G88" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H88" s="2">
         <v>45420</v>
       </c>
       <c r="I88" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
@@ -14447,10 +14448,10 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -14465,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AP88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ88" s="1">
         <v>0</v>
@@ -14494,7 +14495,7 @@
         <v>112</v>
       </c>
       <c r="C89" s="1">
-        <v>165361568</v>
+        <v>165365057</v>
       </c>
       <c r="D89" t="s">
         <v>247</v>
@@ -14503,16 +14504,16 @@
         <v>381</v>
       </c>
       <c r="F89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G89" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H89" s="2">
         <v>45420</v>
       </c>
       <c r="I89" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
@@ -14621,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="AT89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU89" s="1">
         <v>0</v>
@@ -14638,7 +14639,7 @@
         <v>113</v>
       </c>
       <c r="C90" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D90" t="s">
         <v>248</v>
@@ -14647,16 +14648,16 @@
         <v>382</v>
       </c>
       <c r="F90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G90" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H90" s="2">
         <v>45420</v>
       </c>
       <c r="I90" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -14738,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -14762,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -14791,16 +14792,16 @@
         <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H91" s="2">
         <v>45420</v>
       </c>
       <c r="I91" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -14935,16 +14936,16 @@
         <v>384</v>
       </c>
       <c r="F92" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G92" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H92" s="2">
         <v>45420</v>
       </c>
       <c r="I92" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -15069,7 +15070,9 @@
       <c r="B93" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1">
+        <v>10836</v>
+      </c>
       <c r="D93" t="s">
         <v>251</v>
       </c>
@@ -15077,22 +15080,22 @@
         <v>385</v>
       </c>
       <c r="F93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G93" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H93" s="2">
         <v>45420</v>
       </c>
       <c r="I93" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -15120,10 +15123,10 @@
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" s="1">
         <v>0</v>
@@ -15165,10 +15168,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>0</v>
@@ -15212,7 +15215,7 @@
         <v>117</v>
       </c>
       <c r="C94" s="1">
-        <v>62300</v>
+        <v>2337</v>
       </c>
       <c r="D94" t="s">
         <v>252</v>
@@ -15224,13 +15227,13 @@
         <v>505</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H94" s="2">
         <v>45420</v>
       </c>
       <c r="I94" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -15312,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -15327,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="AP94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ94" s="1">
         <v>0</v>
@@ -15368,13 +15371,13 @@
         <v>506</v>
       </c>
       <c r="G95" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H95" s="2">
         <v>45420</v>
       </c>
       <c r="I95" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -15500,7 +15503,7 @@
         <v>119</v>
       </c>
       <c r="C96" s="1">
-        <v>21812144</v>
+        <v>165361568</v>
       </c>
       <c r="D96" t="s">
         <v>254</v>
@@ -15512,19 +15515,19 @@
         <v>507</v>
       </c>
       <c r="G96" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H96" s="2">
         <v>45420</v>
       </c>
       <c r="I96" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -15600,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="AK96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -15624,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT96" s="1">
         <v>1</v>
@@ -15656,13 +15659,13 @@
         <v>508</v>
       </c>
       <c r="G97" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H97" s="2">
         <v>45420</v>
       </c>
       <c r="I97" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -15800,13 +15803,13 @@
         <v>509</v>
       </c>
       <c r="G98" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H98" s="2">
         <v>45309</v>
       </c>
       <c r="I98" s="1">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -15944,13 +15947,13 @@
         <v>510</v>
       </c>
       <c r="G99" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H99" s="2">
         <v>45309</v>
       </c>
       <c r="I99" s="1">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -16076,7 +16079,7 @@
         <v>123</v>
       </c>
       <c r="C100" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D100" t="s">
         <v>258</v>
@@ -16088,13 +16091,13 @@
         <v>511</v>
       </c>
       <c r="G100" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H100" s="2">
         <v>45310</v>
       </c>
       <c r="I100" s="1">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -16119,10 +16122,10 @@
         <v>0</v>
       </c>
       <c r="R100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" s="1">
         <v>0</v>
@@ -16200,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -16220,7 +16223,7 @@
         <v>124</v>
       </c>
       <c r="C101" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D101" t="s">
         <v>259</v>
@@ -16232,13 +16235,13 @@
         <v>512</v>
       </c>
       <c r="G101" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H101" s="2">
         <v>45310</v>
       </c>
       <c r="I101" s="1">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -16257,16 +16260,16 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -16320,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="AK101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL101" s="1">
         <v>0</v>
@@ -16364,7 +16367,7 @@
         <v>125</v>
       </c>
       <c r="C102" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D102" t="s">
         <v>260</v>
@@ -16376,13 +16379,13 @@
         <v>513</v>
       </c>
       <c r="G102" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H102" s="2">
         <v>45310</v>
       </c>
       <c r="I102" s="1">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -16401,10 +16404,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -16464,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
         <v>0</v>
@@ -16488,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -16520,13 +16523,13 @@
         <v>514</v>
       </c>
       <c r="G103" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H103" s="2">
         <v>45369</v>
       </c>
       <c r="I103" s="1">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -16664,13 +16667,13 @@
         <v>515</v>
       </c>
       <c r="G104" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H104" s="2">
         <v>45310</v>
       </c>
       <c r="I104" s="1">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -16808,13 +16811,13 @@
         <v>516</v>
       </c>
       <c r="G105" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H105" s="2">
         <v>45371</v>
       </c>
       <c r="I105" s="1">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -16952,13 +16955,13 @@
         <v>517</v>
       </c>
       <c r="G106" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H106" s="2">
         <v>45420</v>
       </c>
       <c r="I106" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -17084,7 +17087,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D107" t="s">
         <v>263</v>
@@ -17096,13 +17099,13 @@
         <v>518</v>
       </c>
       <c r="G107" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H107" s="2">
         <v>45420</v>
       </c>
       <c r="I107" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -17121,10 +17124,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -17142,10 +17145,10 @@
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y107" s="1">
         <v>0</v>
@@ -17184,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -17228,7 +17231,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="1">
-        <v>446220</v>
+        <v>6213</v>
       </c>
       <c r="D108" t="s">
         <v>264</v>
@@ -17240,19 +17243,19 @@
         <v>519</v>
       </c>
       <c r="G108" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H108" s="2">
         <v>45420</v>
       </c>
       <c r="I108" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -17286,10 +17289,10 @@
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y108" s="1">
         <v>0</v>
@@ -17379,16 +17382,16 @@
         <v>399</v>
       </c>
       <c r="F109" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G109" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H109" s="2">
         <v>45420</v>
       </c>
       <c r="I109" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
@@ -17514,7 +17517,7 @@
         <v>131</v>
       </c>
       <c r="C110" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D110" t="s">
         <v>266</v>
@@ -17523,16 +17526,16 @@
         <v>400</v>
       </c>
       <c r="F110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G110" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H110" s="2">
         <v>45420</v>
       </c>
       <c r="I110" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -17557,10 +17560,10 @@
         <v>0</v>
       </c>
       <c r="R110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" s="1">
         <v>0</v>
@@ -17578,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -17629,7 +17632,7 @@
         <v>0</v>
       </c>
       <c r="AP110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ110" s="1">
         <v>0</v>
@@ -17657,7 +17660,9 @@
       <c r="B111" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D111" t="s">
         <v>267</v>
       </c>
@@ -17665,22 +17670,22 @@
         <v>401</v>
       </c>
       <c r="F111" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G111" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H111" s="2">
         <v>45420</v>
       </c>
       <c r="I111" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -17753,10 +17758,10 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -17780,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -17800,7 +17805,7 @@
         <v>133</v>
       </c>
       <c r="C112" s="1">
-        <v>165365057</v>
+        <v>2519</v>
       </c>
       <c r="D112" t="s">
         <v>268</v>
@@ -17809,16 +17814,16 @@
         <v>402</v>
       </c>
       <c r="F112" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G112" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H112" s="2">
         <v>45420</v>
       </c>
       <c r="I112" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -17864,7 +17869,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112" s="1">
         <v>0</v>
@@ -17915,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="AP112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ112" s="1">
         <v>0</v>
@@ -17924,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -17944,7 +17949,7 @@
         <v>134</v>
       </c>
       <c r="C113" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D113" t="s">
         <v>269</v>
@@ -17953,22 +17958,22 @@
         <v>403</v>
       </c>
       <c r="F113" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G113" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H113" s="2">
         <v>45420</v>
       </c>
       <c r="I113" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
@@ -17981,10 +17986,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" s="1">
         <v>0</v>
@@ -18044,7 +18049,7 @@
         <v>0</v>
       </c>
       <c r="AK113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL113" s="1">
         <v>0</v>
@@ -18087,9 +18092,7 @@
       <c r="B114" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="1">
-        <v>5707</v>
-      </c>
+      <c r="C114" s="1"/>
       <c r="D114" t="s">
         <v>270</v>
       </c>
@@ -18097,22 +18100,22 @@
         <v>404</v>
       </c>
       <c r="F114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G114" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H114" s="2">
         <v>45420</v>
       </c>
       <c r="I114" s="1">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
@@ -18131,10 +18134,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -18185,10 +18188,10 @@
         <v>0</v>
       </c>
       <c r="AJ114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL114" s="1">
         <v>0</v>
@@ -18241,16 +18244,16 @@
         <v>405</v>
       </c>
       <c r="F115" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G115" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H115" s="2">
         <v>45372</v>
       </c>
       <c r="I115" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -18376,7 +18379,7 @@
         <v>137</v>
       </c>
       <c r="C116" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D116" t="s">
         <v>272</v>
@@ -18385,22 +18388,22 @@
         <v>406</v>
       </c>
       <c r="F116" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G116" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H116" s="2">
         <v>45418</v>
       </c>
       <c r="I116" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
@@ -18500,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -18519,7 +18522,9 @@
       <c r="B117" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1">
+        <v>12107</v>
+      </c>
       <c r="D117" t="s">
         <v>273</v>
       </c>
@@ -18530,13 +18535,13 @@
         <v>527</v>
       </c>
       <c r="G117" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H117" s="2">
         <v>45418</v>
       </c>
       <c r="I117" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J117" s="1">
         <v>0</v>
@@ -18642,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -18661,7 +18666,9 @@
       <c r="B118" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="1">
+        <v>2519</v>
+      </c>
       <c r="D118" t="s">
         <v>274</v>
       </c>
@@ -18669,22 +18676,22 @@
         <v>408</v>
       </c>
       <c r="F118" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G118" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H118" s="2">
         <v>45418</v>
       </c>
       <c r="I118" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
@@ -18724,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z118" s="1">
         <v>0</v>
@@ -18775,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ118" s="1">
         <v>0</v>
@@ -18804,7 +18811,7 @@
         <v>140</v>
       </c>
       <c r="C119" s="1">
-        <v>446220</v>
+        <v>6213</v>
       </c>
       <c r="D119" t="s">
         <v>275</v>
@@ -18813,22 +18820,22 @@
         <v>409</v>
       </c>
       <c r="F119" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G119" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H119" s="2">
         <v>45418</v>
       </c>
       <c r="I119" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -18862,10 +18869,10 @@
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y119" s="1">
         <v>0</v>
@@ -18947,9 +18954,7 @@
       <c r="B120" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="1">
-        <v>165365057</v>
-      </c>
+      <c r="C120" s="1"/>
       <c r="D120" t="s">
         <v>276</v>
       </c>
@@ -18960,13 +18965,13 @@
         <v>529</v>
       </c>
       <c r="G120" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H120" s="2">
         <v>45418</v>
       </c>
       <c r="I120" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J120" s="1">
         <v>0</v>
@@ -19072,7 +19077,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -19092,7 +19097,7 @@
         <v>142</v>
       </c>
       <c r="C121" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D121" t="s">
         <v>277</v>
@@ -19104,13 +19109,13 @@
         <v>529</v>
       </c>
       <c r="G121" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H121" s="2">
         <v>45418</v>
       </c>
       <c r="I121" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J121" s="1">
         <v>0</v>
@@ -19248,13 +19253,13 @@
         <v>530</v>
       </c>
       <c r="G122" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H122" s="2">
         <v>45418</v>
       </c>
       <c r="I122" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -19380,7 +19385,7 @@
         <v>144</v>
       </c>
       <c r="C123" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D123" t="s">
         <v>279</v>
@@ -19392,13 +19397,13 @@
         <v>531</v>
       </c>
       <c r="G123" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H123" s="2">
         <v>45418</v>
       </c>
       <c r="I123" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J123" s="1">
         <v>1</v>
@@ -19423,10 +19428,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" s="1">
         <v>0</v>
@@ -19444,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="1">
         <v>0</v>
@@ -19495,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="AP123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ123" s="1">
         <v>0</v>
@@ -19524,7 +19529,7 @@
         <v>145</v>
       </c>
       <c r="C124" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D124" t="s">
         <v>280</v>
@@ -19536,13 +19541,13 @@
         <v>532</v>
       </c>
       <c r="G124" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H124" s="2">
         <v>45418</v>
       </c>
       <c r="I124" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -19567,10 +19572,10 @@
         <v>0</v>
       </c>
       <c r="R124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" s="1">
         <v>0</v>
@@ -19582,10 +19587,10 @@
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y124" s="1">
         <v>0</v>
@@ -19667,9 +19672,7 @@
       <c r="B125" t="s">
         <v>146</v>
       </c>
-      <c r="C125" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C125" s="1"/>
       <c r="D125" t="s">
         <v>281</v>
       </c>
@@ -19680,19 +19683,19 @@
         <v>533</v>
       </c>
       <c r="G125" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H125" s="2">
         <v>45418</v>
       </c>
       <c r="I125" s="1">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -19792,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="AS125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT125" s="1">
         <v>0</v>
@@ -19812,7 +19815,7 @@
         <v>147</v>
       </c>
       <c r="C126" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D126" t="s">
         <v>282</v>
@@ -19824,19 +19827,19 @@
         <v>534</v>
       </c>
       <c r="G126" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H126" s="2">
         <v>45420</v>
       </c>
       <c r="I126" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
@@ -19849,10 +19852,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="1">
         <v>0</v>
@@ -19912,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="AK126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL126" s="1">
         <v>0</v>
@@ -19927,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="AP126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ126" s="1">
         <v>0</v>
@@ -19956,7 +19959,7 @@
         <v>148</v>
       </c>
       <c r="C127" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D127" t="s">
         <v>283</v>
@@ -19965,16 +19968,16 @@
         <v>417</v>
       </c>
       <c r="F127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G127" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H127" s="2">
         <v>45420</v>
       </c>
       <c r="I127" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J127" s="1">
         <v>0</v>
@@ -20056,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="AK127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL127" s="1">
         <v>0</v>
@@ -20080,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -20100,7 +20103,7 @@
         <v>149</v>
       </c>
       <c r="C128" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D128" t="s">
         <v>284</v>
@@ -20112,19 +20115,19 @@
         <v>535</v>
       </c>
       <c r="G128" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H128" s="2">
         <v>45420</v>
       </c>
       <c r="I128" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -20143,10 +20146,10 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128" s="1">
         <v>0</v>
@@ -20215,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="AP128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ128" s="1">
         <v>0</v>
@@ -20244,7 +20247,7 @@
         <v>150</v>
       </c>
       <c r="C129" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D129" t="s">
         <v>285</v>
@@ -20256,13 +20259,13 @@
         <v>536</v>
       </c>
       <c r="G129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H129" s="2">
         <v>45420</v>
       </c>
       <c r="I129" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J129" s="1">
         <v>1</v>
@@ -20281,10 +20284,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" s="1">
         <v>0</v>
@@ -20344,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="AK129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="1">
         <v>0</v>
@@ -20368,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="AS129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT129" s="1">
         <v>0</v>
@@ -20388,7 +20391,7 @@
         <v>151</v>
       </c>
       <c r="C130" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D130" t="s">
         <v>286</v>
@@ -20400,13 +20403,13 @@
         <v>537</v>
       </c>
       <c r="G130" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H130" s="2">
         <v>45420</v>
       </c>
       <c r="I130" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J130" s="1">
         <v>1</v>
@@ -20431,10 +20434,10 @@
         <v>0</v>
       </c>
       <c r="R130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" s="1">
         <v>0</v>
@@ -20512,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -20532,7 +20535,7 @@
         <v>152</v>
       </c>
       <c r="C131" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D131" t="s">
         <v>287</v>
@@ -20544,13 +20547,13 @@
         <v>538</v>
       </c>
       <c r="G131" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H131" s="2">
         <v>45420</v>
       </c>
       <c r="I131" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J131" s="1">
         <v>0</v>
@@ -20632,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="AK131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131" s="1">
         <v>0</v>
@@ -20656,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="AS131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT131" s="1">
         <v>0</v>
@@ -20676,7 +20679,7 @@
         <v>153</v>
       </c>
       <c r="C132" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D132" t="s">
         <v>288</v>
@@ -20688,13 +20691,13 @@
         <v>538</v>
       </c>
       <c r="G132" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H132" s="2">
         <v>45420</v>
       </c>
       <c r="I132" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J132" s="1">
         <v>0</v>
@@ -20820,7 +20823,7 @@
         <v>154</v>
       </c>
       <c r="C133" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D133" t="s">
         <v>289</v>
@@ -20832,13 +20835,13 @@
         <v>538</v>
       </c>
       <c r="G133" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H133" s="2">
         <v>45372</v>
       </c>
       <c r="I133" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J133" s="1">
         <v>0</v>
@@ -20920,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -20944,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="AS133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT133" s="1">
         <v>0</v>
@@ -20964,7 +20967,7 @@
         <v>155</v>
       </c>
       <c r="C134" s="1">
-        <v>156346345</v>
+        <v>5462328</v>
       </c>
       <c r="D134" t="s">
         <v>290</v>
@@ -20973,22 +20976,22 @@
         <v>424</v>
       </c>
       <c r="F134" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G134" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H134" s="2">
         <v>45372</v>
       </c>
       <c r="I134" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
@@ -21064,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -21088,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -21108,7 +21111,7 @@
         <v>156</v>
       </c>
       <c r="C135" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D135" t="s">
         <v>291</v>
@@ -21117,22 +21120,22 @@
         <v>425</v>
       </c>
       <c r="F135" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G135" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H135" s="2">
         <v>45372</v>
       </c>
       <c r="I135" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -21145,10 +21148,10 @@
         <v>0</v>
       </c>
       <c r="P135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R135" s="1">
         <v>0</v>
@@ -21208,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL135" s="1">
         <v>0</v>
@@ -21232,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -21252,7 +21255,7 @@
         <v>157</v>
       </c>
       <c r="C136" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D136" t="s">
         <v>292</v>
@@ -21261,16 +21264,16 @@
         <v>426</v>
       </c>
       <c r="F136" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G136" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H136" s="2">
         <v>45372</v>
       </c>
       <c r="I136" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -21289,10 +21292,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
@@ -21352,7 +21355,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -21376,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -21396,7 +21399,7 @@
         <v>158</v>
       </c>
       <c r="C137" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D137" t="s">
         <v>293</v>
@@ -21405,22 +21408,22 @@
         <v>427</v>
       </c>
       <c r="F137" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G137" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H137" s="2">
         <v>45372</v>
       </c>
       <c r="I137" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -21496,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="AK137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL137" s="1">
         <v>0</v>
@@ -21520,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -21540,7 +21543,7 @@
         <v>159</v>
       </c>
       <c r="C138" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D138" t="s">
         <v>294</v>
@@ -21549,22 +21552,22 @@
         <v>428</v>
       </c>
       <c r="F138" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G138" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H138" s="2">
         <v>45372</v>
       </c>
       <c r="I138" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -21640,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="AK138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL138" s="1">
         <v>0</v>
@@ -21664,7 +21667,7 @@
         <v>0</v>
       </c>
       <c r="AS138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT138" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="912" uniqueCount="150">
   <si>
     <t>sampleid</t>
   </si>
@@ -105,22 +105,7 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
   </si>
   <si>
     <t>fentanyl</t>
@@ -129,40 +114,16 @@
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>xylazine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
   </si>
   <si>
     <t>MMB-FUBINACA</t>
@@ -171,355 +132,67 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>gabapentin</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>2-fluoro deschloroketamine</t>
+    <t>p-fluoro phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
     <t>N-desethyl etonitazene</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>benzocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>N-pyrrolidino-etonitazene</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>pending nitazene</t>
   </si>
   <si>
-    <t>caffeine</t>
+    <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
-    <t>N-pyrrolidino-etonitazene</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>caffeine</t>
+    <t>acetanilide</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>2-Fluoro-2-oxo PCE</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>acetanilide</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>2-Fluoro-2-oxo PCE</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>etaqualone</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
   </si>
   <si>
     <t>pubchemcid</t>
@@ -534,22 +207,7 @@
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
   </si>
   <si>
     <t>437-38-7</t>
@@ -558,397 +216,55 @@
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>58-73-1</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
   </si>
   <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>60142-96-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>58-08-2</t>
   </si>
   <si>
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>2784-73-8</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>103-90-2</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
   </si>
   <si>
     <t>94-09-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
   </si>
   <si>
     <t>unii</t>
@@ -957,25 +273,7 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>UF599785JZ</t>
@@ -984,784 +282,61 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>8GTS82S83M</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
   </si>
   <si>
     <t>U3RSY48JW5</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
   </si>
   <si>
     <t>abundance</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>method</t>
@@ -1777,9 +352,6 @@
   </si>
   <si>
     <t>primary</t>
-  </si>
-  <si>
-    <t>trace</t>
   </si>
   <si>
     <t>lab_null</t>
@@ -1896,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1937,8 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1949,142 +524,142 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>583</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>585</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>586</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>587</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>588</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>589</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>590</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
-        <v>591</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>592</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
-        <v>593</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
-        <v>594</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>595</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>596</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s">
-        <v>597</v>
+        <v>121</v>
       </c>
       <c r="U1" t="s">
-        <v>598</v>
+        <v>122</v>
       </c>
       <c r="V1" t="s">
-        <v>599</v>
+        <v>123</v>
       </c>
       <c r="W1" t="s">
-        <v>600</v>
+        <v>124</v>
       </c>
       <c r="X1" t="s">
-        <v>601</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>602</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>603</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>604</v>
+        <v>128</v>
       </c>
       <c r="AB1" t="s">
-        <v>605</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>606</v>
+        <v>130</v>
       </c>
       <c r="AD1" t="s">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="AE1" t="s">
-        <v>608</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>609</v>
+        <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>610</v>
+        <v>134</v>
       </c>
       <c r="AH1" t="s">
-        <v>611</v>
+        <v>135</v>
       </c>
       <c r="AI1" t="s">
-        <v>612</v>
+        <v>136</v>
       </c>
       <c r="AJ1" t="s">
-        <v>613</v>
+        <v>137</v>
       </c>
       <c r="AK1" t="s">
-        <v>614</v>
+        <v>138</v>
       </c>
       <c r="AL1" t="s">
-        <v>615</v>
+        <v>139</v>
       </c>
       <c r="AM1" t="s">
-        <v>616</v>
+        <v>140</v>
       </c>
       <c r="AN1" t="s">
-        <v>617</v>
+        <v>141</v>
       </c>
       <c r="AO1" t="s">
-        <v>618</v>
+        <v>142</v>
       </c>
       <c r="AP1" t="s">
-        <v>619</v>
+        <v>143</v>
       </c>
       <c r="AQ1" t="s">
-        <v>620</v>
+        <v>144</v>
       </c>
       <c r="AR1" t="s">
-        <v>621</v>
+        <v>145</v>
       </c>
       <c r="AS1" t="s">
-        <v>622</v>
+        <v>146</v>
       </c>
       <c r="AT1" t="s">
-        <v>623</v>
+        <v>147</v>
       </c>
       <c r="AU1" t="s">
-        <v>624</v>
+        <v>148</v>
       </c>
       <c r="AV1" t="s">
-        <v>625</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -2098,16 +673,16 @@
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2">
         <v>45415</v>
@@ -2242,16 +817,16 @@
         <v>165365057</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
@@ -2383,19 +958,19 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
@@ -2420,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -2527,19 +1102,19 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
@@ -2564,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -2671,19 +1246,19 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
@@ -2714,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2795,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -2812,22 +1387,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>460</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
@@ -2852,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -2915,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -2939,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -2956,22 +1531,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>156346345</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>461</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
@@ -3002,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -3083,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -3100,22 +1675,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>462</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
@@ -3244,22 +1819,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>463</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2">
         <v>45310</v>
@@ -3284,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -3347,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -3371,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -3388,22 +1963,22 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
@@ -3532,22 +2107,22 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>465</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
@@ -3572,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -3635,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -3676,22 +2251,22 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>466</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H13" s="2">
         <v>45345</v>
@@ -3716,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -3779,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -3820,22 +2395,22 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>467</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
@@ -3860,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -3923,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -3964,22 +2539,22 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
@@ -3988,10 +2563,10 @@
         <v>1678</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -4028,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -4091,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -4108,22 +2683,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>469</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
@@ -4148,16 +2723,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -4211,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -4252,22 +2827,22 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H17" s="2">
         <v>45310</v>
@@ -4276,10 +2851,10 @@
         <v>1678</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -4316,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -4379,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -4396,22 +2971,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>66924</v>
+        <v>3100</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
@@ -4514,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -4540,22 +3115,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
@@ -4564,10 +3137,10 @@
         <v>1681</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -4658,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -4684,22 +3257,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>473</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
@@ -4828,22 +3401,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>165361568</v>
+        <v>62300</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
@@ -4931,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -4955,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="1">
         <v>0</v>
@@ -4972,22 +3545,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>475</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
@@ -4996,10 +3569,10 @@
         <v>1681</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -5099,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -5116,22 +3689,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>333</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
@@ -5260,22 +3831,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
@@ -5284,10 +3855,10 @@
         <v>1681</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -5300,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -5363,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -5387,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -5404,20 +3975,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5707</v>
+      </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
@@ -5451,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -5546,22 +4119,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>478</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
@@ -5570,10 +4143,10 @@
         <v>1681</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -5607,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -5690,22 +4263,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
-        <v>12562546</v>
+        <v>3446</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>337</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
@@ -5784,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
         <v>0</v>
@@ -5834,22 +4407,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1">
-        <v>156346345</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
@@ -5937,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -5961,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="1">
         <v>0</v>
@@ -5978,22 +4551,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>339</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>478</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
@@ -6002,10 +4575,10 @@
         <v>1681</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -6027,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -6105,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -6122,22 +4695,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>165361568</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>479</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
@@ -6146,10 +4719,10 @@
         <v>1681</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -6183,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -6249,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -6266,22 +4839,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
@@ -6290,10 +4863,10 @@
         <v>1681</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -6306,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -6410,22 +4983,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>5462328</v>
+        <v>12562546</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
@@ -6504,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -6513,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -6554,20 +5127,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C33" s="1">
+        <v>66924</v>
+      </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2">
         <v>45316</v>
@@ -6576,10 +5151,10 @@
         <v>1681</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -6696,22 +5271,22 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>481</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2">
         <v>45420</v>
@@ -6757,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -6814,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -6840,22 +5415,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H35" s="2">
         <v>45420</v>
@@ -6901,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -6958,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -6984,22 +5559,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>483</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H36" s="2">
         <v>45420</v>
@@ -7111,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -7128,22 +5703,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
-        <v>21812144</v>
+        <v>2519</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>484</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H37" s="2">
         <v>45420</v>
@@ -7195,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -7231,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -7246,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -7258,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
@@ -7272,22 +5847,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1">
-        <v>3345</v>
-      </c>
-      <c r="D38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" t="s">
-        <v>485</v>
-      </c>
       <c r="G38" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H38" s="2">
         <v>45420</v>
@@ -7312,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -7375,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -7399,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -7416,22 +5991,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>62300</v>
+      </c>
+      <c r="D39" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="1">
-        <v>66924</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
       <c r="E39" t="s">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H39" s="2">
         <v>45420</v>
@@ -7440,10 +6015,10 @@
         <v>1683</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7519,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -7560,22 +6135,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
-        <v>2519</v>
+        <v>21812144</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2">
         <v>45420</v>
@@ -7627,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="1">
         <v>0</v>
@@ -7663,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -7678,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -7690,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" s="1">
         <v>0</v>
@@ -7704,22 +6279,22 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>351</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2">
         <v>45420</v>
@@ -7728,10 +6303,10 @@
         <v>1683</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7744,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7848,22 +6423,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1">
         <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
@@ -7992,22 +6567,22 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H43" s="2">
         <v>45310</v>
@@ -8113,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -8136,22 +6711,22 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>354</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>491</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H44" s="2">
         <v>45310</v>
@@ -8176,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -8280,22 +6855,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>492</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H45" s="2">
         <v>45310</v>
@@ -8326,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -8424,22 +6999,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>356</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>493</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H46" s="2">
         <v>45310</v>
@@ -8527,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -8568,22 +7143,22 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H47" s="2">
         <v>45310</v>
@@ -8689,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
@@ -8712,22 +7287,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>358</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>495</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H48" s="2">
         <v>45310</v>
@@ -8752,16 +7327,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8815,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8856,22 +7431,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>496</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H49" s="2">
         <v>45420</v>
@@ -8880,10 +7455,10 @@
         <v>1690</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8902,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -9000,22 +7575,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3676</v>
+      </c>
+      <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="1">
-        <v>2519</v>
-      </c>
-      <c r="D50" t="s">
-        <v>218</v>
-      </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>497</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H50" s="2">
         <v>45420</v>
@@ -9067,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -9144,22 +7719,22 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
         <v>3100</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>498</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H51" s="2">
         <v>45420</v>
@@ -9288,22 +7863,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1">
         <v>88890</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>499</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H52" s="2">
         <v>45420</v>
@@ -9432,22 +8007,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C53" s="1">
         <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H53" s="2">
         <v>45420</v>
@@ -9576,22 +8151,22 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H54" s="2">
         <v>45420</v>
@@ -9600,10 +8175,10 @@
         <v>1690</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9637,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -9703,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -9720,22 +8295,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H55" s="2">
         <v>45420</v>
@@ -9766,10 +8341,10 @@
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
@@ -9787,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="1">
         <v>0</v>
@@ -9838,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
@@ -9864,22 +8439,22 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>503</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H56" s="2">
         <v>45420</v>
@@ -9888,10 +8463,10 @@
         <v>1690</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9982,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="1">
         <v>0</v>
@@ -10008,22 +8583,22 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>367</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H57" s="2">
         <v>45420</v>
@@ -10032,10 +8607,10 @@
         <v>1690</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10069,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -10135,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -10152,22 +8727,22 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>505</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H58" s="2">
         <v>45310</v>
@@ -10192,10 +8767,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10255,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -10279,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -10296,22 +8871,22 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>5707</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H59" s="2">
         <v>45310</v>
@@ -10440,22 +9015,22 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H60" s="2">
         <v>45310</v>
@@ -10480,10 +9055,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -10543,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -10567,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -10584,22 +9159,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H61" s="2">
         <v>45419</v>
@@ -10702,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -10728,22 +9303,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>372</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H62" s="2">
         <v>45419</v>
@@ -10752,10 +9327,10 @@
         <v>1696</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10771,13 +9346,13 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10831,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -10872,22 +9447,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="1">
-        <v>5707</v>
-      </c>
-      <c r="D63" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" t="s">
-        <v>373</v>
-      </c>
       <c r="F63" t="s">
-        <v>509</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H63" s="2">
         <v>45419</v>
@@ -10896,10 +9471,10 @@
         <v>1696</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -10918,10 +9493,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -10999,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -11016,22 +9591,20 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3100</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>374</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H64" s="2">
         <v>45419</v>
@@ -11040,10 +9613,10 @@
         <v>1696</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11116,10 +9689,10 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -11134,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -11160,20 +9733,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>511</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H65" s="2">
         <v>45419</v>
@@ -11182,10 +9757,10 @@
         <v>1696</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11258,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="1">
         <v>1</v>
@@ -11302,22 +9877,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>376</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H66" s="2">
         <v>45419</v>
@@ -11345,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
         <v>0</v>
@@ -11446,22 +10021,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="1">
-        <v>10836</v>
-      </c>
-      <c r="D67" t="s">
-        <v>235</v>
-      </c>
-      <c r="E67" t="s">
-        <v>377</v>
-      </c>
       <c r="F67" t="s">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="G67" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H67" s="2">
         <v>45419</v>
@@ -11504,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -11590,22 +10165,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="G68" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H68" s="2">
         <v>45419</v>
@@ -11648,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="1">
         <v>0</v>
@@ -11717,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -11734,22 +10309,22 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>379</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>107</v>
       </c>
       <c r="G69" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H69" s="2">
         <v>45420</v>
@@ -11758,10 +10333,10 @@
         <v>1697</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -11801,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -11837,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -11852,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -11878,22 +10453,22 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>514</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H70" s="2">
         <v>45420</v>
@@ -11902,10 +10477,10 @@
         <v>1697</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -11996,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -12005,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -12022,22 +10597,22 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="F71" t="s">
-        <v>515</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H71" s="2">
         <v>45420</v>
@@ -12046,10 +10621,10 @@
         <v>1697</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12071,10 +10646,10 @@
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" s="1">
         <v>0</v>
@@ -12149,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -12166,22 +10741,22 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>382</v>
+        <v>89</v>
       </c>
       <c r="F72" t="s">
-        <v>516</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H72" s="2">
         <v>45420</v>
@@ -12190,10 +10765,10 @@
         <v>1697</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12206,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="P72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="1">
         <v>0</v>
@@ -12269,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -12310,22 +10885,22 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1">
         <v>446220</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>383</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s">
-        <v>517</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H73" s="2">
         <v>45420</v>
@@ -12454,22 +11029,22 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>517</v>
+        <v>63</v>
       </c>
       <c r="G74" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H74" s="2">
         <v>45420</v>
@@ -12478,10 +11053,10 @@
         <v>1697</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12494,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -12598,22 +11173,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1">
         <v>3676</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>385</v>
+        <v>97</v>
       </c>
       <c r="F75" t="s">
-        <v>518</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H75" s="2">
         <v>45420</v>
@@ -12742,22 +11317,22 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C76" s="1">
-        <v>3100</v>
+        <v>2519</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>519</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H76" s="2">
         <v>45420</v>
@@ -12766,10 +11341,10 @@
         <v>1697</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12809,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z76" s="1">
         <v>0</v>
@@ -12886,22 +11461,22 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C77" s="1">
         <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H77" s="2">
         <v>45420</v>
@@ -13030,22 +11605,22 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F78" t="s">
-        <v>521</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H78" s="2">
         <v>45420</v>
@@ -13076,10 +11651,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13157,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>
@@ -13174,22 +11749,22 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C79" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
-        <v>389</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H79" s="2">
         <v>45420</v>
@@ -13229,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13301,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -13318,22 +11893,22 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>523</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H80" s="2">
         <v>45420</v>
@@ -13364,19 +11939,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -13462,22 +12037,22 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C81" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H81" s="2">
         <v>45336</v>
@@ -13502,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -13565,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="AK81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81" s="1">
         <v>0</v>
@@ -13589,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="AS81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="1">
         <v>0</v>
@@ -13606,22 +12181,22 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>392</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>525</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H82" s="2">
         <v>45336</v>
@@ -13736,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="AT82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="1">
         <v>0</v>
@@ -13750,22 +12325,22 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C83" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>393</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>526</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H83" s="2">
         <v>45336</v>
@@ -13790,10 +12365,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -13880,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="AT83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU83" s="1">
         <v>0</v>
@@ -13894,22 +12469,22 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1">
         <v>5462328</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H84" s="2">
         <v>45336</v>
@@ -14038,22 +12613,22 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s">
-        <v>528</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H85" s="2">
         <v>45336</v>
@@ -14141,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85" s="1">
         <v>0</v>
@@ -14165,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="AS85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT85" s="1">
         <v>0</v>
@@ -14182,22 +12757,22 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C86" s="1">
         <v>1983</v>
       </c>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="F86" t="s">
-        <v>529</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H86" s="2">
         <v>45420</v>
@@ -14326,22 +12901,22 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1">
-        <v>21812144</v>
+        <v>10836</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
-        <v>397</v>
+        <v>85</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H87" s="2">
         <v>45420</v>
@@ -14381,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87" s="1">
         <v>0</v>
@@ -14429,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -14456,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="AT87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU87" s="1">
         <v>0</v>
@@ -14470,22 +13045,22 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>398</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>531</v>
+        <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H88" s="2">
         <v>45420</v>
@@ -14516,10 +13091,10 @@
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -14597,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="1">
         <v>0</v>
@@ -14614,22 +13189,22 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1">
-        <v>10836</v>
+        <v>21812144</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>532</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H89" s="2">
         <v>45420</v>
@@ -14669,10 +13244,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89" s="1">
         <v>0</v>
@@ -14717,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -14744,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="AT89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU89" s="1">
         <v>0</v>
@@ -14758,22 +13333,22 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C90" s="1">
-        <v>165361568</v>
+        <v>88890</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s">
-        <v>533</v>
+        <v>63</v>
       </c>
       <c r="G90" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H90" s="2">
         <v>45420</v>
@@ -14782,10 +13357,10 @@
         <v>1705</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -14888,7 +13463,7 @@
         <v>1</v>
       </c>
       <c r="AT90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU90" s="1">
         <v>0</v>
@@ -14902,22 +13477,22 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C91" s="1">
-        <v>3345</v>
+        <v>2337</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>534</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H91" s="2">
         <v>45420</v>
@@ -14926,10 +13501,10 @@
         <v>1705</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -14942,10 +13517,10 @@
         <v>0</v>
       </c>
       <c r="P91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" s="1">
         <v>0</v>
@@ -15005,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="AK91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -15020,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="AP91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ91" s="1">
         <v>0</v>
@@ -15046,22 +13621,22 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C92" s="1">
-        <v>2337</v>
+        <v>165361568</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>63</v>
       </c>
       <c r="F92" t="s">
-        <v>535</v>
+        <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H92" s="2">
         <v>45420</v>
@@ -15164,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="AP92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ92" s="1">
         <v>0</v>
@@ -15173,10 +13748,10 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU92" s="1">
         <v>0</v>
@@ -15190,22 +13765,22 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="F93" t="s">
-        <v>535</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H93" s="2">
         <v>45420</v>
@@ -15293,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
         <v>0</v>
@@ -15317,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="1">
         <v>0</v>
@@ -15334,22 +13909,20 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="1">
-        <v>66924</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="E94" t="s">
-        <v>404</v>
+        <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="G94" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H94" s="2">
         <v>45420</v>
@@ -15358,10 +13931,10 @@
         <v>1705</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -15434,10 +14007,10 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -15478,20 +14051,22 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C95" s="1">
+        <v>66924</v>
+      </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>537</v>
+        <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H95" s="2">
         <v>45420</v>
@@ -15500,10 +14075,10 @@
         <v>1705</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -15576,10 +14151,10 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="1">
         <v>0</v>
@@ -15620,22 +14195,22 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s">
-        <v>538</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H96" s="2">
         <v>45420</v>
@@ -15660,16 +14235,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" s="1">
         <v>0</v>
@@ -15723,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AK96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -15764,22 +14339,22 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>63</v>
       </c>
       <c r="F97" t="s">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="G97" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H97" s="2">
         <v>45420</v>
@@ -15867,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -15891,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AS97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT97" s="1">
         <v>0</v>
@@ -15908,22 +14483,22 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="C98" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
-        <v>408</v>
+        <v>85</v>
       </c>
       <c r="F98" t="s">
-        <v>540</v>
+        <v>63</v>
       </c>
       <c r="G98" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H98" s="2">
         <v>45309</v>
@@ -15963,10 +14538,10 @@
         <v>0</v>
       </c>
       <c r="U98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
@@ -16052,22 +14627,22 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="C99" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>92</v>
       </c>
       <c r="F99" t="s">
-        <v>541</v>
+        <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H99" s="2">
         <v>45309</v>
@@ -16107,10 +14682,10 @@
         <v>0</v>
       </c>
       <c r="U99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W99" s="1">
         <v>0</v>
@@ -16196,22 +14771,22 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C100" s="1">
         <v>5707</v>
       </c>
       <c r="D100" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>542</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H100" s="2">
         <v>45310</v>
@@ -16340,22 +14915,22 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="C101" s="1">
         <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>543</v>
+        <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H101" s="2">
         <v>45310</v>
@@ -16484,22 +15059,22 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1">
         <v>3345</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="E102" t="s">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="F102" t="s">
-        <v>544</v>
+        <v>63</v>
       </c>
       <c r="G102" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H102" s="2">
         <v>45310</v>
@@ -16628,22 +15203,22 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1">
         <v>446220</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="E103" t="s">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="F103" t="s">
-        <v>545</v>
+        <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H103" s="2">
         <v>45369</v>
@@ -16772,22 +15347,22 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1">
         <v>446220</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="F104" t="s">
-        <v>546</v>
+        <v>63</v>
       </c>
       <c r="G104" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H104" s="2">
         <v>45310</v>
@@ -16916,22 +15491,22 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
         <v>446220</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="E105" t="s">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="F105" t="s">
-        <v>547</v>
+        <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H105" s="2">
         <v>45371</v>
@@ -17060,22 +15635,22 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>414</v>
+        <v>90</v>
       </c>
       <c r="F106" t="s">
-        <v>548</v>
+        <v>63</v>
       </c>
       <c r="G106" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H106" s="2">
         <v>45420</v>
@@ -17106,10 +15681,10 @@
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" s="1">
         <v>0</v>
@@ -17121,10 +15696,10 @@
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y106" s="1">
         <v>0</v>
@@ -17204,22 +15779,22 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C107" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>415</v>
+        <v>87</v>
       </c>
       <c r="F107" t="s">
-        <v>549</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H107" s="2">
         <v>45420</v>
@@ -17244,10 +15819,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -17265,10 +15840,10 @@
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y107" s="1">
         <v>0</v>
@@ -17307,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -17348,22 +15923,20 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="1">
-        <v>165365057</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C108" s="1"/>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>416</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>550</v>
+        <v>107</v>
       </c>
       <c r="G108" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H108" s="2">
         <v>45420</v>
@@ -17372,10 +15945,10 @@
         <v>1736</v>
       </c>
       <c r="J108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -17448,10 +16021,10 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108" s="1">
         <v>0</v>
@@ -17475,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="AS108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT108" s="1">
         <v>0</v>
@@ -17492,20 +16065,22 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2519</v>
+      </c>
       <c r="D109" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="F109" t="s">
-        <v>551</v>
+        <v>63</v>
       </c>
       <c r="G109" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H109" s="2">
         <v>45420</v>
@@ -17514,10 +16089,10 @@
         <v>1736</v>
       </c>
       <c r="J109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
@@ -17557,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z109" s="1">
         <v>0</v>
@@ -17590,10 +16165,10 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -17608,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="AP109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ109" s="1">
         <v>0</v>
@@ -17634,22 +16209,20 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2519</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="E110" t="s">
-        <v>418</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>552</v>
+        <v>107</v>
       </c>
       <c r="G110" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H110" s="2">
         <v>45420</v>
@@ -17658,10 +16231,10 @@
         <v>1736</v>
       </c>
       <c r="J110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -17701,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -17734,10 +16307,10 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -17752,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="AP110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ110" s="1">
         <v>0</v>
@@ -17778,20 +16351,22 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C111" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="E111" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="F111" t="s">
-        <v>553</v>
+        <v>63</v>
       </c>
       <c r="G111" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H111" s="2">
         <v>45420</v>
@@ -17800,10 +16375,10 @@
         <v>1736</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -17876,10 +16451,10 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -17903,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -17920,22 +16495,22 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>420</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s">
-        <v>554</v>
+        <v>63</v>
       </c>
       <c r="G112" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H112" s="2">
         <v>45420</v>
@@ -17960,10 +16535,10 @@
         <v>0</v>
       </c>
       <c r="P112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" s="1">
         <v>0</v>
@@ -18023,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="AK112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -18047,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -18064,22 +16639,22 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="C113" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
       <c r="F113" t="s">
-        <v>555</v>
+        <v>63</v>
       </c>
       <c r="G113" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H113" s="2">
         <v>45420</v>
@@ -18088,10 +16663,10 @@
         <v>1736</v>
       </c>
       <c r="J113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
@@ -18110,10 +16685,10 @@
         <v>0</v>
       </c>
       <c r="R113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" s="1">
         <v>0</v>
@@ -18208,22 +16783,22 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C114" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>422</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
-        <v>556</v>
+        <v>107</v>
       </c>
       <c r="G114" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H114" s="2">
         <v>45420</v>
@@ -18232,10 +16807,10 @@
         <v>1736</v>
       </c>
       <c r="J114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
@@ -18335,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="AS114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -18352,22 +16927,22 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="C115" s="1">
         <v>10836</v>
       </c>
       <c r="D115" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="E115" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="F115" t="s">
-        <v>557</v>
+        <v>63</v>
       </c>
       <c r="G115" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H115" s="2">
         <v>45372</v>
@@ -18496,22 +17071,20 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="1">
-        <v>165365057</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C116" s="1"/>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="E116" t="s">
-        <v>424</v>
+        <v>63</v>
       </c>
       <c r="F116" t="s">
-        <v>558</v>
+        <v>107</v>
       </c>
       <c r="G116" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H116" s="2">
         <v>45418</v>
@@ -18623,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -18640,22 +17213,22 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="C117" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="F117" t="s">
-        <v>559</v>
+        <v>63</v>
       </c>
       <c r="G117" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H117" s="2">
         <v>45418</v>
@@ -18701,13 +17274,13 @@
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z117" s="1">
         <v>0</v>
@@ -18758,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ117" s="1">
         <v>0</v>
@@ -18784,22 +17357,20 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
-      </c>
-      <c r="C118" s="1">
-        <v>2519</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C118" s="1"/>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="E118" t="s">
-        <v>426</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>560</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H118" s="2">
         <v>45418</v>
@@ -18808,10 +17379,10 @@
         <v>1745</v>
       </c>
       <c r="J118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
@@ -18851,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="1">
         <v>0</v>
@@ -18902,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ118" s="1">
         <v>0</v>
@@ -18928,22 +17499,22 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D119" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="E119" t="s">
-        <v>427</v>
+        <v>63</v>
       </c>
       <c r="F119" t="s">
-        <v>561</v>
+        <v>107</v>
       </c>
       <c r="G119" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H119" s="2">
         <v>45418</v>
@@ -19072,22 +17643,22 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C120" s="1">
-        <v>5707</v>
+        <v>12107</v>
       </c>
       <c r="D120" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="E120" t="s">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="F120" t="s">
-        <v>562</v>
+        <v>107</v>
       </c>
       <c r="G120" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H120" s="2">
         <v>45418</v>
@@ -19096,10 +17667,10 @@
         <v>1745</v>
       </c>
       <c r="J120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
@@ -19118,10 +17689,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -19199,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -19216,20 +17787,22 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C121" s="1">
+        <v>88890</v>
+      </c>
       <c r="D121" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s">
-        <v>563</v>
+        <v>63</v>
       </c>
       <c r="G121" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H121" s="2">
         <v>45418</v>
@@ -19238,10 +17811,10 @@
         <v>1745</v>
       </c>
       <c r="J121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
@@ -19341,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="AS121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT121" s="1">
         <v>0</v>
@@ -19358,22 +17931,22 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C122" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="E122" t="s">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
-        <v>564</v>
+        <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H122" s="2">
         <v>45418</v>
@@ -19419,10 +17992,10 @@
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y122" s="1">
         <v>0</v>
@@ -19485,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -19502,20 +18075,22 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5707</v>
+      </c>
       <c r="D123" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>89</v>
       </c>
       <c r="F123" t="s">
-        <v>565</v>
+        <v>63</v>
       </c>
       <c r="G123" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H123" s="2">
         <v>45418</v>
@@ -19524,10 +18099,10 @@
         <v>1745</v>
       </c>
       <c r="J123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
@@ -19546,10 +18121,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" s="1">
         <v>0</v>
@@ -19644,22 +18219,22 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C124" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D124" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>432</v>
+        <v>92</v>
       </c>
       <c r="F124" t="s">
-        <v>566</v>
+        <v>107</v>
       </c>
       <c r="G124" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H124" s="2">
         <v>45418</v>
@@ -19668,10 +18243,10 @@
         <v>1745</v>
       </c>
       <c r="J124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -19684,10 +18259,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R124" s="1">
         <v>0</v>
@@ -19747,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="AK124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL124" s="1">
         <v>0</v>
@@ -19788,22 +18363,22 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="C125" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="E125" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
       <c r="F125" t="s">
-        <v>567</v>
+        <v>63</v>
       </c>
       <c r="G125" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H125" s="2">
         <v>45418</v>
@@ -19812,10 +18387,10 @@
         <v>1745</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -19828,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" s="1">
         <v>0</v>
@@ -19891,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="AK125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL125" s="1">
         <v>0</v>
@@ -19932,20 +18507,20 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="E126" t="s">
-        <v>434</v>
+        <v>63</v>
       </c>
       <c r="F126" t="s">
-        <v>568</v>
+        <v>107</v>
       </c>
       <c r="G126" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H126" s="2">
         <v>45422</v>
@@ -19954,10 +18529,10 @@
         <v>1747</v>
       </c>
       <c r="J126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
@@ -20074,22 +18649,22 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C127" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D127" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
-        <v>435</v>
+        <v>90</v>
       </c>
       <c r="F127" t="s">
-        <v>569</v>
+        <v>107</v>
       </c>
       <c r="G127" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H127" s="2">
         <v>45422</v>
@@ -20138,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127" s="1">
         <v>0</v>
@@ -20201,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -20218,22 +18793,22 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C128" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D128" t="s">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="E128" t="s">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="F128" t="s">
-        <v>569</v>
+        <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H128" s="2">
         <v>45422</v>
@@ -20242,10 +18817,10 @@
         <v>1747</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -20282,7 +18857,7 @@
         <v>0</v>
       </c>
       <c r="X128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="1">
         <v>0</v>
@@ -20345,7 +18920,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -20362,22 +18937,22 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="C129" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D129" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="E129" t="s">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="F129" t="s">
-        <v>570</v>
+        <v>63</v>
       </c>
       <c r="G129" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H129" s="2">
         <v>45422</v>
@@ -20402,16 +18977,16 @@
         <v>0</v>
       </c>
       <c r="P129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" s="1">
         <v>0</v>
@@ -20465,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="AK129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="1">
         <v>0</v>
@@ -20506,22 +19081,22 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C130" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="E130" t="s">
-        <v>438</v>
+        <v>63</v>
       </c>
       <c r="F130" t="s">
-        <v>571</v>
+        <v>107</v>
       </c>
       <c r="G130" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H130" s="2">
         <v>45422</v>
@@ -20530,10 +19105,10 @@
         <v>1747</v>
       </c>
       <c r="J130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
@@ -20552,10 +19127,10 @@
         <v>0</v>
       </c>
       <c r="R130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130" s="1">
         <v>0</v>
@@ -20633,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -20650,22 +19225,20 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
-      </c>
-      <c r="C131" s="1">
-        <v>88890</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="D131" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="E131" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="F131" t="s">
-        <v>572</v>
+        <v>63</v>
       </c>
       <c r="G131" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H131" s="2">
         <v>45422</v>
@@ -20777,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="AS131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT131" s="1">
         <v>0</v>
@@ -20794,20 +19367,22 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
-      </c>
-      <c r="C132" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3345</v>
+      </c>
       <c r="D132" t="s">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>87</v>
       </c>
       <c r="F132" t="s">
-        <v>573</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H132" s="2">
         <v>45422</v>
@@ -20816,10 +19391,10 @@
         <v>1747</v>
       </c>
       <c r="J132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
@@ -20832,10 +19407,10 @@
         <v>0</v>
       </c>
       <c r="P132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" s="1">
         <v>0</v>
@@ -20895,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="AK132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL132" s="1">
         <v>0</v>
@@ -20936,22 +19511,22 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C133" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D133" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>94</v>
       </c>
       <c r="F133" t="s">
-        <v>574</v>
+        <v>107</v>
       </c>
       <c r="G133" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H133" s="2">
         <v>45420</v>
@@ -20960,10 +19535,10 @@
         <v>1749</v>
       </c>
       <c r="J133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
@@ -20982,10 +19557,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -21039,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -21080,22 +19655,22 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C134" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D134" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>87</v>
       </c>
       <c r="F134" t="s">
-        <v>575</v>
+        <v>63</v>
       </c>
       <c r="G134" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H134" s="2">
         <v>45420</v>
@@ -21120,10 +19695,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" s="1">
         <v>0</v>
@@ -21183,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -21207,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -21224,22 +19799,22 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C135" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D135" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="E135" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="F135" t="s">
-        <v>576</v>
+        <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H135" s="2">
         <v>45420</v>
@@ -21248,10 +19823,10 @@
         <v>1749</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -21270,10 +19845,10 @@
         <v>0</v>
       </c>
       <c r="R135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T135" s="1">
         <v>0</v>
@@ -21327,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL135" s="1">
         <v>0</v>
@@ -21368,22 +19943,22 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="C136" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>88</v>
       </c>
       <c r="F136" t="s">
-        <v>576</v>
+        <v>63</v>
       </c>
       <c r="G136" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H136" s="2">
         <v>45420</v>
@@ -21392,10 +19967,10 @@
         <v>1749</v>
       </c>
       <c r="J136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
@@ -21471,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -21495,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -21512,22 +20087,22 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C137" s="1">
         <v>165365057</v>
       </c>
       <c r="D137" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="F137" t="s">
-        <v>576</v>
+        <v>107</v>
       </c>
       <c r="G137" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H137" s="2">
         <v>45420</v>
@@ -21656,22 +20231,22 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="C138" s="1">
-        <v>3100</v>
+        <v>62300</v>
       </c>
       <c r="D138" t="s">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="E138" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="F138" t="s">
-        <v>576</v>
+        <v>107</v>
       </c>
       <c r="G138" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H138" s="2">
         <v>45420</v>
@@ -21759,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="AK138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL138" s="1">
         <v>0</v>
@@ -21774,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="AP138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ138" s="1">
         <v>0</v>
@@ -21800,22 +20375,22 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="C139" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="E139" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
       <c r="F139" t="s">
-        <v>577</v>
+        <v>107</v>
       </c>
       <c r="G139" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H139" s="2">
         <v>45420</v>
@@ -21824,10 +20399,10 @@
         <v>1749</v>
       </c>
       <c r="J139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
@@ -21840,10 +20415,10 @@
         <v>0</v>
       </c>
       <c r="P139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139" s="1">
         <v>0</v>
@@ -21903,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="AK139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL139" s="1">
         <v>0</v>
@@ -21918,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="AP139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ139" s="1">
         <v>0</v>
@@ -21944,22 +20519,22 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="C140" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D140" t="s">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="F140" t="s">
-        <v>578</v>
+        <v>107</v>
       </c>
       <c r="G140" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H140" s="2">
         <v>45372</v>
@@ -21968,10 +20543,10 @@
         <v>1750</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
@@ -22047,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -22071,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="AS140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -22088,22 +20663,22 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C141" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D141" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>63</v>
       </c>
       <c r="F141" t="s">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="G141" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H141" s="2">
         <v>45372</v>
@@ -22191,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -22215,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -22232,22 +20807,22 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C142" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D142" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>88</v>
       </c>
       <c r="F142" t="s">
-        <v>580</v>
+        <v>63</v>
       </c>
       <c r="G142" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H142" s="2">
         <v>45372</v>
@@ -22335,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="AK142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL142" s="1">
         <v>0</v>
@@ -22359,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="AS142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -22376,22 +20951,22 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C143" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D143" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="E143" t="s">
-        <v>451</v>
+        <v>87</v>
       </c>
       <c r="F143" t="s">
-        <v>581</v>
+        <v>63</v>
       </c>
       <c r="G143" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H143" s="2">
         <v>45372</v>
@@ -22400,10 +20975,10 @@
         <v>1750</v>
       </c>
       <c r="J143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
@@ -22416,10 +20991,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" s="1">
         <v>0</v>
@@ -22479,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="AK143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL143" s="1">
         <v>0</v>
@@ -22503,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="AS143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -22520,22 +21095,22 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C144" s="1">
-        <v>156346345</v>
+        <v>5462328</v>
       </c>
       <c r="D144" t="s">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="E144" t="s">
-        <v>452</v>
+        <v>94</v>
       </c>
       <c r="F144" t="s">
-        <v>581</v>
+        <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H144" s="2">
         <v>45372</v>
@@ -22544,10 +21119,10 @@
         <v>1750</v>
       </c>
       <c r="J144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
@@ -22623,7 +21198,7 @@
         <v>0</v>
       </c>
       <c r="AK144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL144" s="1">
         <v>0</v>
@@ -22647,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="AS144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT144" s="1">
         <v>0</v>
@@ -22664,22 +21239,22 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C145" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D145" t="s">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="E145" t="s">
-        <v>453</v>
+        <v>63</v>
       </c>
       <c r="F145" t="s">
-        <v>582</v>
+        <v>107</v>
       </c>
       <c r="G145" t="s">
-        <v>584</v>
+        <v>109</v>
       </c>
       <c r="H145" s="2">
         <v>45372</v>
@@ -22688,10 +21263,10 @@
         <v>1750</v>
       </c>
       <c r="J145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
@@ -22704,10 +21279,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145" s="1">
         <v>0</v>
@@ -22767,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145" s="1">
         <v>0</v>
@@ -22791,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="AS145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -111,52 +111,55 @@
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>cocaine</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>diphenhydramine</t>
   </si>
   <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>p-fluoro phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>caffeine</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
@@ -165,13 +168,7 @@
     <t>medetomidine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>N-desethyl etonitazene</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
   </si>
   <si>
     <t>benzocaine</t>
@@ -180,16 +177,19 @@
     <t>N-pyrrolidino-etonitazene</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>pending nitazene</t>
   </si>
   <si>
     <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
-    <t>acetanilide</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>acetanilide</t>
   </si>
   <si>
     <t>etaqualone</t>
@@ -213,40 +213,43 @@
     <t>437-38-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>7361-61-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>58-73-1</t>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>60142-96-3</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>60142-96-3</t>
+    <t>58-73-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
+    <t>58-08-2</t>
   </si>
   <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>122861-41-0</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>2784-73-8</t>
@@ -255,13 +258,10 @@
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>94-09-7</t>
   </si>
   <si>
     <t>103-90-2</t>
-  </si>
-  <si>
-    <t>94-09-7</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -279,40 +279,43 @@
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>6CW7F3G59X</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
+    <t>8GTS82S83M</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
@@ -321,13 +324,10 @@
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>U3RSY48JW5</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>U3RSY48JW5</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -1246,7 +1246,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1387,16 +1387,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>67</v>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
         <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -2107,16 +2107,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -2147,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -2291,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2539,19 +2539,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
         <v>109</v>
@@ -2563,10 +2563,10 @@
         <v>1678</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2683,16 +2683,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
@@ -2723,16 +2723,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2827,19 +2827,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>109</v>
@@ -2851,10 +2851,10 @@
         <v>1678</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2973,17 +2973,15 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
         <v>109</v>
@@ -2995,10 +2993,10 @@
         <v>1681</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3089,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3117,12 +3115,14 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
         <v>107</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>63</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3401,16 +3401,14 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>62300</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -3504,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3545,16 +3543,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>107</v>
@@ -3594,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3691,12 +3689,14 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>3446</v>
+      </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>107</v>
@@ -3831,19 +3831,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>156346345</v>
+        <v>66924</v>
       </c>
       <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>107</v>
       </c>
       <c r="G24" t="s">
         <v>109</v>
@@ -3855,10 +3855,10 @@
         <v>1681</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3975,16 +3975,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4119,19 +4119,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -4143,10 +4143,10 @@
         <v>1681</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -4263,19 +4263,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>3446</v>
+        <v>165365057</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>109</v>
@@ -4287,10 +4287,10 @@
         <v>1681</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4407,16 +4407,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
         <v>107</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4551,16 +4551,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
-        <v>165365057</v>
+        <v>3100</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -4695,19 +4695,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>165361568</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
       </c>
       <c r="G30" t="s">
         <v>109</v>
@@ -4719,10 +4719,10 @@
         <v>1681</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4756,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -4839,19 +4839,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>165361568</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
         <v>109</v>
@@ -4863,10 +4863,10 @@
         <v>1681</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4966,10 +4966,10 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="1">
         <v>0</v>
@@ -4983,19 +4983,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>109</v>
@@ -5007,10 +5007,10 @@
         <v>1681</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5127,19 +5127,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>62300</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
         <v>109</v>
@@ -5151,10 +5151,10 @@
         <v>1681</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5271,16 +5271,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
         <v>63</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5415,16 +5415,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
         <v>63</v>
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
         <v>63</v>
@@ -5703,19 +5703,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
         <v>109</v>
@@ -5727,10 +5727,10 @@
         <v>1683</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -5847,16 +5847,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5991,19 +5991,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
         <v>109</v>
@@ -6015,10 +6015,10 @@
         <v>1683</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6279,16 +6279,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
         <v>63</v>
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6423,16 +6423,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
         <v>63</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D43" t="s">
         <v>78</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1">
-        <v>68602</v>
+        <v>5462507</v>
       </c>
       <c r="D45" t="s">
         <v>79</v>
@@ -6867,7 +6867,7 @@
         <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -6879,10 +6879,10 @@
         <v>1686</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -6999,16 +6999,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
         <v>63</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7143,19 +7143,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -7167,10 +7167,10 @@
         <v>1686</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7264,13 +7264,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7287,16 +7287,16 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
         <v>63</v>
@@ -7431,16 +7431,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
         <v>63</v>
@@ -7477,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="1">
         <v>0</v>
@@ -7575,19 +7575,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
-        <v>3676</v>
+        <v>165365057</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -7599,10 +7599,10 @@
         <v>1690</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7719,16 +7719,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1">
-        <v>3100</v>
+        <v>3676</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>63</v>
@@ -7863,16 +7863,16 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
         <v>63</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -8007,16 +8007,16 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
         <v>63</v>
@@ -8047,16 +8047,16 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8151,16 +8151,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
         <v>107</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F55" t="s">
         <v>63</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8439,19 +8439,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
         <v>109</v>
@@ -8463,10 +8463,10 @@
         <v>1690</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8583,16 +8583,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
         <v>63</v>
@@ -8644,13 +8644,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="1">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8727,16 +8727,16 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
         <v>63</v>
@@ -8767,10 +8767,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8871,10 +8871,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
         <v>67</v>
@@ -8917,10 +8917,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
         <v>63</v>
@@ -9055,16 +9055,16 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9159,16 +9159,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1">
-        <v>3100</v>
+        <v>10836</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s">
         <v>107</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9303,19 +9303,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G62" t="s">
         <v>109</v>
@@ -9327,10 +9327,10 @@
         <v>1696</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9346,13 +9346,13 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9447,16 +9447,16 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
         <v>107</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9591,17 +9591,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C64" s="1">
+        <v>88890</v>
+      </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
         <v>109</v>
@@ -9613,10 +9615,10 @@
         <v>1696</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9689,10 +9691,10 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9716,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9733,19 +9735,17 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5462328</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>109</v>
@@ -9757,10 +9757,10 @@
         <v>1696</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK65" s="1">
         <v>1</v>
@@ -9877,19 +9877,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
         <v>109</v>
@@ -9901,10 +9901,10 @@
         <v>1696</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9920,13 +9920,13 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>6213</v>
+        <v>5462328</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F67" t="s">
         <v>107</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10165,16 +10165,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1">
-        <v>10836</v>
+        <v>3100</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F68" t="s">
         <v>107</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="1">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68" s="1">
         <v>0</v>
@@ -10309,19 +10309,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
         <v>109</v>
@@ -10333,10 +10333,10 @@
         <v>1697</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10453,19 +10453,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
         <v>109</v>
@@ -10477,10 +10477,10 @@
         <v>1697</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10493,10 +10493,10 @@
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
         <v>63</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10741,16 +10741,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F72" t="s">
         <v>107</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="1">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10885,16 +10885,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
         <v>107</v>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -11029,16 +11029,16 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F74" t="s">
         <v>63</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ74" s="1">
         <v>0</v>
@@ -11173,19 +11173,19 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
         <v>109</v>
@@ -11197,10 +11197,10 @@
         <v>1697</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="1">
         <v>0</v>
@@ -11317,19 +11317,19 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
         <v>109</v>
@@ -11341,10 +11341,10 @@
         <v>1697</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11366,10 +11366,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="1">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="AP76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="1">
         <v>0</v>
@@ -11461,16 +11461,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F77" t="s">
         <v>63</v>
@@ -11501,16 +11501,16 @@
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11605,16 +11605,16 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C78" s="1">
         <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
         <v>63</v>
@@ -11749,16 +11749,16 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s">
         <v>63</v>
@@ -11789,10 +11789,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="1">
         <v>0</v>
@@ -11804,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
@@ -11893,16 +11893,16 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
         <v>63</v>
@@ -11939,19 +11939,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -12037,16 +12037,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F81" t="s">
         <v>63</v>
@@ -12077,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -12181,16 +12181,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C82" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D82" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
         <v>63</v>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="1">
         <v>0</v>
@@ -12325,19 +12325,19 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C83" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
         <v>109</v>
@@ -12349,10 +12349,10 @@
         <v>1704</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="AT83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="1">
         <v>0</v>
@@ -12469,19 +12469,19 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C84" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
         <v>109</v>
@@ -12493,10 +12493,10 @@
         <v>1704</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -12509,10 +12509,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -12613,16 +12613,16 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C85" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
         <v>63</v>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
         <v>0</v>
@@ -12740,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="AS85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU85" s="1">
         <v>0</v>
@@ -12757,19 +12757,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
         <v>109</v>
@@ -12781,10 +12781,10 @@
         <v>1705</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -12803,10 +12803,10 @@
         <v>0</v>
       </c>
       <c r="R86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1">
         <v>0</v>
@@ -12901,19 +12901,19 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C87" s="1">
-        <v>10836</v>
+        <v>2337</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
         <v>109</v>
@@ -12925,10 +12925,10 @@
         <v>1705</v>
       </c>
       <c r="J87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
@@ -12956,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87" s="1">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ87" s="1">
         <v>0</v>
@@ -13045,16 +13045,16 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
         <v>63</v>
@@ -13085,16 +13085,16 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13189,16 +13189,16 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
         <v>63</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13316,10 +13316,10 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU89" s="1">
         <v>0</v>
@@ -13333,16 +13333,16 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C90" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
         <v>63</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13460,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU90" s="1">
         <v>0</v>
@@ -13479,14 +13479,12 @@
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="1">
-        <v>2337</v>
-      </c>
+      <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F91" t="s">
         <v>107</v>
@@ -13577,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -13595,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="AP91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ91" s="1">
         <v>0</v>
@@ -13621,19 +13619,19 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1">
-        <v>165361568</v>
+        <v>10836</v>
       </c>
       <c r="D92" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s">
         <v>63</v>
-      </c>
-      <c r="E92" t="s">
-        <v>63</v>
-      </c>
-      <c r="F92" t="s">
-        <v>107</v>
       </c>
       <c r="G92" t="s">
         <v>109</v>
@@ -13645,10 +13643,10 @@
         <v>1705</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
@@ -13676,10 +13674,10 @@
         <v>0</v>
       </c>
       <c r="U92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
@@ -13748,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU92" s="1">
         <v>0</v>
@@ -13765,19 +13763,19 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C93" s="1">
-        <v>62300</v>
+        <v>66924</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G93" t="s">
         <v>109</v>
@@ -13789,10 +13787,10 @@
         <v>1705</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -13868,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>0</v>
@@ -13911,12 +13909,14 @@
       <c r="B94" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1">
+        <v>1983</v>
+      </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F94" t="s">
         <v>107</v>
@@ -14007,10 +14007,10 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14051,19 +14051,19 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G95" t="s">
         <v>109</v>
@@ -14075,10 +14075,10 @@
         <v>1705</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="AS95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT95" s="1">
         <v>0</v>
@@ -14195,19 +14195,19 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C96" s="1">
-        <v>3345</v>
+        <v>165361568</v>
       </c>
       <c r="D96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
         <v>109</v>
@@ -14219,10 +14219,10 @@
         <v>1705</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -14235,10 +14235,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AK96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -14322,10 +14322,10 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU96" s="1">
         <v>0</v>
@@ -14339,16 +14339,16 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F97" t="s">
         <v>107</v>
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AS97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="1">
         <v>0</v>
@@ -14627,16 +14627,16 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C99" s="1">
         <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F99" t="s">
         <v>63</v>
@@ -14771,16 +14771,16 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F100" t="s">
         <v>63</v>
@@ -14811,16 +14811,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" s="1">
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -14918,7 +14918,7 @@
         <v>32</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D101" t="s">
         <v>66</v>
@@ -14961,10 +14961,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="AS101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT101" s="1">
         <v>0</v>
@@ -15059,16 +15059,16 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C102" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
         <v>63</v>
@@ -15099,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
         <v>0</v>
@@ -15186,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -15779,16 +15779,16 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F107" t="s">
         <v>63</v>
@@ -15819,10 +15819,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z107" s="1">
         <v>0</v>
@@ -15882,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="AP107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ107" s="1">
         <v>0</v>
@@ -15923,17 +15923,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C108" s="1">
+        <v>88890</v>
+      </c>
       <c r="D108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" t="s">
         <v>63</v>
-      </c>
-      <c r="E108" t="s">
-        <v>63</v>
-      </c>
-      <c r="F108" t="s">
-        <v>107</v>
       </c>
       <c r="G108" t="s">
         <v>109</v>
@@ -15945,10 +15947,10 @@
         <v>1736</v>
       </c>
       <c r="J108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -16021,10 +16023,10 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108" s="1">
         <v>0</v>
@@ -16048,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="AS108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT108" s="1">
         <v>0</v>
@@ -16065,16 +16067,16 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C109" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F109" t="s">
         <v>63</v>
@@ -16105,10 +16107,10 @@
         <v>0</v>
       </c>
       <c r="P109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109" s="1">
         <v>0</v>
@@ -16132,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z109" s="1">
         <v>0</v>
@@ -16168,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -16183,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="AP109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ109" s="1">
         <v>0</v>
@@ -16209,14 +16211,16 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6213</v>
+      </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F110" t="s">
         <v>107</v>
@@ -16307,10 +16311,10 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -16495,19 +16499,17 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" s="1">
-        <v>88890</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E112" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G112" t="s">
         <v>109</v>
@@ -16519,10 +16521,10 @@
         <v>1736</v>
       </c>
       <c r="J112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
@@ -16595,10 +16597,10 @@
         <v>0</v>
       </c>
       <c r="AJ112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16622,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -16639,16 +16641,16 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
         <v>5707</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F113" t="s">
         <v>63</v>
@@ -16783,16 +16785,14 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114" s="1">
-        <v>6213</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C114" s="1"/>
       <c r="D114" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E114" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
         <v>107</v>
@@ -16883,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="AJ114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL114" s="1">
         <v>0</v>
@@ -17213,19 +17213,19 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C117" s="1">
-        <v>2519</v>
+        <v>12107</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F117" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G117" t="s">
         <v>109</v>
@@ -17237,10 +17237,10 @@
         <v>1745</v>
       </c>
       <c r="J117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
@@ -17280,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="1">
         <v>0</v>
@@ -17331,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ117" s="1">
         <v>0</v>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -17357,17 +17357,19 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C118" s="1">
+        <v>446220</v>
+      </c>
       <c r="D118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" t="s">
         <v>63</v>
-      </c>
-      <c r="E118" t="s">
-        <v>63</v>
-      </c>
-      <c r="F118" t="s">
-        <v>107</v>
       </c>
       <c r="G118" t="s">
         <v>109</v>
@@ -17379,10 +17381,10 @@
         <v>1745</v>
       </c>
       <c r="J118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
@@ -17416,10 +17418,10 @@
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y118" s="1">
         <v>0</v>
@@ -17499,19 +17501,19 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C119" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119" t="s">
         <v>63</v>
-      </c>
-      <c r="E119" t="s">
-        <v>63</v>
-      </c>
-      <c r="F119" t="s">
-        <v>107</v>
       </c>
       <c r="G119" t="s">
         <v>109</v>
@@ -17523,10 +17525,10 @@
         <v>1745</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17539,10 +17541,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" s="1">
         <v>0</v>
@@ -17602,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="AK119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL119" s="1">
         <v>0</v>
@@ -17626,7 +17628,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17643,19 +17645,19 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C120" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G120" t="s">
         <v>109</v>
@@ -17667,10 +17669,10 @@
         <v>1745</v>
       </c>
       <c r="J120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
@@ -17689,10 +17691,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -17770,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -17787,16 +17789,16 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C121" s="1">
         <v>88890</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F121" t="s">
         <v>63</v>
@@ -17931,19 +17933,19 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C122" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G122" t="s">
         <v>109</v>
@@ -17955,10 +17957,10 @@
         <v>1745</v>
       </c>
       <c r="J122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
@@ -17992,10 +17994,10 @@
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y122" s="1">
         <v>0</v>
@@ -18058,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -18075,19 +18077,19 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C123" s="1">
-        <v>5707</v>
+        <v>6213</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F123" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G123" t="s">
         <v>109</v>
@@ -18099,10 +18101,10 @@
         <v>1745</v>
       </c>
       <c r="J123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
@@ -18121,10 +18123,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" s="1">
         <v>0</v>
@@ -18219,19 +18221,19 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C124" s="1">
-        <v>6213</v>
+        <v>2519</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F124" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G124" t="s">
         <v>109</v>
@@ -18243,10 +18245,10 @@
         <v>1745</v>
       </c>
       <c r="J124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -18286,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z124" s="1">
         <v>0</v>
@@ -18337,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="AP124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ124" s="1">
         <v>0</v>
@@ -18363,19 +18365,17 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="1">
-        <v>3345</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C125" s="1"/>
       <c r="D125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F125" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G125" t="s">
         <v>109</v>
@@ -18387,10 +18387,10 @@
         <v>1745</v>
       </c>
       <c r="J125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -18403,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" s="1">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="AK125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL125" s="1">
         <v>0</v>
@@ -18649,16 +18649,16 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C127" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E127" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F127" t="s">
         <v>107</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="1">
         <v>0</v>
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -18793,16 +18793,16 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C128" s="1">
         <v>88890</v>
       </c>
       <c r="D128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E128" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F128" t="s">
         <v>63</v>
@@ -18937,19 +18937,19 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C129" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F129" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G129" t="s">
         <v>109</v>
@@ -18961,10 +18961,10 @@
         <v>1747</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -18983,10 +18983,10 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" s="1">
         <v>0</v>
@@ -19001,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="X129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y129" s="1">
         <v>0</v>
@@ -19081,19 +19081,19 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C130" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E130" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" t="s">
         <v>63</v>
-      </c>
-      <c r="E130" t="s">
-        <v>63</v>
-      </c>
-      <c r="F130" t="s">
-        <v>107</v>
       </c>
       <c r="G130" t="s">
         <v>109</v>
@@ -19105,10 +19105,10 @@
         <v>1747</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
@@ -19127,10 +19127,10 @@
         <v>0</v>
       </c>
       <c r="R130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" s="1">
         <v>0</v>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -19511,19 +19511,19 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C133" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D133" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F133" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G133" t="s">
         <v>109</v>
@@ -19535,10 +19535,10 @@
         <v>1749</v>
       </c>
       <c r="J133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
@@ -19557,10 +19557,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -19655,19 +19655,19 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C134" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E134" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F134" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G134" t="s">
         <v>109</v>
@@ -19679,10 +19679,10 @@
         <v>1749</v>
       </c>
       <c r="J134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
@@ -19695,10 +19695,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" s="1">
         <v>0</v>
@@ -19758,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="AP134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ134" s="1">
         <v>0</v>
@@ -19799,19 +19799,19 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C135" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D135" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E135" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F135" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G135" t="s">
         <v>109</v>
@@ -19823,10 +19823,10 @@
         <v>1749</v>
       </c>
       <c r="J135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -19845,10 +19845,10 @@
         <v>0</v>
       </c>
       <c r="R135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T135" s="1">
         <v>0</v>
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -19943,19 +19943,19 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C136" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G136" t="s">
         <v>109</v>
@@ -19967,10 +19967,10 @@
         <v>1749</v>
       </c>
       <c r="J136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -20087,19 +20087,19 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C137" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D137" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" t="s">
+        <v>89</v>
+      </c>
+      <c r="F137" t="s">
         <v>63</v>
-      </c>
-      <c r="E137" t="s">
-        <v>63</v>
-      </c>
-      <c r="F137" t="s">
-        <v>107</v>
       </c>
       <c r="G137" t="s">
         <v>109</v>
@@ -20111,10 +20111,10 @@
         <v>1749</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20231,19 +20231,19 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C138" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G138" t="s">
         <v>109</v>
@@ -20255,10 +20255,10 @@
         <v>1749</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -20271,10 +20271,10 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" s="1">
         <v>0</v>
@@ -20375,16 +20375,16 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C139" s="1">
-        <v>3100</v>
+        <v>62300</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E139" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F139" t="s">
         <v>107</v>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="AK139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL139" s="1">
         <v>0</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="AP139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ139" s="1">
         <v>0</v>
@@ -20519,16 +20519,16 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C140" s="1">
-        <v>5462507</v>
+        <v>165365057</v>
       </c>
       <c r="D140" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F140" t="s">
         <v>107</v>
@@ -20622,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="AS140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -20663,16 +20663,16 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C141" s="1">
-        <v>156346345</v>
+        <v>5462507</v>
       </c>
       <c r="D141" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F141" t="s">
         <v>107</v>
@@ -20766,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -20807,19 +20807,19 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C142" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E142" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G142" t="s">
         <v>109</v>
@@ -20831,10 +20831,10 @@
         <v>1750</v>
       </c>
       <c r="J142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
@@ -21239,19 +21239,19 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C145" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D145" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" t="s">
         <v>63</v>
-      </c>
-      <c r="E145" t="s">
-        <v>63</v>
-      </c>
-      <c r="F145" t="s">
-        <v>107</v>
       </c>
       <c r="G145" t="s">
         <v>109</v>
@@ -21263,10 +21263,10 @@
         <v>1750</v>
       </c>
       <c r="J145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -102,16 +102,13 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
@@ -120,43 +117,46 @@
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>cocaine</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>heroin</t>
   </si>
   <si>
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
     <t>gabapentin</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
@@ -186,10 +186,10 @@
     <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>acetanilide</t>
   </si>
   <si>
-    <t>acetanilide</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>etaqualone</t>
@@ -204,49 +204,49 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>50-36-2</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>58-73-1</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>60142-96-3</t>
+    <t>105-70-4</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
+    <t>60142-96-3</t>
   </si>
   <si>
     <t>58-08-2</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>122861-41-0</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>6703-27-1</t>
@@ -273,46 +273,46 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>8GTS82S83M</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
+    <t>6CW7F3G59X</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>U59401ETXH</t>
@@ -679,7 +679,7 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -814,16 +814,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>109</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -1111,7 +1111,7 @@
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>109</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
         <v>109</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1387,19 +1387,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>156346345</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
@@ -1531,19 +1531,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>88890</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>109</v>
@@ -1675,19 +1675,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>109</v>
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>3345</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>109</v>
@@ -1963,19 +1963,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>109</v>
@@ -2107,19 +2107,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>109</v>
@@ -2251,19 +2251,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>109</v>
@@ -2395,19 +2395,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
         <v>109</v>
@@ -2539,19 +2539,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>109</v>
@@ -2563,10 +2563,10 @@
         <v>1678</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2585,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>109</v>
@@ -2827,19 +2827,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
         <v>109</v>
@@ -2851,10 +2851,10 @@
         <v>1678</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2971,17 +2971,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
         <v>109</v>
@@ -2993,10 +2995,10 @@
         <v>1681</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3096,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3113,19 +3115,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>109</v>
@@ -3137,10 +3139,10 @@
         <v>1681</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3207,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -3240,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3257,19 +3259,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>109</v>
@@ -3297,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3375,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3401,14 +3403,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -3493,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="1">
         <v>0</v>
@@ -3543,19 +3547,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>5707</v>
+        <v>66924</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>109</v>
@@ -3567,10 +3571,10 @@
         <v>1681</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3592,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3687,19 +3691,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>3446</v>
+        <v>446220</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>109</v>
@@ -3711,10 +3715,10 @@
         <v>1681</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3748,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -3831,19 +3835,17 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1">
-        <v>66924</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
         <v>109</v>
@@ -3855,10 +3857,10 @@
         <v>1681</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3975,16 +3977,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>165361568</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -4078,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4102,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4119,16 +4121,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>107</v>
@@ -4263,19 +4265,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
         <v>109</v>
@@ -4287,10 +4289,10 @@
         <v>1681</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4312,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -4390,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
         <v>0</v>
@@ -4407,16 +4409,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1">
         <v>6213</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>107</v>
@@ -4551,19 +4553,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
-        <v>3100</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
         <v>109</v>
@@ -4575,10 +4577,10 @@
         <v>1681</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4654,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4669,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4695,19 +4697,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
         <v>109</v>
@@ -4719,10 +4721,10 @@
         <v>1681</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4756,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4798,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4839,16 +4841,14 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1">
-        <v>165361568</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>107</v>
@@ -4966,10 +4966,10 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="1">
         <v>0</v>
@@ -4983,19 +4983,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>3446</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
         <v>109</v>
@@ -5007,10 +5007,10 @@
         <v>1681</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5127,19 +5127,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>109</v>
@@ -5151,10 +5151,10 @@
         <v>1681</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5167,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -5283,7 +5283,7 @@
         <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
         <v>109</v>
@@ -5295,10 +5295,10 @@
         <v>1683</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5415,19 +5415,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
         <v>109</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5559,19 +5559,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>66924</v>
+        <v>2519</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
         <v>109</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5703,19 +5703,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
         <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
         <v>109</v>
@@ -5727,10 +5727,10 @@
         <v>1683</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5743,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>3676</v>
+        <v>21812144</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
@@ -5859,7 +5859,7 @@
         <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
         <v>109</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
         <v>109</v>
@@ -6138,7 +6138,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="1">
-        <v>21812144</v>
+        <v>3676</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>
@@ -6147,7 +6147,7 @@
         <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
         <v>109</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="1">
         <v>0</v>
@@ -6279,19 +6279,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6423,19 +6423,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6711,19 +6711,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -6751,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -6855,19 +6855,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -6879,10 +6879,10 @@
         <v>1686</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6999,19 +6999,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>68602</v>
+        <v>5462507</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -7023,10 +7023,10 @@
         <v>1686</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
@@ -7155,7 +7155,7 @@
         <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -7189,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -7333,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -7431,19 +7431,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7575,16 +7575,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
         <v>107</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7719,19 +7719,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1">
-        <v>3676</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7863,19 +7863,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
         <v>109</v>
@@ -7909,10 +7909,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -8007,19 +8007,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
         <v>109</v>
@@ -8047,16 +8047,16 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8151,19 +8151,19 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
         <v>109</v>
@@ -8175,10 +8175,10 @@
         <v>1690</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8212,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8295,19 +8295,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
@@ -8319,10 +8319,10 @@
         <v>1690</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8439,19 +8439,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G56" t="s">
         <v>109</v>
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56" s="1">
         <v>0</v>
@@ -8583,19 +8583,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
         <v>109</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="1">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8727,19 +8727,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
         <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
         <v>109</v>
@@ -8871,19 +8871,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
         <v>109</v>
@@ -9015,19 +9015,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1">
         <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
         <v>109</v>
@@ -9159,19 +9159,17 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="1">
-        <v>10836</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
         <v>109</v>
@@ -9183,10 +9181,10 @@
         <v>1696</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9217,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
@@ -9259,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9303,16 +9301,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F62" t="s">
         <v>107</v>
@@ -9346,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9406,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9447,19 +9445,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
         <v>109</v>
@@ -9471,10 +9469,10 @@
         <v>1696</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9493,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -9591,16 +9589,16 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1">
         <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
         <v>107</v>
@@ -9735,17 +9733,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3100</v>
+      </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
         <v>109</v>
@@ -9757,10 +9757,10 @@
         <v>1696</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9833,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
         <v>109</v>
@@ -9901,10 +9901,10 @@
         <v>1696</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9923,10 +9923,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
         <v>107</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10165,16 +10165,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s">
         <v>107</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="1">
         <v>0</v>
@@ -10309,19 +10309,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
         <v>109</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>31</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D70" t="s">
         <v>65</v>
@@ -10465,7 +10465,7 @@
         <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
         <v>109</v>
@@ -10477,10 +10477,10 @@
         <v>1697</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10493,10 +10493,10 @@
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C71" s="1">
-        <v>2519</v>
+        <v>3676</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
         <v>109</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
@@ -10741,16 +10741,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1">
-        <v>3100</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
         <v>107</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10885,16 +10885,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>3100</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
         <v>107</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -11029,19 +11029,19 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C74" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
         <v>109</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="1">
         <v>0</v>
@@ -11173,16 +11173,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
         <v>107</v>
@@ -11222,10 +11222,10 @@
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="1">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
@@ -11329,7 +11329,7 @@
         <v>88</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
         <v>109</v>
@@ -11341,10 +11341,10 @@
         <v>1697</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11366,10 +11366,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11461,10 +11461,10 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C77" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
         <v>66</v>
@@ -11473,7 +11473,7 @@
         <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
         <v>109</v>
@@ -11507,10 +11507,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
         <v>67</v>
@@ -11617,7 +11617,7 @@
         <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G78" t="s">
         <v>109</v>
@@ -11651,10 +11651,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>
@@ -11749,19 +11749,19 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" s="1">
         <v>3345</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G79" t="s">
         <v>109</v>
@@ -11905,7 +11905,7 @@
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G80" t="s">
         <v>109</v>
@@ -12037,19 +12037,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C81" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" t="s">
         <v>64</v>
-      </c>
-      <c r="E81" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81" t="s">
-        <v>63</v>
       </c>
       <c r="G81" t="s">
         <v>109</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="AT81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU81" s="1">
         <v>0</v>
@@ -12181,19 +12181,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G82" t="s">
         <v>109</v>
@@ -12221,10 +12221,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="1">
         <v>0</v>
@@ -12325,19 +12325,19 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
         <v>109</v>
@@ -12349,10 +12349,10 @@
         <v>1704</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
@@ -12469,19 +12469,19 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C84" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
         <v>109</v>
@@ -12509,10 +12509,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AS84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT84" s="1">
         <v>0</v>
@@ -12613,19 +12613,19 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
         <v>109</v>
@@ -12637,10 +12637,10 @@
         <v>1704</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="AT85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="1">
         <v>0</v>
@@ -12757,19 +12757,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
         <v>109</v>
@@ -12797,16 +12797,16 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="1">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -12901,16 +12901,16 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
-        <v>2337</v>
+        <v>62300</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s">
         <v>107</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ87" s="1">
         <v>0</v>
@@ -13045,19 +13045,19 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G88" t="s">
         <v>109</v>
@@ -13069,10 +13069,10 @@
         <v>1705</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -13085,10 +13085,10 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" s="1">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="AK88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT88" s="1">
         <v>0</v>
@@ -13189,19 +13189,19 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C89" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
         <v>109</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT89" s="1">
         <v>0</v>
@@ -13333,19 +13333,19 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C90" s="1">
-        <v>21812144</v>
+        <v>10836</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G90" t="s">
         <v>109</v>
@@ -13388,10 +13388,10 @@
         <v>0</v>
       </c>
       <c r="U90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" s="1">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="AT90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU90" s="1">
         <v>0</v>
@@ -13477,17 +13477,19 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5707</v>
+      </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G91" t="s">
         <v>109</v>
@@ -13499,10 +13501,10 @@
         <v>1705</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -13521,10 +13523,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" s="1">
         <v>0</v>
@@ -13575,10 +13577,10 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -13619,19 +13621,19 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C92" s="1">
-        <v>10836</v>
+        <v>2337</v>
       </c>
       <c r="D92" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G92" t="s">
         <v>109</v>
@@ -13643,10 +13645,10 @@
         <v>1705</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
@@ -13674,10 +13676,10 @@
         <v>0</v>
       </c>
       <c r="U92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
@@ -13737,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="AP92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ92" s="1">
         <v>0</v>
@@ -13766,16 +13768,16 @@
         <v>40</v>
       </c>
       <c r="C93" s="1">
-        <v>66924</v>
+        <v>165361568</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
         <v>109</v>
@@ -13787,10 +13789,10 @@
         <v>1705</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -13890,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU93" s="1">
         <v>0</v>
@@ -13907,19 +13909,19 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C94" s="1">
-        <v>1983</v>
+        <v>21812144</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
         <v>109</v>
@@ -13931,10 +13933,10 @@
         <v>1705</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -14010,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14037,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="AT94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU94" s="1">
         <v>0</v>
@@ -14051,19 +14053,19 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G95" t="s">
         <v>109</v>
@@ -14075,10 +14077,10 @@
         <v>1705</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14195,16 +14197,14 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" s="1">
-        <v>165361568</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C96" s="1"/>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
         <v>107</v>
@@ -14295,10 +14295,10 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -14322,10 +14322,10 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU96" s="1">
         <v>0</v>
@@ -14339,16 +14339,16 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C97" s="1">
-        <v>62300</v>
+        <v>1983</v>
       </c>
       <c r="D97" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F97" t="s">
         <v>107</v>
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -14495,7 +14495,7 @@
         <v>85</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G98" t="s">
         <v>109</v>
@@ -14627,19 +14627,19 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" s="1">
         <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G99" t="s">
         <v>109</v>
@@ -14771,19 +14771,19 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1">
         <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G100" t="s">
         <v>109</v>
@@ -14915,19 +14915,19 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101" s="1">
         <v>5707</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G101" t="s">
         <v>109</v>
@@ -15059,19 +15059,19 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1">
         <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G102" t="s">
         <v>109</v>
@@ -15215,7 +15215,7 @@
         <v>90</v>
       </c>
       <c r="F103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G103" t="s">
         <v>109</v>
@@ -15359,7 +15359,7 @@
         <v>90</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -15503,7 +15503,7 @@
         <v>90</v>
       </c>
       <c r="F105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G105" t="s">
         <v>109</v>
@@ -15635,19 +15635,19 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C106" s="1">
-        <v>446220</v>
+        <v>6213</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F106" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G106" t="s">
         <v>109</v>
@@ -15659,10 +15659,10 @@
         <v>1736</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -15696,10 +15696,10 @@
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y106" s="1">
         <v>0</v>
@@ -15779,19 +15779,19 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C107" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G107" t="s">
         <v>109</v>
@@ -15819,10 +15819,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z107" s="1">
         <v>0</v>
@@ -15882,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="AP107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ107" s="1">
         <v>0</v>
@@ -15923,19 +15923,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E108" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G108" t="s">
         <v>109</v>
@@ -16067,19 +16067,19 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C109" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G109" t="s">
         <v>109</v>
@@ -16107,10 +16107,10 @@
         <v>0</v>
       </c>
       <c r="P109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R109" s="1">
         <v>0</v>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="AS109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -16211,19 +16211,19 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C110" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E110" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F110" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G110" t="s">
         <v>109</v>
@@ -16235,10 +16235,10 @@
         <v>1736</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -16272,10 +16272,10 @@
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y110" s="1">
         <v>0</v>
@@ -16355,19 +16355,17 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" s="1">
-        <v>165365057</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C111" s="1"/>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G111" t="s">
         <v>109</v>
@@ -16379,10 +16377,10 @@
         <v>1736</v>
       </c>
       <c r="J111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -16455,10 +16453,10 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -16482,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16499,17 +16497,19 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2519</v>
+      </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F112" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G112" t="s">
         <v>109</v>
@@ -16521,10 +16521,10 @@
         <v>1736</v>
       </c>
       <c r="J112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112" s="1">
         <v>0</v>
@@ -16597,10 +16597,10 @@
         <v>0</v>
       </c>
       <c r="AJ112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="AP112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ112" s="1">
         <v>0</v>
@@ -16641,19 +16641,19 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C113" s="1">
         <v>5707</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G113" t="s">
         <v>109</v>
@@ -16789,10 +16789,10 @@
       </c>
       <c r="C114" s="1"/>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114" t="s">
         <v>107</v>
@@ -16939,7 +16939,7 @@
         <v>85</v>
       </c>
       <c r="F115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G115" t="s">
         <v>109</v>
@@ -17071,17 +17071,19 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2519</v>
+      </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F116" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G116" t="s">
         <v>109</v>
@@ -17093,10 +17095,10 @@
         <v>1745</v>
       </c>
       <c r="J116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
@@ -17136,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z116" s="1">
         <v>0</v>
@@ -17187,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="AP116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ116" s="1">
         <v>0</v>
@@ -17213,16 +17215,14 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
-      </c>
-      <c r="C117" s="1">
-        <v>12107</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C117" s="1"/>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
         <v>107</v>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -17357,19 +17357,19 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C118" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E118" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G118" t="s">
         <v>109</v>
@@ -17397,10 +17397,10 @@
         <v>0</v>
       </c>
       <c r="P118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" s="1">
         <v>0</v>
@@ -17418,10 +17418,10 @@
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="1">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="AK118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL118" s="1">
         <v>0</v>
@@ -17501,19 +17501,19 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E119" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G119" t="s">
         <v>109</v>
@@ -17525,10 +17525,10 @@
         <v>1745</v>
       </c>
       <c r="J119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17541,10 +17541,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119" s="1">
         <v>0</v>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="AK119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL119" s="1">
         <v>0</v>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17645,19 +17645,19 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C120" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E120" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G120" t="s">
         <v>109</v>
@@ -17691,10 +17691,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -17706,10 +17706,10 @@
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y120" s="1">
         <v>0</v>
@@ -17789,19 +17789,19 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" s="1">
         <v>88890</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G121" t="s">
         <v>109</v>
@@ -17933,19 +17933,19 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D122" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F122" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G122" t="s">
         <v>109</v>
@@ -17957,10 +17957,10 @@
         <v>1745</v>
       </c>
       <c r="J122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
@@ -17979,10 +17979,10 @@
         <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T122" s="1">
         <v>0</v>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -18077,16 +18077,14 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" s="1">
-        <v>6213</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C123" s="1"/>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E123" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F123" t="s">
         <v>107</v>
@@ -18221,19 +18219,19 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C124" s="1">
-        <v>2519</v>
+        <v>6213</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E124" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F124" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G124" t="s">
         <v>109</v>
@@ -18245,10 +18243,10 @@
         <v>1745</v>
       </c>
       <c r="J124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -18288,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z124" s="1">
         <v>0</v>
@@ -18339,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="AP124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ124" s="1">
         <v>0</v>
@@ -18367,12 +18365,14 @@
       <c r="B125" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="1"/>
+      <c r="C125" s="1">
+        <v>12107</v>
+      </c>
       <c r="D125" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F125" t="s">
         <v>107</v>
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="AS125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT125" s="1">
         <v>0</v>
@@ -18511,10 +18511,10 @@
       </c>
       <c r="C126" s="1"/>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F126" t="s">
         <v>107</v>
@@ -18649,16 +18649,16 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C127" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D127" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F127" t="s">
         <v>107</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127" s="1">
         <v>0</v>
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -18793,19 +18793,17 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="1">
-        <v>88890</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G128" t="s">
         <v>109</v>
@@ -18920,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -18937,19 +18935,19 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C129" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F129" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G129" t="s">
         <v>109</v>
@@ -18961,10 +18959,10 @@
         <v>1747</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19001,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="X129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y129" s="1">
         <v>0</v>
@@ -19064,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="AS129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT129" s="1">
         <v>0</v>
@@ -19081,19 +19079,19 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C130" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E130" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G130" t="s">
         <v>109</v>
@@ -19121,16 +19119,16 @@
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130" s="1">
         <v>0</v>
@@ -19184,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="AK130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL130" s="1">
         <v>0</v>
@@ -19225,17 +19223,19 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
-      </c>
-      <c r="C131" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C131" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G131" t="s">
         <v>109</v>
@@ -19247,10 +19247,10 @@
         <v>1747</v>
       </c>
       <c r="J131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="AS131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT131" s="1">
         <v>0</v>
@@ -19367,19 +19367,19 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C132" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D132" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E132" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
         <v>109</v>
@@ -19407,16 +19407,16 @@
         <v>0</v>
       </c>
       <c r="P132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" s="1">
         <v>0</v>
@@ -19470,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="AK132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132" s="1">
         <v>0</v>
@@ -19511,19 +19511,19 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C133" s="1">
         <v>5707</v>
       </c>
       <c r="D133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E133" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
         <v>109</v>
@@ -19655,19 +19655,19 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C134" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D134" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F134" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G134" t="s">
         <v>109</v>
@@ -19679,10 +19679,10 @@
         <v>1749</v>
       </c>
       <c r="J134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="AP134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ134" s="1">
         <v>0</v>
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -19799,16 +19799,16 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C135" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E135" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F135" t="s">
         <v>107</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL135" s="1">
         <v>0</v>
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -19943,16 +19943,16 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C136" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D136" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F136" t="s">
         <v>107</v>
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -20087,19 +20087,19 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C137" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E137" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F137" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G137" t="s">
         <v>109</v>
@@ -20111,10 +20111,10 @@
         <v>1749</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="AK137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL137" s="1">
         <v>0</v>
@@ -20214,7 +20214,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -20231,19 +20231,19 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C138" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E138" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F138" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G138" t="s">
         <v>109</v>
@@ -20255,10 +20255,10 @@
         <v>1749</v>
       </c>
       <c r="J138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -20271,10 +20271,10 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138" s="1">
         <v>0</v>
@@ -20334,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="AK138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL138" s="1">
         <v>0</v>
@@ -20349,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="AP138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ138" s="1">
         <v>0</v>
@@ -20375,19 +20375,19 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E139" t="s">
         <v>86</v>
       </c>
       <c r="F139" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G139" t="s">
         <v>109</v>
@@ -20399,10 +20399,10 @@
         <v>1749</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
@@ -20415,10 +20415,10 @@
         <v>0</v>
       </c>
       <c r="P139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" s="1">
         <v>0</v>
@@ -20519,19 +20519,19 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C140" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D140" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F140" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G140" t="s">
         <v>109</v>
@@ -20543,10 +20543,10 @@
         <v>1750</v>
       </c>
       <c r="J140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
@@ -20663,16 +20663,16 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C141" s="1">
-        <v>5462507</v>
+        <v>156346345</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="F141" t="s">
         <v>107</v>
@@ -20766,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -20807,19 +20807,19 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C142" s="1">
-        <v>156346345</v>
+        <v>5462328</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E142" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F142" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G142" t="s">
         <v>109</v>
@@ -20831,10 +20831,10 @@
         <v>1750</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="AK142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL142" s="1">
         <v>0</v>
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="AS142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -20951,19 +20951,19 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C143" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E143" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F143" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G143" t="s">
         <v>109</v>
@@ -20975,10 +20975,10 @@
         <v>1750</v>
       </c>
       <c r="J143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
@@ -20991,10 +20991,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" s="1">
         <v>0</v>
@@ -21095,19 +21095,19 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C144" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G144" t="s">
         <v>109</v>
@@ -21135,10 +21135,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" s="1">
         <v>0</v>
@@ -21239,19 +21239,19 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C145" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D145" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E145" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G145" t="s">
         <v>109</v>
@@ -21263,10 +21263,10 @@
         <v>1750</v>
       </c>
       <c r="J145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="912" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="960" uniqueCount="155">
   <si>
     <t>sampleid</t>
   </si>
@@ -84,6 +84,9 @@
     <t>600438</t>
   </si>
   <si>
+    <t>600445</t>
+  </si>
+  <si>
     <t>600453</t>
   </si>
   <si>
@@ -96,16 +99,19 @@
     <t>600468</t>
   </si>
   <si>
+    <t>600486</t>
+  </si>
+  <si>
     <t>substance</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
@@ -114,31 +120,25 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>xylazine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
   </si>
   <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>heroin</t>
@@ -147,7 +147,13 @@
     <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>gabapentin</t>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
   </si>
   <si>
     <t>caffeine</t>
@@ -159,22 +165,22 @@
     <t>lidocaine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>N-desethyl etonitazene</t>
   </si>
   <si>
-    <t>benzocaine</t>
+    <t>N-pyrrolidino-etonitazene</t>
   </si>
   <si>
-    <t>N-pyrrolidino-etonitazene</t>
+    <t>benzocaine</t>
   </si>
   <si>
     <t>acetaminophen</t>
@@ -183,10 +189,13 @@
     <t>pending nitazene</t>
   </si>
   <si>
-    <t>2-Fluoro-2-oxo PCE</t>
+    <t>ibuprofen</t>
   </si>
   <si>
     <t>acetanilide</t>
+  </si>
+  <si>
+    <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -204,28 +213,31 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>7361-61-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>58-73-1</t>
+    <t>60142-96-3</t>
   </si>
   <si>
     <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>105-70-4</t>
@@ -234,10 +246,7 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>60142-96-3</t>
+    <t>58-73-1</t>
   </si>
   <si>
     <t>58-08-2</t>
@@ -249,19 +258,22 @@
     <t>137-58-6</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>94-09-7</t>
   </si>
   <si>
     <t>103-90-2</t>
+  </si>
+  <si>
+    <t>15687-27-1</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -279,19 +291,22 @@
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
+    <t>6CW7F3G59X</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
@@ -300,10 +315,7 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>6CW7F3G59X</t>
+    <t>8GTS82S83M</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -315,19 +327,22 @@
     <t>98PI200987</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>U3RSY48JW5</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>WK2XYI10QM</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -510,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV145"/>
+  <dimension ref="A1:AV153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,145 +536,145 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="V1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="W1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="X1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Z1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AA1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AB1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AC1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AD1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AH1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AI1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AJ1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AL1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AQ1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AR1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AS1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AT1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AU1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AV1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -667,22 +682,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2">
         <v>45415</v>
@@ -811,22 +826,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2">
         <v>45310</v>
@@ -851,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -914,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -938,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -955,22 +970,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2">
         <v>45310</v>
@@ -995,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1058,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1082,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1099,22 +1114,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>62300</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H5" s="2">
         <v>45310</v>
@@ -1243,22 +1258,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2">
         <v>45310</v>
@@ -1387,22 +1402,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>156346345</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2">
         <v>45310</v>
@@ -1531,22 +1546,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2">
         <v>45310</v>
@@ -1577,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1658,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1675,22 +1690,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2">
         <v>45310</v>
@@ -1715,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1778,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1819,22 +1834,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2">
         <v>45310</v>
@@ -1859,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1922,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1946,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1963,22 +1978,22 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H11" s="2">
         <v>45345</v>
@@ -2003,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2066,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2090,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2107,22 +2122,22 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H12" s="2">
         <v>45345</v>
@@ -2147,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2210,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2234,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2251,22 +2266,22 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H13" s="2">
         <v>45345</v>
@@ -2395,22 +2410,22 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H14" s="2">
         <v>45310</v>
@@ -2539,22 +2554,22 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H15" s="2">
         <v>45310</v>
@@ -2563,10 +2578,10 @@
         <v>1678</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2585,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2603,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2683,22 +2698,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H16" s="2">
         <v>45310</v>
@@ -2723,16 +2738,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2786,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2827,22 +2842,22 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H17" s="2">
         <v>45310</v>
@@ -2851,10 +2866,10 @@
         <v>1678</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2867,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2891,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2930,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2971,22 +2986,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>165361568</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H18" s="2">
         <v>45316</v>
@@ -2995,10 +3010,10 @@
         <v>1681</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3101,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3115,22 +3130,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H19" s="2">
         <v>45316</v>
@@ -3155,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3218,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3242,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3259,22 +3274,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2">
         <v>45316</v>
@@ -3283,10 +3298,10 @@
         <v>1681</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3308,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -3377,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3403,22 +3418,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
-        <v>12562546</v>
+        <v>3446</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2">
         <v>45316</v>
@@ -3497,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
         <v>0</v>
@@ -3547,22 +3562,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>66924</v>
+        <v>12562546</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H22" s="2">
         <v>45316</v>
@@ -3571,10 +3586,10 @@
         <v>1681</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3641,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -3691,22 +3706,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1">
-        <v>446220</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H23" s="2">
         <v>45316</v>
@@ -3715,10 +3728,10 @@
         <v>1681</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3752,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -3835,20 +3848,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C24" s="1">
+        <v>156346345</v>
+      </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H24" s="2">
         <v>45316</v>
@@ -3960,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3977,22 +3992,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
-        <v>165361568</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H25" s="2">
         <v>45316</v>
@@ -4080,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4104,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4121,22 +4136,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H26" s="2">
         <v>45316</v>
@@ -4145,10 +4160,10 @@
         <v>1681</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4265,22 +4280,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H27" s="2">
         <v>45316</v>
@@ -4289,10 +4304,10 @@
         <v>1681</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4314,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -4326,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4409,22 +4424,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6213</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H28" s="2">
         <v>45316</v>
@@ -4553,22 +4566,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>66924</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H29" s="2">
         <v>45316</v>
@@ -4577,10 +4590,10 @@
         <v>1681</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4656,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4697,22 +4710,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
-        <v>62300</v>
+        <v>6213</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H30" s="2">
         <v>45316</v>
@@ -4800,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4841,20 +4854,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>62300</v>
+      </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H31" s="2">
         <v>45316</v>
@@ -4942,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4983,22 +4998,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>3446</v>
+        <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2">
         <v>45316</v>
@@ -5007,10 +5022,10 @@
         <v>1681</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5110,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5127,22 +5142,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H33" s="2">
         <v>45316</v>
@@ -5167,10 +5182,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5230,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5245,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5271,22 +5286,22 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H34" s="2">
         <v>45420</v>
@@ -5295,10 +5310,10 @@
         <v>1683</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5332,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5374,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5415,22 +5430,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H35" s="2">
         <v>45420</v>
@@ -5482,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -5533,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5542,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5559,22 +5574,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H36" s="2">
         <v>45420</v>
@@ -5599,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5626,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -5662,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5677,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5703,22 +5718,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H37" s="2">
         <v>45420</v>
@@ -5727,10 +5742,10 @@
         <v>1683</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5743,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5847,22 +5862,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <v>21812144</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H38" s="2">
         <v>45420</v>
@@ -5991,22 +6006,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H39" s="2">
         <v>45420</v>
@@ -6052,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6135,22 +6150,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
         <v>3676</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H40" s="2">
         <v>45420</v>
@@ -6279,22 +6294,22 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
         <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H41" s="2">
         <v>45420</v>
@@ -6406,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6423,22 +6438,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H42" s="2">
         <v>45310</v>
@@ -6463,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6526,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6567,22 +6582,22 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H43" s="2">
         <v>45310</v>
@@ -6591,10 +6606,10 @@
         <v>1686</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6688,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -6711,22 +6726,22 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H44" s="2">
         <v>45310</v>
@@ -6735,10 +6750,10 @@
         <v>1686</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6814,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6838,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -6855,22 +6870,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H45" s="2">
         <v>45310</v>
@@ -6958,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -6982,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="AS45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="1">
         <v>0</v>
@@ -6999,22 +7014,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
-        <v>5462507</v>
+        <v>68602</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H46" s="2">
         <v>45310</v>
@@ -7023,10 +7038,10 @@
         <v>1686</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7102,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7143,22 +7158,22 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H47" s="2">
         <v>45310</v>
@@ -7183,16 +7198,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -7246,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7287,22 +7302,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
-        <v>68602</v>
+        <v>5486550</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H48" s="2">
         <v>45310</v>
@@ -7311,10 +7326,10 @@
         <v>1686</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7390,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7408,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" s="1">
         <v>0</v>
@@ -7431,22 +7446,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
         <v>3676</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H49" s="2">
         <v>45420</v>
@@ -7575,22 +7590,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H50" s="2">
         <v>45420</v>
@@ -7599,10 +7614,10 @@
         <v>1690</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7693,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7719,22 +7734,22 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H51" s="2">
         <v>45420</v>
@@ -7780,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7837,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7863,22 +7878,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
         <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H52" s="2">
         <v>45420</v>
@@ -7903,16 +7918,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -7966,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -8007,22 +8022,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H53" s="2">
         <v>45420</v>
@@ -8047,16 +8062,16 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8110,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8151,22 +8166,22 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H54" s="2">
         <v>45420</v>
@@ -8212,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8278,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8295,22 +8310,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
         <v>165365057</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H55" s="2">
         <v>45420</v>
@@ -8439,22 +8454,22 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1">
-        <v>3100</v>
+        <v>6213</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H56" s="2">
         <v>45420</v>
@@ -8463,10 +8478,10 @@
         <v>1690</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8557,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="1">
         <v>0</v>
@@ -8583,22 +8598,22 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
         <v>66</v>
       </c>
-      <c r="E57" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" t="s">
-        <v>64</v>
-      </c>
       <c r="G57" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H57" s="2">
         <v>45420</v>
@@ -8650,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="1">
         <v>0</v>
@@ -8701,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8710,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8727,22 +8742,22 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H58" s="2">
         <v>45310</v>
@@ -8767,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8830,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8854,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8871,22 +8886,22 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
         <v>66</v>
       </c>
-      <c r="E59" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" t="s">
-        <v>64</v>
-      </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H59" s="2">
         <v>45310</v>
@@ -8911,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8974,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8998,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -9015,22 +9030,22 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H60" s="2">
         <v>45310</v>
@@ -9159,20 +9174,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H61" s="2">
         <v>45419</v>
@@ -9181,10 +9198,10 @@
         <v>1696</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9257,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="1">
         <v>1</v>
@@ -9301,22 +9318,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H62" s="2">
         <v>45419</v>
@@ -9344,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9404,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9445,22 +9462,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" s="1">
         <v>5707</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H63" s="2">
         <v>45419</v>
@@ -9589,22 +9606,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C64" s="1">
         <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H64" s="2">
         <v>45419</v>
@@ -9733,22 +9750,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1">
         <v>3100</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H65" s="2">
         <v>45419</v>
@@ -9877,22 +9894,20 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5462328</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H66" s="2">
         <v>45419</v>
@@ -9901,10 +9916,10 @@
         <v>1696</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9977,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66" s="1">
         <v>1</v>
@@ -10021,22 +10036,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
         <v>10836</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H67" s="2">
         <v>45419</v>
@@ -10165,22 +10180,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H68" s="2">
         <v>45419</v>
@@ -10208,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10268,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10309,22 +10324,22 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H69" s="2">
         <v>45420</v>
@@ -10349,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
         <v>0</v>
@@ -10376,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -10412,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10427,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10453,22 +10468,22 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H70" s="2">
         <v>45420</v>
@@ -10477,10 +10492,10 @@
         <v>1697</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10556,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10580,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10597,22 +10612,22 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1">
-        <v>3676</v>
+        <v>62300</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H71" s="2">
         <v>45420</v>
@@ -10621,10 +10636,10 @@
         <v>1697</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10700,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10715,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10741,22 +10756,22 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H72" s="2">
         <v>45420</v>
@@ -10765,10 +10780,10 @@
         <v>1697</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10805,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="1">
         <v>0</v>
@@ -10859,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10885,22 +10900,22 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1">
         <v>3100</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G73" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H73" s="2">
         <v>45420</v>
@@ -11029,22 +11044,22 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H74" s="2">
         <v>45420</v>
@@ -11053,10 +11068,10 @@
         <v>1697</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11069,19 +11084,19 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="1">
         <v>0</v>
@@ -11132,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11173,22 +11188,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C75" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H75" s="2">
         <v>45420</v>
@@ -11197,10 +11212,10 @@
         <v>1697</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11222,10 +11237,10 @@
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="1">
         <v>0</v>
@@ -11291,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ75" s="1">
         <v>0</v>
@@ -11317,22 +11332,22 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H76" s="2">
         <v>45420</v>
@@ -11341,10 +11356,10 @@
         <v>1697</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11381,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11444,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11461,22 +11476,22 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" t="s">
         <v>66</v>
       </c>
-      <c r="E77" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" t="s">
-        <v>64</v>
-      </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H77" s="2">
         <v>45420</v>
@@ -11516,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -11588,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11605,22 +11620,22 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
         <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H78" s="2">
         <v>45420</v>
@@ -11645,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11708,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11749,22 +11764,22 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H79" s="2">
         <v>45420</v>
@@ -11789,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
         <v>0</v>
@@ -11852,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
@@ -11876,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -11893,22 +11908,22 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H80" s="2">
         <v>45420</v>
@@ -11939,19 +11954,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -12037,22 +12052,22 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H81" s="2">
         <v>45336</v>
@@ -12077,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -12167,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="AT81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="1">
         <v>0</v>
@@ -12181,22 +12196,22 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C82" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H82" s="2">
         <v>45336</v>
@@ -12221,10 +12236,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -12284,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -12308,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="1">
         <v>0</v>
@@ -12325,22 +12340,22 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C83" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H83" s="2">
         <v>45336</v>
@@ -12455,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AT83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU83" s="1">
         <v>0</v>
@@ -12469,22 +12484,22 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C84" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H84" s="2">
         <v>45336</v>
@@ -12493,10 +12508,10 @@
         <v>1704</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -12572,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="1">
         <v>0</v>
@@ -12596,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="AS84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT84" s="1">
         <v>0</v>
@@ -12613,22 +12628,22 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H85" s="2">
         <v>45336</v>
@@ -12637,10 +12652,10 @@
         <v>1704</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -12757,22 +12772,22 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C86" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H86" s="2">
         <v>45420</v>
@@ -12797,16 +12812,16 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1">
         <v>0</v>
@@ -12860,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -12901,22 +12916,22 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H87" s="2">
         <v>45420</v>
@@ -12925,10 +12940,10 @@
         <v>1705</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
@@ -13004,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -13028,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="AS87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT87" s="1">
         <v>0</v>
@@ -13045,22 +13060,20 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="1">
-        <v>165365057</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C88" s="1"/>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H88" s="2">
         <v>45420</v>
@@ -13145,10 +13158,10 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13172,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="1">
         <v>0</v>
@@ -13189,22 +13202,22 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H89" s="2">
         <v>45420</v>
@@ -13229,10 +13242,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -13292,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13333,22 +13346,22 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1">
-        <v>10836</v>
+        <v>21812144</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H90" s="2">
         <v>45420</v>
@@ -13388,10 +13401,10 @@
         <v>0</v>
       </c>
       <c r="U90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90" s="1">
         <v>0</v>
@@ -13436,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13463,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="AT90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU90" s="1">
         <v>0</v>
@@ -13477,22 +13490,22 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C91" s="1">
-        <v>5707</v>
+        <v>66924</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H91" s="2">
         <v>45420</v>
@@ -13523,10 +13536,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" s="1">
         <v>0</v>
@@ -13621,22 +13634,22 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C92" s="1">
-        <v>2337</v>
+        <v>165361568</v>
       </c>
       <c r="D92" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H92" s="2">
         <v>45420</v>
@@ -13739,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="AP92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ92" s="1">
         <v>0</v>
@@ -13748,10 +13761,10 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU92" s="1">
         <v>0</v>
@@ -13765,22 +13778,22 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1">
-        <v>165361568</v>
+        <v>10836</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H93" s="2">
         <v>45420</v>
@@ -13789,10 +13802,10 @@
         <v>1705</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -13820,10 +13833,10 @@
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" s="1">
         <v>0</v>
@@ -13892,10 +13905,10 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU93" s="1">
         <v>0</v>
@@ -13909,22 +13922,22 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C94" s="1">
-        <v>21812144</v>
+        <v>2337</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H94" s="2">
         <v>45420</v>
@@ -13933,10 +13946,10 @@
         <v>1705</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -14012,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14027,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="AP94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ94" s="1">
         <v>0</v>
@@ -14039,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="AT94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU94" s="1">
         <v>0</v>
@@ -14053,22 +14066,22 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D95" t="s">
         <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H95" s="2">
         <v>45420</v>
@@ -14077,10 +14090,10 @@
         <v>1705</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14197,20 +14210,22 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1983</v>
+      </c>
       <c r="D96" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H96" s="2">
         <v>45420</v>
@@ -14295,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -14339,22 +14354,22 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1">
-        <v>1983</v>
+        <v>62300</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H97" s="2">
         <v>45420</v>
@@ -14442,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -14483,22 +14498,22 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1">
         <v>10836</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H98" s="2">
         <v>45309</v>
@@ -14627,22 +14642,22 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C99" s="1">
         <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F99" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H99" s="2">
         <v>45309</v>
@@ -14771,22 +14786,22 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1">
         <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H100" s="2">
         <v>45310</v>
@@ -14915,22 +14930,22 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H101" s="2">
         <v>45310</v>
@@ -14961,10 +14976,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -15042,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="AS101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT101" s="1">
         <v>0</v>
@@ -15059,22 +15074,22 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" t="s">
         <v>66</v>
       </c>
-      <c r="E102" t="s">
-        <v>88</v>
-      </c>
-      <c r="F102" t="s">
-        <v>64</v>
-      </c>
       <c r="G102" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H102" s="2">
         <v>45310</v>
@@ -15105,10 +15120,10 @@
         <v>0</v>
       </c>
       <c r="R102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" s="1">
         <v>0</v>
@@ -15186,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -15203,22 +15218,22 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>446220</v>
       </c>
       <c r="D103" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F103" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H103" s="2">
         <v>45369</v>
@@ -15347,22 +15362,22 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1">
         <v>446220</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H104" s="2">
         <v>45310</v>
@@ -15491,22 +15506,22 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C105" s="1">
         <v>446220</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H105" s="2">
         <v>45371</v>
@@ -15635,22 +15650,22 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C106" s="1">
-        <v>6213</v>
+        <v>2519</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E106" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H106" s="2">
         <v>45420</v>
@@ -15659,10 +15674,10 @@
         <v>1736</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -15702,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z106" s="1">
         <v>0</v>
@@ -15753,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="AP106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ106" s="1">
         <v>0</v>
@@ -15779,22 +15794,20 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="1">
-        <v>3345</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C107" s="1"/>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F107" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H107" s="2">
         <v>45420</v>
@@ -15803,10 +15816,10 @@
         <v>1736</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -15819,10 +15832,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -15879,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -15923,22 +15936,22 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H108" s="2">
         <v>45420</v>
@@ -16067,22 +16080,22 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C109" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H109" s="2">
         <v>45420</v>
@@ -16091,10 +16104,10 @@
         <v>1736</v>
       </c>
       <c r="J109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
@@ -16194,7 +16207,7 @@
         <v>0</v>
       </c>
       <c r="AS109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -16211,22 +16224,22 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1">
         <v>446220</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F110" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H110" s="2">
         <v>45420</v>
@@ -16355,20 +16368,22 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C111" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D111" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G111" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H111" s="2">
         <v>45420</v>
@@ -16377,10 +16392,10 @@
         <v>1736</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -16453,10 +16468,10 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -16480,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16497,22 +16512,20 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2519</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F112" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G112" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H112" s="2">
         <v>45420</v>
@@ -16521,10 +16534,10 @@
         <v>1736</v>
       </c>
       <c r="J112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
@@ -16564,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z112" s="1">
         <v>0</v>
@@ -16597,10 +16610,10 @@
         <v>0</v>
       </c>
       <c r="AJ112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16615,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="AP112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ112" s="1">
         <v>0</v>
@@ -16641,22 +16654,22 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D113" t="s">
         <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F113" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H113" s="2">
         <v>45420</v>
@@ -16681,16 +16694,16 @@
         <v>0</v>
       </c>
       <c r="P113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" s="1">
         <v>0</v>
@@ -16744,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="AK113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL113" s="1">
         <v>0</v>
@@ -16785,20 +16798,22 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5707</v>
+      </c>
       <c r="D114" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G114" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H114" s="2">
         <v>45420</v>
@@ -16807,10 +16822,10 @@
         <v>1736</v>
       </c>
       <c r="J114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
@@ -16829,10 +16844,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -16883,10 +16898,10 @@
         <v>0</v>
       </c>
       <c r="AJ114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114" s="1">
         <v>0</v>
@@ -16927,22 +16942,22 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C115" s="1">
         <v>10836</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E115" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F115" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H115" s="2">
         <v>45372</v>
@@ -17071,28 +17086,28 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C116" s="1">
-        <v>2519</v>
+        <v>156346345</v>
       </c>
       <c r="D116" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E116" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F116" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G116" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H116" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I116" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -17102,10 +17117,10 @@
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N116" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O116" s="1">
         <v>0</v>
@@ -17138,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z116" s="1">
         <v>0</v>
@@ -17189,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="AP116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ116" s="1">
         <v>0</v>
@@ -17198,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17215,48 +17230,50 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3345</v>
+      </c>
       <c r="D117" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E117" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H117" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I117" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N117" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O117" s="1">
         <v>0</v>
       </c>
       <c r="P117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" s="1">
         <v>0</v>
@@ -17316,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="AK117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL117" s="1">
         <v>0</v>
@@ -17357,28 +17374,28 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C118" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D118" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G118" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H118" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I118" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J118" s="1">
         <v>1</v>
@@ -17388,19 +17405,19 @@
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N118" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O118" s="1">
         <v>0</v>
       </c>
       <c r="P118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118" s="1">
         <v>0</v>
@@ -17460,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="AK118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118" s="1">
         <v>0</v>
@@ -17475,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ118" s="1">
         <v>0</v>
@@ -17501,41 +17518,41 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C119" s="1">
-        <v>165365057</v>
+        <v>3672</v>
       </c>
       <c r="D119" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E119" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F119" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H119" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I119" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O119" s="1">
         <v>0</v>
@@ -17619,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="AP119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ119" s="1">
         <v>0</v>
@@ -17628,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17645,28 +17662,28 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C120" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F120" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H120" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I120" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J120" s="1">
         <v>1</v>
@@ -17676,10 +17693,10 @@
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N120" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O120" s="1">
         <v>0</v>
@@ -17706,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y120" s="1">
         <v>0</v>
@@ -17772,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -17789,41 +17806,41 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C121" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D121" t="s">
         <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F121" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G121" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H121" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I121" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N121" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O121" s="1">
         <v>0</v>
@@ -17933,28 +17950,28 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122" s="1">
         <v>5707</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H122" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="I122" s="1">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -17964,10 +17981,10 @@
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N122" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O122" s="1">
         <v>0</v>
@@ -18074,29 +18091,31 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6213</v>
+      </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F123" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G123" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H123" s="2">
         <v>45418</v>
       </c>
       <c r="I123" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J123" s="1">
         <v>0</v>
@@ -18216,37 +18235,37 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E124" t="s">
         <v>94</v>
       </c>
       <c r="F124" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H124" s="2">
         <v>45418</v>
       </c>
       <c r="I124" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -18280,10 +18299,10 @@
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y124" s="1">
         <v>0</v>
@@ -18360,31 +18379,31 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C125" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D125" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F125" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G125" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H125" s="2">
         <v>45418</v>
       </c>
       <c r="I125" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J125" s="1">
         <v>0</v>
@@ -18507,48 +18526,50 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
-      </c>
-      <c r="C126" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3345</v>
+      </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F126" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G126" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H126" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I126" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N126" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O126" s="1">
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="1">
         <v>0</v>
@@ -18608,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="AK126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL126" s="1">
         <v>0</v>
@@ -18649,41 +18670,41 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C127" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F127" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H127" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I127" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N127" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O127" s="1">
         <v>0</v>
@@ -18713,10 +18734,10 @@
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z127" s="1">
         <v>0</v>
@@ -18767,7 +18788,7 @@
         <v>0</v>
       </c>
       <c r="AP127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ127" s="1">
         <v>0</v>
@@ -18793,39 +18814,39 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E128" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F128" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G128" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H128" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I128" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N128" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O128" s="1">
         <v>0</v>
@@ -18935,41 +18956,39 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="1">
-        <v>88890</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C129" s="1"/>
       <c r="D129" t="s">
         <v>66</v>
       </c>
       <c r="E129" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F129" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G129" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H129" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I129" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N129" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O129" s="1">
         <v>0</v>
@@ -19062,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="AS129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT129" s="1">
         <v>0</v>
@@ -19079,50 +19098,50 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C130" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D130" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E130" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F130" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G130" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H130" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I130" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N130" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O130" s="1">
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130" s="1">
         <v>0</v>
@@ -19182,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="AK130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="1">
         <v>0</v>
@@ -19206,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -19223,41 +19242,41 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C131" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F131" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G131" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H131" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I131" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N131" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O131" s="1">
         <v>0</v>
@@ -19269,10 +19288,10 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -19350,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="AS131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT131" s="1">
         <v>0</v>
@@ -19367,28 +19386,28 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C132" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G132" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H132" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="I132" s="1">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J132" s="1">
         <v>1</v>
@@ -19398,10 +19417,10 @@
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N132" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O132" s="1">
         <v>0</v>
@@ -19413,10 +19432,10 @@
         <v>0</v>
       </c>
       <c r="R132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T132" s="1">
         <v>0</v>
@@ -19494,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AS132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT132" s="1">
         <v>0</v>
@@ -19511,41 +19530,41 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C133" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G133" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H133" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I133" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
         <v>7</v>
       </c>
       <c r="N133" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O133" s="1">
         <v>0</v>
@@ -19557,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19638,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="AS133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT133" s="1">
         <v>0</v>
@@ -19655,28 +19674,28 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C134" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" t="s">
         <v>66</v>
       </c>
-      <c r="E134" t="s">
-        <v>88</v>
-      </c>
-      <c r="F134" t="s">
-        <v>64</v>
-      </c>
       <c r="G134" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H134" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I134" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J134" s="1">
         <v>1</v>
@@ -19689,7 +19708,7 @@
         <v>7</v>
       </c>
       <c r="N134" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O134" s="1">
         <v>0</v>
@@ -19701,10 +19720,10 @@
         <v>0</v>
       </c>
       <c r="R134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" s="1">
         <v>0</v>
@@ -19782,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -19799,28 +19818,26 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="1">
-        <v>5462328</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F135" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G135" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H135" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I135" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J135" s="1">
         <v>0</v>
@@ -19833,7 +19850,7 @@
         <v>7</v>
       </c>
       <c r="N135" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O135" s="1">
         <v>0</v>
@@ -19902,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL135" s="1">
         <v>0</v>
@@ -19943,41 +19960,39 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
-      </c>
-      <c r="C136" s="1">
-        <v>165365057</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C136" s="1"/>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E136" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F136" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H136" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I136" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
         <v>7</v>
       </c>
       <c r="N136" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O136" s="1">
         <v>0</v>
@@ -20070,7 +20085,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -20087,41 +20102,41 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D137" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F137" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G137" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H137" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I137" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
         <v>7</v>
       </c>
       <c r="N137" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O137" s="1">
         <v>0</v>
@@ -20190,7 +20205,7 @@
         <v>0</v>
       </c>
       <c r="AK137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL137" s="1">
         <v>0</v>
@@ -20214,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -20231,28 +20246,28 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" s="1">
-        <v>3100</v>
+        <v>446220</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E138" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G138" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H138" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I138" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J138" s="1">
         <v>0</v>
@@ -20265,7 +20280,7 @@
         <v>7</v>
       </c>
       <c r="N138" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O138" s="1">
         <v>0</v>
@@ -20295,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="X138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y138" s="1">
         <v>0</v>
@@ -20349,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="AP138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ138" s="1">
         <v>0</v>
@@ -20375,28 +20390,28 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C139" s="1">
         <v>3345</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E139" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F139" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G139" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H139" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="I139" s="1">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J139" s="1">
         <v>1</v>
@@ -20409,7 +20424,7 @@
         <v>7</v>
       </c>
       <c r="N139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O139" s="1">
         <v>0</v>
@@ -20519,25 +20534,25 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C140" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" t="s">
+        <v>92</v>
+      </c>
+      <c r="F140" t="s">
         <v>66</v>
       </c>
-      <c r="E140" t="s">
-        <v>88</v>
-      </c>
-      <c r="F140" t="s">
-        <v>64</v>
-      </c>
       <c r="G140" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H140" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I140" s="1">
         <v>1750</v>
@@ -20550,7 +20565,7 @@
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N140" s="1">
         <v>3</v>
@@ -20565,10 +20580,10 @@
         <v>0</v>
       </c>
       <c r="R140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" s="1">
         <v>0</v>
@@ -20646,7 +20661,7 @@
         <v>0</v>
       </c>
       <c r="AS140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -20663,25 +20678,25 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C141" s="1">
-        <v>156346345</v>
+        <v>3100</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E141" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F141" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G141" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H141" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I141" s="1">
         <v>1750</v>
@@ -20694,7 +20709,7 @@
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N141" s="1">
         <v>3</v>
@@ -20781,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AP141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ141" s="1">
         <v>0</v>
@@ -20790,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -20813,32 +20828,32 @@
         <v>5462328</v>
       </c>
       <c r="D142" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E142" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F142" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G142" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H142" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I142" s="1">
         <v>1750</v>
       </c>
       <c r="J142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N142" s="1">
         <v>3</v>
@@ -20951,38 +20966,38 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C143" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F143" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G143" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H143" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I143" s="1">
         <v>1750</v>
       </c>
       <c r="J143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N143" s="1">
         <v>3</v>
@@ -20991,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" s="1">
         <v>0</v>
@@ -21095,38 +21110,38 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C144" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D144" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E144" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G144" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H144" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I144" s="1">
         <v>1750</v>
       </c>
       <c r="J144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N144" s="1">
         <v>3</v>
@@ -21135,10 +21150,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144" s="1">
         <v>0</v>
@@ -21198,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="AK144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL144" s="1">
         <v>0</v>
@@ -21222,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="AS144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT144" s="1">
         <v>0</v>
@@ -21239,25 +21254,25 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C145" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D145" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E145" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F145" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G145" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H145" s="2">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="I145" s="1">
         <v>1750</v>
@@ -21270,7 +21285,7 @@
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N145" s="1">
         <v>3</v>
@@ -21342,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL145" s="1">
         <v>0</v>
@@ -21366,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="AS145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -21375,6 +21390,1158 @@
         <v>0</v>
       </c>
       <c r="AV145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D146" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" t="s">
+        <v>66</v>
+      </c>
+      <c r="G146" t="s">
+        <v>114</v>
+      </c>
+      <c r="H146" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1750</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1">
+        <v>7</v>
+      </c>
+      <c r="N146" s="1">
+        <v>3</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>0</v>
+      </c>
+      <c r="R146" s="1">
+        <v>0</v>
+      </c>
+      <c r="S146" s="1">
+        <v>0</v>
+      </c>
+      <c r="T146" s="1">
+        <v>0</v>
+      </c>
+      <c r="U146" s="1">
+        <v>0</v>
+      </c>
+      <c r="V146" s="1">
+        <v>0</v>
+      </c>
+      <c r="W146" s="1">
+        <v>0</v>
+      </c>
+      <c r="X146" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="1">
+        <v>5462507</v>
+      </c>
+      <c r="D147" t="s">
+        <v>81</v>
+      </c>
+      <c r="E147" t="s">
+        <v>104</v>
+      </c>
+      <c r="F147" t="s">
+        <v>112</v>
+      </c>
+      <c r="G147" t="s">
+        <v>114</v>
+      </c>
+      <c r="H147" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>1</v>
+      </c>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1">
+        <v>6</v>
+      </c>
+      <c r="N147" s="1">
+        <v>3</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>0</v>
+      </c>
+      <c r="R147" s="1">
+        <v>0</v>
+      </c>
+      <c r="S147" s="1">
+        <v>0</v>
+      </c>
+      <c r="T147" s="1">
+        <v>0</v>
+      </c>
+      <c r="U147" s="1">
+        <v>0</v>
+      </c>
+      <c r="V147" s="1">
+        <v>0</v>
+      </c>
+      <c r="W147" s="1">
+        <v>0</v>
+      </c>
+      <c r="X147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="1">
+        <v>165365057</v>
+      </c>
+      <c r="D148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" t="s">
+        <v>112</v>
+      </c>
+      <c r="G148" t="s">
+        <v>114</v>
+      </c>
+      <c r="H148" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>1</v>
+      </c>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1">
+        <v>6</v>
+      </c>
+      <c r="N148" s="1">
+        <v>3</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1">
+        <v>0</v>
+      </c>
+      <c r="T148" s="1">
+        <v>0</v>
+      </c>
+      <c r="U148" s="1">
+        <v>0</v>
+      </c>
+      <c r="V148" s="1">
+        <v>0</v>
+      </c>
+      <c r="W148" s="1">
+        <v>0</v>
+      </c>
+      <c r="X148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV148" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D149" t="s">
+        <v>70</v>
+      </c>
+      <c r="E149" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" t="s">
+        <v>66</v>
+      </c>
+      <c r="G149" t="s">
+        <v>114</v>
+      </c>
+      <c r="H149" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1">
+        <v>6</v>
+      </c>
+      <c r="N149" s="1">
+        <v>3</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>0</v>
+      </c>
+      <c r="R149" s="1">
+        <v>0</v>
+      </c>
+      <c r="S149" s="1">
+        <v>0</v>
+      </c>
+      <c r="T149" s="1">
+        <v>0</v>
+      </c>
+      <c r="U149" s="1">
+        <v>0</v>
+      </c>
+      <c r="V149" s="1">
+        <v>0</v>
+      </c>
+      <c r="W149" s="1">
+        <v>0</v>
+      </c>
+      <c r="X149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5462328</v>
+      </c>
+      <c r="D150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>97</v>
+      </c>
+      <c r="F150" t="s">
+        <v>66</v>
+      </c>
+      <c r="G150" t="s">
+        <v>114</v>
+      </c>
+      <c r="H150" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1">
+        <v>6</v>
+      </c>
+      <c r="N150" s="1">
+        <v>3</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>0</v>
+      </c>
+      <c r="R150" s="1">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1">
+        <v>0</v>
+      </c>
+      <c r="T150" s="1">
+        <v>0</v>
+      </c>
+      <c r="U150" s="1">
+        <v>0</v>
+      </c>
+      <c r="V150" s="1">
+        <v>0</v>
+      </c>
+      <c r="W150" s="1">
+        <v>0</v>
+      </c>
+      <c r="X150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="1">
+        <v>156346345</v>
+      </c>
+      <c r="D151" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" t="s">
+        <v>112</v>
+      </c>
+      <c r="G151" t="s">
+        <v>114</v>
+      </c>
+      <c r="H151" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1</v>
+      </c>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1">
+        <v>6</v>
+      </c>
+      <c r="N151" s="1">
+        <v>3</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>0</v>
+      </c>
+      <c r="R151" s="1">
+        <v>0</v>
+      </c>
+      <c r="S151" s="1">
+        <v>0</v>
+      </c>
+      <c r="T151" s="1">
+        <v>0</v>
+      </c>
+      <c r="U151" s="1">
+        <v>0</v>
+      </c>
+      <c r="V151" s="1">
+        <v>0</v>
+      </c>
+      <c r="W151" s="1">
+        <v>0</v>
+      </c>
+      <c r="X151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV151" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" t="s">
+        <v>66</v>
+      </c>
+      <c r="G152" t="s">
+        <v>114</v>
+      </c>
+      <c r="H152" s="2">
+        <v>45372</v>
+      </c>
+      <c r="I152" s="1">
+        <v>1751</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1">
+        <v>6</v>
+      </c>
+      <c r="N152" s="1">
+        <v>3</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+      <c r="P152" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>1</v>
+      </c>
+      <c r="R152" s="1">
+        <v>0</v>
+      </c>
+      <c r="S152" s="1">
+        <v>0</v>
+      </c>
+      <c r="T152" s="1">
+        <v>0</v>
+      </c>
+      <c r="U152" s="1">
+        <v>0</v>
+      </c>
+      <c r="V152" s="1">
+        <v>0</v>
+      </c>
+      <c r="W152" s="1">
+        <v>0</v>
+      </c>
+      <c r="X152" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" s="1">
+        <v>446220</v>
+      </c>
+      <c r="D153" t="s">
+        <v>71</v>
+      </c>
+      <c r="E153" t="s">
+        <v>94</v>
+      </c>
+      <c r="F153" t="s">
+        <v>66</v>
+      </c>
+      <c r="G153" t="s">
+        <v>114</v>
+      </c>
+      <c r="H153" s="2">
+        <v>45428</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1758</v>
+      </c>
+      <c r="J153" s="1">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>0</v>
+      </c>
+      <c r="R153" s="1">
+        <v>0</v>
+      </c>
+      <c r="S153" s="1">
+        <v>0</v>
+      </c>
+      <c r="T153" s="1">
+        <v>0</v>
+      </c>
+      <c r="U153" s="1">
+        <v>0</v>
+      </c>
+      <c r="V153" s="1">
+        <v>0</v>
+      </c>
+      <c r="W153" s="1">
+        <v>1</v>
+      </c>
+      <c r="X153" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV153" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -108,16 +108,13 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
@@ -126,7 +123,28 @@
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>cocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>p-fluoro phenethyl 4-ANPP</t>
@@ -135,28 +153,7 @@
     <t>gabapentin</t>
   </si>
   <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>caffeine</t>
   </si>
   <si>
     <t>despropionyl p-fluorofentanyl</t>
@@ -165,19 +162,19 @@
     <t>lidocaine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>N-desethyl etonitazene</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
   </si>
   <si>
     <t>benzocaine</t>
@@ -186,16 +183,19 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
     <t>pending nitazene</t>
   </si>
   <si>
     <t>ibuprofen</t>
   </si>
   <si>
-    <t>acetanilide</t>
+    <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
-    <t>2-Fluoro-2-oxo PCE</t>
+    <t>acetanilide</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -213,13 +213,13 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t>90736-23-5</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>7361-61-7</t>
@@ -231,25 +231,22 @@
     <t>50-36-2</t>
   </si>
   <si>
-    <t>60142-96-3</t>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
+    <t>60142-96-3</t>
   </si>
   <si>
     <t>122861-41-0</t>
@@ -258,13 +255,16 @@
     <t>137-58-6</t>
   </si>
   <si>
-    <t>2784-73-8</t>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>94-09-7</t>
@@ -300,25 +300,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
+    <t>6CW7F3G59X</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -327,13 +324,16 @@
     <t>98PI200987</t>
   </si>
   <si>
-    <t>M5E47P1ZCH</t>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>U3RSY48JW5</t>
@@ -694,7 +694,7 @@
         <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>114</v>
@@ -703,7 +703,7 @@
         <v>45415</v>
       </c>
       <c r="I2" s="1">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -829,16 +829,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>114</v>
@@ -847,7 +847,7 @@
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>114</v>
@@ -991,7 +991,7 @@
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>114</v>
@@ -1135,7 +1135,7 @@
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1258,19 +1258,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>114</v>
@@ -1279,7 +1279,7 @@
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1402,19 +1402,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
@@ -1423,7 +1423,7 @@
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1546,19 +1546,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
@@ -1567,7 +1567,7 @@
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1690,19 +1690,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
@@ -1711,7 +1711,7 @@
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -1855,7 +1855,7 @@
         <v>45310</v>
       </c>
       <c r="I10" s="1">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1978,19 +1978,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>114</v>
@@ -1999,7 +1999,7 @@
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2122,19 +2122,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -2143,7 +2143,7 @@
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2269,16 +2269,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>114</v>
@@ -2287,7 +2287,7 @@
         <v>45345</v>
       </c>
       <c r="I13" s="1">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
@@ -2422,7 +2422,7 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -2431,7 +2431,7 @@
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2554,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
@@ -2575,13 +2575,13 @@
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>5707</v>
@@ -2710,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>114</v>
@@ -2719,7 +2719,7 @@
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2842,19 +2842,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
         <v>114</v>
@@ -2863,13 +2863,13 @@
         <v>45310</v>
       </c>
       <c r="I17" s="1">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2989,16 +2989,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="1">
-        <v>165361568</v>
+        <v>66924</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>114</v>
@@ -3007,13 +3007,13 @@
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3130,19 +3130,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -3151,7 +3151,7 @@
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -3295,7 +3295,7 @@
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3418,16 +3418,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
-        <v>3446</v>
+        <v>6213</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>112</v>
@@ -3439,7 +3439,7 @@
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3562,16 +3562,14 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1">
-        <v>12562546</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
         <v>112</v>
@@ -3583,7 +3581,7 @@
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3656,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -3706,17 +3704,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3345</v>
+      </c>
       <c r="D23" t="s">
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
         <v>114</v>
@@ -3725,13 +3725,13 @@
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3848,19 +3848,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>114</v>
@@ -3869,13 +3869,13 @@
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3992,16 +3992,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>12562546</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -4013,7 +4013,7 @@
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="1">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4136,19 +4136,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>88890</v>
+        <v>165361568</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>114</v>
@@ -4157,13 +4157,13 @@
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -4280,19 +4280,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
         <v>114</v>
@@ -4301,13 +4301,13 @@
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4424,14 +4424,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1">
+        <v>156346345</v>
+      </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>112</v>
@@ -4443,7 +4445,7 @@
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4549,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1">
         <v>0</v>
@@ -4566,19 +4568,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>114</v>
@@ -4587,7 +4589,7 @@
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -4627,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4710,16 +4712,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
         <v>112</v>
@@ -4731,7 +4733,7 @@
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4759,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4857,16 +4859,16 @@
         <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>114</v>
@@ -4875,13 +4877,13 @@
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4957,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4981,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -4998,19 +5000,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>3446</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
         <v>114</v>
@@ -5019,13 +5021,13 @@
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5125,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5144,17 +5146,15 @@
       <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
         <v>114</v>
@@ -5163,13 +5163,13 @@
         <v>45316</v>
       </c>
       <c r="I33" s="1">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5286,19 +5286,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
         <v>114</v>
@@ -5307,7 +5307,7 @@
         <v>45420</v>
       </c>
       <c r="I34" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -5326,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5430,19 +5430,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>2519</v>
+        <v>66924</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>114</v>
@@ -5451,7 +5451,7 @@
         <v>45420</v>
       </c>
       <c r="I35" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5574,19 +5574,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -5595,7 +5595,7 @@
         <v>45420</v>
       </c>
       <c r="I36" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5614,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36" s="1">
         <v>0</v>
@@ -5718,19 +5718,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
         <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
@@ -5739,13 +5739,13 @@
         <v>45420</v>
       </c>
       <c r="I37" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5779,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>21812144</v>
+        <v>3676</v>
       </c>
       <c r="D38" t="s">
         <v>79</v>
@@ -5874,7 +5874,7 @@
         <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>114</v>
@@ -5883,7 +5883,7 @@
         <v>45420</v>
       </c>
       <c r="I38" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -6006,19 +6006,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>66924</v>
+        <v>62300</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
@@ -6027,13 +6027,13 @@
         <v>45420</v>
       </c>
       <c r="I39" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>3676</v>
+        <v>2519</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -6162,7 +6162,7 @@
         <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>114</v>
@@ -6171,7 +6171,7 @@
         <v>45420</v>
       </c>
       <c r="I40" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="1">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
@@ -6306,7 +6306,7 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
         <v>114</v>
@@ -6315,7 +6315,7 @@
         <v>45420</v>
       </c>
       <c r="I41" s="1">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6438,19 +6438,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -6459,13 +6459,13 @@
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6484,10 +6484,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="1">
         <v>0</v>
@@ -6582,19 +6582,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
         <v>114</v>
@@ -6603,7 +6603,7 @@
         <v>45310</v>
       </c>
       <c r="I43" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6726,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
         <v>114</v>
@@ -6747,13 +6747,13 @@
         <v>45310</v>
       </c>
       <c r="I44" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6870,7 +6870,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1">
         <v>88890</v>
@@ -6882,7 +6882,7 @@
         <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
         <v>114</v>
@@ -6891,7 +6891,7 @@
         <v>45310</v>
       </c>
       <c r="I45" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7014,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
-        <v>68602</v>
+        <v>5462507</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>114</v>
@@ -7035,13 +7035,13 @@
         <v>45310</v>
       </c>
       <c r="I46" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7158,19 +7158,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
         <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
         <v>114</v>
@@ -7179,7 +7179,7 @@
         <v>45310</v>
       </c>
       <c r="I47" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7302,19 +7302,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
         <v>114</v>
@@ -7323,13 +7323,13 @@
         <v>45310</v>
       </c>
       <c r="I48" s="1">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="1">
         <v>0</v>
@@ -7446,19 +7446,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -7467,7 +7467,7 @@
         <v>45420</v>
       </c>
       <c r="I49" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7590,19 +7590,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
         <v>114</v>
@@ -7611,7 +7611,7 @@
         <v>45420</v>
       </c>
       <c r="I50" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7734,19 +7734,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
         <v>114</v>
@@ -7755,7 +7755,7 @@
         <v>45420</v>
       </c>
       <c r="I51" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7795,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7878,19 +7878,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G52" t="s">
         <v>114</v>
@@ -7899,13 +7899,13 @@
         <v>45420</v>
       </c>
       <c r="I52" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7918,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -8022,19 +8022,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
-        <v>5707</v>
+        <v>6213</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
         <v>114</v>
@@ -8043,13 +8043,13 @@
         <v>45420</v>
       </c>
       <c r="I53" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8068,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8166,19 +8166,19 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
         <v>114</v>
@@ -8187,7 +8187,7 @@
         <v>45420</v>
       </c>
       <c r="I54" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54" s="1">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8310,19 +8310,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1">
-        <v>165365057</v>
+        <v>3676</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -8331,13 +8331,13 @@
         <v>45420</v>
       </c>
       <c r="I55" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8454,19 +8454,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
         <v>114</v>
@@ -8475,13 +8475,13 @@
         <v>45420</v>
       </c>
       <c r="I56" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8598,19 +8598,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G57" t="s">
         <v>114</v>
@@ -8619,7 +8619,7 @@
         <v>45420</v>
       </c>
       <c r="I57" s="1">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="1">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1">
         <v>88890</v>
@@ -8754,7 +8754,7 @@
         <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
         <v>114</v>
@@ -8763,7 +8763,7 @@
         <v>45310</v>
       </c>
       <c r="I58" s="1">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8886,19 +8886,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
         <v>114</v>
@@ -8907,7 +8907,7 @@
         <v>45310</v>
       </c>
       <c r="I59" s="1">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -9030,19 +9030,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
         <v>114</v>
@@ -9051,7 +9051,7 @@
         <v>45310</v>
       </c>
       <c r="I60" s="1">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9070,16 +9070,16 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9174,16 +9174,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
         <v>112</v>
@@ -9195,7 +9195,7 @@
         <v>45419</v>
       </c>
       <c r="I61" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
         <v>90</v>
@@ -9339,7 +9339,7 @@
         <v>45419</v>
       </c>
       <c r="I62" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -9462,19 +9462,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>114</v>
@@ -9483,13 +9483,13 @@
         <v>45419</v>
       </c>
       <c r="I63" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9508,10 +9508,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
@@ -9606,19 +9606,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
         <v>114</v>
@@ -9627,13 +9627,13 @@
         <v>45419</v>
       </c>
       <c r="I64" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9750,19 +9750,17 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3100</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
         <v>114</v>
@@ -9771,13 +9769,13 @@
         <v>45419</v>
       </c>
       <c r="I65" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9850,10 +9848,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9868,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9894,17 +9892,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10836</v>
+      </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>114</v>
@@ -9913,13 +9913,13 @@
         <v>45419</v>
       </c>
       <c r="I66" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
         <v>112</v>
@@ -10057,7 +10057,7 @@
         <v>45419</v>
       </c>
       <c r="I67" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10180,16 +10180,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
         <v>6213</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
         <v>112</v>
@@ -10201,7 +10201,7 @@
         <v>45419</v>
       </c>
       <c r="I68" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10324,19 +10324,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G69" t="s">
         <v>114</v>
@@ -10345,13 +10345,13 @@
         <v>45420</v>
       </c>
       <c r="I69" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="1">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10468,19 +10468,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
         <v>114</v>
@@ -10489,13 +10489,13 @@
         <v>45420</v>
       </c>
       <c r="I70" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10612,19 +10612,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C71" s="1">
-        <v>62300</v>
+        <v>3676</v>
       </c>
       <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" t="s">
         <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" t="s">
-        <v>112</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -10633,13 +10633,13 @@
         <v>45420</v>
       </c>
       <c r="I71" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10756,19 +10756,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
         <v>114</v>
@@ -10777,7 +10777,7 @@
         <v>45420</v>
       </c>
       <c r="I72" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -10796,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="P72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="1">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10900,16 +10900,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
         <v>112</v>
@@ -10921,7 +10921,7 @@
         <v>45420</v>
       </c>
       <c r="I73" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -10949,10 +10949,10 @@
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -11047,16 +11047,16 @@
         <v>35</v>
       </c>
       <c r="C74" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
         <v>114</v>
@@ -11065,13 +11065,13 @@
         <v>45420</v>
       </c>
       <c r="I74" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11093,10 +11093,10 @@
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="1">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="1">
-        <v>3676</v>
+        <v>2519</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -11200,7 +11200,7 @@
         <v>103</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G75" t="s">
         <v>114</v>
@@ -11209,7 +11209,7 @@
         <v>45420</v>
       </c>
       <c r="I75" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75" s="1">
         <v>0</v>
@@ -11332,16 +11332,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
         <v>112</v>
@@ -11353,7 +11353,7 @@
         <v>45420</v>
       </c>
       <c r="I76" s="1">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11476,19 +11476,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G77" t="s">
         <v>114</v>
@@ -11497,7 +11497,7 @@
         <v>45420</v>
       </c>
       <c r="I77" s="1">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11516,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11531,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11620,19 +11620,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G78" t="s">
         <v>114</v>
@@ -11641,7 +11641,7 @@
         <v>45420</v>
       </c>
       <c r="I78" s="1">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="1">
         <v>88890</v>
@@ -11776,7 +11776,7 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G79" t="s">
         <v>114</v>
@@ -11785,7 +11785,7 @@
         <v>45420</v>
       </c>
       <c r="I79" s="1">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -11908,19 +11908,19 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G80" t="s">
         <v>114</v>
@@ -11929,7 +11929,7 @@
         <v>45420</v>
       </c>
       <c r="I80" s="1">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -11954,19 +11954,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -12052,19 +12052,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G81" t="s">
         <v>114</v>
@@ -12073,13 +12073,13 @@
         <v>45336</v>
       </c>
       <c r="I81" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -12092,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -12196,7 +12196,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1">
         <v>88890</v>
@@ -12208,7 +12208,7 @@
         <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G82" t="s">
         <v>114</v>
@@ -12217,7 +12217,7 @@
         <v>45336</v>
       </c>
       <c r="I82" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -12340,19 +12340,19 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
         <v>114</v>
@@ -12361,7 +12361,7 @@
         <v>45336</v>
       </c>
       <c r="I83" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AT83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="1">
         <v>0</v>
@@ -12484,19 +12484,19 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C84" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G84" t="s">
         <v>114</v>
@@ -12505,13 +12505,13 @@
         <v>45336</v>
       </c>
       <c r="I84" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -12524,10 +12524,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -12628,19 +12628,19 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C85" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" t="s">
         <v>68</v>
-      </c>
-      <c r="E85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" t="s">
-        <v>66</v>
       </c>
       <c r="G85" t="s">
         <v>114</v>
@@ -12649,7 +12649,7 @@
         <v>45336</v>
       </c>
       <c r="I85" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -12758,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="AT85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU85" s="1">
         <v>0</v>
@@ -12772,19 +12772,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C86" s="1">
-        <v>5707</v>
+        <v>2337</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G86" t="s">
         <v>114</v>
@@ -12793,13 +12793,13 @@
         <v>45420</v>
       </c>
       <c r="I86" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -12818,10 +12818,10 @@
         <v>0</v>
       </c>
       <c r="R86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="1">
         <v>0</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AP86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ86" s="1">
         <v>0</v>
@@ -12916,19 +12916,19 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C87" s="1">
-        <v>88890</v>
+        <v>165361568</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G87" t="s">
         <v>114</v>
@@ -12937,13 +12937,13 @@
         <v>45420</v>
       </c>
       <c r="I87" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="AT87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87" s="1">
         <v>0</v>
@@ -13060,17 +13060,19 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C88" s="1">
+        <v>88890</v>
+      </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G88" t="s">
         <v>114</v>
@@ -13079,13 +13081,13 @@
         <v>45420</v>
       </c>
       <c r="I88" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -13158,10 +13160,10 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13185,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT88" s="1">
         <v>0</v>
@@ -13202,19 +13204,19 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C89" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
         <v>114</v>
@@ -13223,7 +13225,7 @@
         <v>45420</v>
       </c>
       <c r="I89" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -13242,10 +13244,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -13305,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13346,19 +13348,19 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1">
-        <v>21812144</v>
+        <v>1983</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
         <v>114</v>
@@ -13367,13 +13369,13 @@
         <v>45420</v>
       </c>
       <c r="I90" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -13449,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13476,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="AT90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU90" s="1">
         <v>0</v>
@@ -13490,19 +13492,19 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1">
-        <v>66924</v>
+        <v>62300</v>
       </c>
       <c r="D91" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
         <v>114</v>
@@ -13511,13 +13513,13 @@
         <v>45420</v>
       </c>
       <c r="I91" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -13593,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="AK91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -13634,19 +13636,19 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C92" s="1">
-        <v>165361568</v>
+        <v>3345</v>
       </c>
       <c r="D92" t="s">
         <v>66</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G92" t="s">
         <v>114</v>
@@ -13655,13 +13657,13 @@
         <v>45420</v>
       </c>
       <c r="I92" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
@@ -13674,10 +13676,10 @@
         <v>0</v>
       </c>
       <c r="P92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92" s="1">
         <v>0</v>
@@ -13737,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -13761,10 +13763,10 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU92" s="1">
         <v>0</v>
@@ -13778,19 +13780,19 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E93" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G93" t="s">
         <v>114</v>
@@ -13799,13 +13801,13 @@
         <v>45420</v>
       </c>
       <c r="I93" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -13833,10 +13835,10 @@
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93" s="1">
         <v>0</v>
@@ -13905,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT93" s="1">
         <v>0</v>
@@ -13922,19 +13924,19 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
-        <v>2337</v>
+        <v>10836</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
         <v>114</v>
@@ -13943,13 +13945,13 @@
         <v>45420</v>
       </c>
       <c r="I94" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -13977,10 +13979,10 @@
         <v>0</v>
       </c>
       <c r="U94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" s="1">
         <v>0</v>
@@ -14040,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="AP94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ94" s="1">
         <v>0</v>
@@ -14066,16 +14068,14 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="1">
-        <v>165365057</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C95" s="1"/>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
         <v>112</v>
@@ -14087,7 +14087,7 @@
         <v>45420</v>
       </c>
       <c r="I95" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -14166,10 +14166,10 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95" s="1">
         <v>0</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="AS95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT95" s="1">
         <v>0</v>
@@ -14210,19 +14210,19 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C96" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
         <v>114</v>
@@ -14231,13 +14231,13 @@
         <v>45420</v>
       </c>
       <c r="I96" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -14256,10 +14256,10 @@
         <v>0</v>
       </c>
       <c r="R96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" s="1">
         <v>0</v>
@@ -14354,19 +14354,19 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C97" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" t="s">
         <v>68</v>
-      </c>
-      <c r="E97" t="s">
-        <v>91</v>
-      </c>
-      <c r="F97" t="s">
-        <v>112</v>
       </c>
       <c r="G97" t="s">
         <v>114</v>
@@ -14375,13 +14375,13 @@
         <v>45420</v>
       </c>
       <c r="I97" s="1">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="AT97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU97" s="1">
         <v>0</v>
@@ -14510,7 +14510,7 @@
         <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
         <v>114</v>
@@ -14519,7 +14519,7 @@
         <v>45309</v>
       </c>
       <c r="I98" s="1">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -14642,19 +14642,19 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C99" s="1">
         <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
         <v>114</v>
@@ -14663,7 +14663,7 @@
         <v>45309</v>
       </c>
       <c r="I99" s="1">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -14786,19 +14786,19 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G100" t="s">
         <v>114</v>
@@ -14807,7 +14807,7 @@
         <v>45310</v>
       </c>
       <c r="I100" s="1">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -14826,10 +14826,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -14930,19 +14930,19 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
         <v>114</v>
@@ -14951,7 +14951,7 @@
         <v>45310</v>
       </c>
       <c r="I101" s="1">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -14970,10 +14970,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="AK101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL101" s="1">
         <v>0</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="AS101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT101" s="1">
         <v>0</v>
@@ -15074,7 +15074,7 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="1">
         <v>5707</v>
@@ -15086,7 +15086,7 @@
         <v>92</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G102" t="s">
         <v>114</v>
@@ -15095,7 +15095,7 @@
         <v>45310</v>
       </c>
       <c r="I102" s="1">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -15230,7 +15230,7 @@
         <v>94</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
         <v>114</v>
@@ -15239,7 +15239,7 @@
         <v>45369</v>
       </c>
       <c r="I103" s="1">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -15374,7 +15374,7 @@
         <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
         <v>114</v>
@@ -15383,7 +15383,7 @@
         <v>45310</v>
       </c>
       <c r="I104" s="1">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -15518,7 +15518,7 @@
         <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
         <v>114</v>
@@ -15527,7 +15527,7 @@
         <v>45371</v>
       </c>
       <c r="I105" s="1">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -15650,19 +15650,17 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2519</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C106" s="1"/>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>114</v>
@@ -15671,13 +15669,13 @@
         <v>45420</v>
       </c>
       <c r="I106" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -15717,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z106" s="1">
         <v>0</v>
@@ -15750,10 +15748,10 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
         <v>0</v>
@@ -15768,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="AP106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ106" s="1">
         <v>0</v>
@@ -15794,17 +15792,19 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C107" s="1">
+        <v>446220</v>
+      </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
         <v>114</v>
@@ -15813,13 +15813,13 @@
         <v>45420</v>
       </c>
       <c r="I107" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -15853,10 +15853,10 @@
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y107" s="1">
         <v>0</v>
@@ -15892,10 +15892,10 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -15936,19 +15936,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>114</v>
@@ -15957,13 +15957,13 @@
         <v>45420</v>
       </c>
       <c r="I108" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="AS108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT108" s="1">
         <v>0</v>
@@ -16080,16 +16080,14 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="1">
-        <v>6213</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C109" s="1"/>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
         <v>112</v>
@@ -16101,7 +16099,7 @@
         <v>45420</v>
       </c>
       <c r="I109" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
@@ -16180,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -16224,19 +16222,19 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C110" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -16245,7 +16243,7 @@
         <v>45420</v>
       </c>
       <c r="I110" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -16285,13 +16283,13 @@
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -16342,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="AP110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ110" s="1">
         <v>0</v>
@@ -16368,19 +16366,19 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
         <v>114</v>
@@ -16389,7 +16387,7 @@
         <v>45420</v>
       </c>
       <c r="I111" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -16414,10 +16412,10 @@
         <v>0</v>
       </c>
       <c r="R111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" s="1">
         <v>0</v>
@@ -16495,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16512,17 +16510,19 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C112" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G112" t="s">
         <v>114</v>
@@ -16531,13 +16531,13 @@
         <v>45420</v>
       </c>
       <c r="I112" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
@@ -16610,10 +16610,10 @@
         <v>0</v>
       </c>
       <c r="AJ112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -16654,19 +16654,19 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C113" s="1">
         <v>3345</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
         <v>90</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
         <v>114</v>
@@ -16675,7 +16675,7 @@
         <v>45420</v>
       </c>
       <c r="I113" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -16801,16 +16801,16 @@
         <v>35</v>
       </c>
       <c r="C114" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
         <v>114</v>
@@ -16819,7 +16819,7 @@
         <v>45420</v>
       </c>
       <c r="I114" s="1">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J114" s="1">
         <v>1</v>
@@ -16844,10 +16844,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="AS114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>89</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
         <v>114</v>
@@ -16963,7 +16963,7 @@
         <v>45372</v>
       </c>
       <c r="I115" s="1">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -17086,19 +17086,19 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C116" s="1">
-        <v>156346345</v>
+        <v>3676</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G116" t="s">
         <v>114</v>
@@ -17107,7 +17107,7 @@
         <v>45428</v>
       </c>
       <c r="I116" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="AP116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ116" s="1">
         <v>0</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17230,19 +17230,19 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E117" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
         <v>114</v>
@@ -17251,7 +17251,7 @@
         <v>45428</v>
       </c>
       <c r="I117" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J117" s="1">
         <v>1</v>
@@ -17270,10 +17270,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R117" s="1">
         <v>0</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="AK117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117" s="1">
         <v>0</v>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -17374,19 +17374,19 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C118" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
         <v>114</v>
@@ -17395,7 +17395,7 @@
         <v>45428</v>
       </c>
       <c r="I118" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J118" s="1">
         <v>1</v>
@@ -17420,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="R118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" s="1">
         <v>0</v>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ118" s="1">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>109</v>
       </c>
       <c r="F119" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
         <v>114</v>
@@ -17539,7 +17539,7 @@
         <v>45428</v>
       </c>
       <c r="I119" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J119" s="1">
         <v>1</v>
@@ -17662,19 +17662,19 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C120" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G120" t="s">
         <v>114</v>
@@ -17683,7 +17683,7 @@
         <v>45428</v>
       </c>
       <c r="I120" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J120" s="1">
         <v>1</v>
@@ -17702,10 +17702,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" s="1">
         <v>0</v>
@@ -17765,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="AK120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL120" s="1">
         <v>0</v>
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -17806,19 +17806,19 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C121" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G121" t="s">
         <v>114</v>
@@ -17827,13 +17827,13 @@
         <v>45428</v>
       </c>
       <c r="I121" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
@@ -17950,19 +17950,19 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C122" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G122" t="s">
         <v>114</v>
@@ -17971,13 +17971,13 @@
         <v>45428</v>
       </c>
       <c r="I122" s="1">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
@@ -17996,10 +17996,10 @@
         <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T122" s="1">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -18094,16 +18094,14 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="1">
-        <v>6213</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C123" s="1"/>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F123" t="s">
         <v>112</v>
@@ -18115,7 +18113,7 @@
         <v>45418</v>
       </c>
       <c r="I123" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J123" s="1">
         <v>0</v>
@@ -18238,19 +18236,19 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C124" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
         <v>114</v>
@@ -18259,7 +18257,7 @@
         <v>45418</v>
       </c>
       <c r="I124" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -18299,10 +18297,10 @@
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="1">
         <v>0</v>
@@ -18365,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="AS124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT124" s="1">
         <v>0</v>
@@ -18382,16 +18380,14 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="1">
-        <v>165365057</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C125" s="1"/>
       <c r="D125" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E125" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F125" t="s">
         <v>112</v>
@@ -18403,7 +18399,7 @@
         <v>45418</v>
       </c>
       <c r="I125" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J125" s="1">
         <v>0</v>
@@ -18509,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="AS125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT125" s="1">
         <v>0</v>
@@ -18526,19 +18522,19 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C126" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E126" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G126" t="s">
         <v>114</v>
@@ -18547,13 +18543,13 @@
         <v>45418</v>
       </c>
       <c r="I126" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
@@ -18566,10 +18562,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R126" s="1">
         <v>0</v>
@@ -18629,7 +18625,7 @@
         <v>0</v>
       </c>
       <c r="AK126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL126" s="1">
         <v>0</v>
@@ -18653,7 +18649,7 @@
         <v>0</v>
       </c>
       <c r="AS126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT126" s="1">
         <v>0</v>
@@ -18670,19 +18666,19 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C127" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E127" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
         <v>114</v>
@@ -18691,7 +18687,7 @@
         <v>45418</v>
       </c>
       <c r="I127" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J127" s="1">
         <v>1</v>
@@ -18731,13 +18727,13 @@
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z127" s="1">
         <v>0</v>
@@ -18788,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="AP127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ127" s="1">
         <v>0</v>
@@ -18814,14 +18810,16 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C128" s="1">
+        <v>6213</v>
+      </c>
       <c r="D128" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F128" t="s">
         <v>112</v>
@@ -18833,7 +18831,7 @@
         <v>45418</v>
       </c>
       <c r="I128" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J128" s="1">
         <v>0</v>
@@ -18956,17 +18954,19 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5707</v>
+      </c>
       <c r="D129" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
         <v>114</v>
@@ -18975,13 +18975,13 @@
         <v>45418</v>
       </c>
       <c r="I129" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19000,10 +19000,10 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" s="1">
         <v>0</v>
@@ -19098,19 +19098,19 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C130" s="1">
-        <v>12107</v>
+        <v>2519</v>
       </c>
       <c r="D130" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F130" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
         <v>114</v>
@@ -19119,13 +19119,13 @@
         <v>45418</v>
       </c>
       <c r="I130" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="Y130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z130" s="1">
         <v>0</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="AP130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ130" s="1">
         <v>0</v>
@@ -19225,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="AS130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT130" s="1">
         <v>0</v>
@@ -19242,19 +19242,19 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C131" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E131" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G131" t="s">
         <v>114</v>
@@ -19263,7 +19263,7 @@
         <v>45418</v>
       </c>
       <c r="I131" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J131" s="1">
         <v>1</v>
@@ -19282,16 +19282,16 @@
         <v>0</v>
       </c>
       <c r="P131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -19345,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="AK131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL131" s="1">
         <v>0</v>
@@ -19386,19 +19386,19 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C132" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E132" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F132" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>114</v>
@@ -19407,13 +19407,13 @@
         <v>45418</v>
       </c>
       <c r="I132" s="1">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
@@ -19533,16 +19533,16 @@
         <v>31</v>
       </c>
       <c r="C133" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D133" t="s">
         <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F133" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G133" t="s">
         <v>114</v>
@@ -19551,13 +19551,13 @@
         <v>45422</v>
       </c>
       <c r="I133" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
@@ -19570,10 +19570,10 @@
         <v>0</v>
       </c>
       <c r="P133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" s="1">
         <v>0</v>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="AS133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT133" s="1">
         <v>0</v>
@@ -19674,19 +19674,19 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C134" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E134" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F134" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G134" t="s">
         <v>114</v>
@@ -19695,13 +19695,13 @@
         <v>45422</v>
       </c>
       <c r="I134" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
@@ -19720,10 +19720,10 @@
         <v>0</v>
       </c>
       <c r="R134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T134" s="1">
         <v>0</v>
@@ -19801,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -19818,17 +19818,19 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C135" s="1">
+        <v>88890</v>
+      </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F135" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G135" t="s">
         <v>114</v>
@@ -19837,13 +19839,13 @@
         <v>45422</v>
       </c>
       <c r="I135" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -19943,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -19960,17 +19962,19 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5707</v>
+      </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G136" t="s">
         <v>114</v>
@@ -19979,7 +19983,7 @@
         <v>45422</v>
       </c>
       <c r="I136" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -20004,10 +20008,10 @@
         <v>0</v>
       </c>
       <c r="R136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136" s="1">
         <v>0</v>
@@ -20102,19 +20106,17 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="1">
-        <v>88890</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C137" s="1"/>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E137" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G137" t="s">
         <v>114</v>
@@ -20123,13 +20125,13 @@
         <v>45422</v>
       </c>
       <c r="I137" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20229,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -20246,19 +20248,17 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="1">
-        <v>446220</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C138" s="1"/>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F138" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G138" t="s">
         <v>114</v>
@@ -20267,13 +20267,13 @@
         <v>45422</v>
       </c>
       <c r="I138" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="X138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y138" s="1">
         <v>0</v>
@@ -20390,19 +20390,19 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C139" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E139" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G139" t="s">
         <v>114</v>
@@ -20411,13 +20411,13 @@
         <v>45422</v>
       </c>
       <c r="I139" s="1">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
@@ -20430,10 +20430,10 @@
         <v>0</v>
       </c>
       <c r="P139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139" s="1">
         <v>0</v>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="X139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y139" s="1">
         <v>0</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="AK139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL139" s="1">
         <v>0</v>
@@ -20534,19 +20534,19 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C140" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
         <v>114</v>
@@ -20555,7 +20555,7 @@
         <v>45420</v>
       </c>
       <c r="I140" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -20574,16 +20574,16 @@
         <v>0</v>
       </c>
       <c r="P140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140" s="1">
         <v>0</v>
@@ -20637,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -20678,19 +20678,19 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C141" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D141" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G141" t="s">
         <v>114</v>
@@ -20699,13 +20699,13 @@
         <v>45420</v>
       </c>
       <c r="I141" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
@@ -20724,10 +20724,10 @@
         <v>0</v>
       </c>
       <c r="R141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" s="1">
         <v>0</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AP141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ141" s="1">
         <v>0</v>
@@ -20822,16 +20822,16 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C142" s="1">
-        <v>5462328</v>
+        <v>3100</v>
       </c>
       <c r="D142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F142" t="s">
         <v>112</v>
@@ -20843,7 +20843,7 @@
         <v>45420</v>
       </c>
       <c r="I142" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J142" s="1">
         <v>0</v>
@@ -20925,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="AK142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL142" s="1">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="AP142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ142" s="1">
         <v>0</v>
@@ -20966,19 +20966,19 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C143" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D143" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
         <v>114</v>
@@ -20987,7 +20987,7 @@
         <v>45420</v>
       </c>
       <c r="I143" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J143" s="1">
         <v>1</v>
@@ -21006,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" s="1">
         <v>0</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="AK143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL143" s="1">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="AS143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -21110,16 +21110,16 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C144" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F144" t="s">
         <v>112</v>
@@ -21131,7 +21131,7 @@
         <v>45420</v>
       </c>
       <c r="I144" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="AK144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL144" s="1">
         <v>0</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="AS144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT144" s="1">
         <v>0</v>
@@ -21257,13 +21257,13 @@
         <v>33</v>
       </c>
       <c r="C145" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D145" t="s">
         <v>68</v>
       </c>
       <c r="E145" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F145" t="s">
         <v>112</v>
@@ -21275,7 +21275,7 @@
         <v>45420</v>
       </c>
       <c r="I145" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145" s="1">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="AS145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -21398,19 +21398,19 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C146" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E146" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F146" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G146" t="s">
         <v>114</v>
@@ -21419,13 +21419,13 @@
         <v>45420</v>
       </c>
       <c r="I146" s="1">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="AK146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL146" s="1">
         <v>0</v>
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="AS146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -21542,19 +21542,19 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C147" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D147" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F147" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G147" t="s">
         <v>114</v>
@@ -21563,13 +21563,13 @@
         <v>45372</v>
       </c>
       <c r="I147" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AK147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL147" s="1">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="AS147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -21686,16 +21686,16 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C148" s="1">
         <v>165365057</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E148" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F148" t="s">
         <v>112</v>
@@ -21707,7 +21707,7 @@
         <v>45372</v>
       </c>
       <c r="I148" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J148" s="1">
         <v>0</v>
@@ -21830,19 +21830,19 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C149" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F149" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G149" t="s">
         <v>114</v>
@@ -21851,7 +21851,7 @@
         <v>45372</v>
       </c>
       <c r="I149" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -21870,10 +21870,10 @@
         <v>0</v>
       </c>
       <c r="P149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" s="1">
         <v>0</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="AK149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL149" s="1">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="AS149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -21974,19 +21974,19 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C150" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F150" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G150" t="s">
         <v>114</v>
@@ -21995,13 +21995,13 @@
         <v>45372</v>
       </c>
       <c r="I150" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
@@ -22118,16 +22118,16 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C151" s="1">
         <v>156346345</v>
       </c>
       <c r="D151" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E151" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F151" t="s">
         <v>112</v>
@@ -22139,7 +22139,7 @@
         <v>45372</v>
       </c>
       <c r="I151" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -22262,19 +22262,19 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C152" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E152" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F152" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G152" t="s">
         <v>114</v>
@@ -22283,7 +22283,7 @@
         <v>45372</v>
       </c>
       <c r="I152" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J152" s="1">
         <v>1</v>
@@ -22302,10 +22302,10 @@
         <v>0</v>
       </c>
       <c r="P152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R152" s="1">
         <v>0</v>
@@ -22418,7 +22418,7 @@
         <v>94</v>
       </c>
       <c r="F153" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G153" t="s">
         <v>114</v>
@@ -22427,7 +22427,7 @@
         <v>45428</v>
       </c>
       <c r="I153" s="1">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J153" s="1">
         <v>1</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -108,13 +108,16 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
@@ -123,16 +126,16 @@
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>p-fluoro phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>heroin</t>
@@ -141,16 +144,13 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
+    <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>gabapentin</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
   </si>
   <si>
     <t>2-fluoro deschloroketamine</t>
@@ -159,10 +159,10 @@
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>caffeine</t>
   </si>
   <si>
-    <t>caffeine</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
@@ -177,13 +177,13 @@
     <t>N-desethyl etonitazene</t>
   </si>
   <si>
+    <t>N-pyrrolidino-etonitazene</t>
+  </si>
+  <si>
     <t>benzocaine</t>
   </si>
   <si>
     <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>N-pyrrolidino-etonitazene</t>
   </si>
   <si>
     <t>pending nitazene</t>
@@ -192,13 +192,13 @@
     <t>ibuprofen</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
     <t>acetanilide</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>etaqualone</t>
@@ -213,10 +213,10 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>90736-23-5</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>437-38-7</t>
   </si>
   <si>
     <t/>
@@ -231,10 +231,7 @@
     <t>50-36-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>58-73-1</t>
+    <t>71368-80-4</t>
   </si>
   <si>
     <t>561-27-3</t>
@@ -243,19 +240,22 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>105-70-4</t>
   </si>
   <si>
     <t>60142-96-3</t>
   </si>
   <si>
+    <t>58-73-1</t>
+  </si>
+  <si>
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>58-08-2</t>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>6703-27-1</t>
@@ -285,10 +285,10 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
@@ -300,10 +300,7 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>8GTS82S83M</t>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t>70D95007SX</t>
@@ -312,19 +309,22 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
+    <t>8GTS82S83M</t>
+  </si>
+  <si>
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>U59401ETXH</t>
@@ -703,7 +703,7 @@
         <v>45415</v>
       </c>
       <c r="I2" s="1">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
@@ -847,7 +847,7 @@
         <v>45310</v>
       </c>
       <c r="I3" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -991,7 +991,7 @@
         <v>45310</v>
       </c>
       <c r="I4" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>45310</v>
       </c>
       <c r="I5" s="1">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1258,16 +1258,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -1279,7 +1279,7 @@
         <v>45310</v>
       </c>
       <c r="I6" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1402,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
@@ -1423,7 +1423,7 @@
         <v>45310</v>
       </c>
       <c r="I7" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1546,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1567,7 +1567,7 @@
         <v>45310</v>
       </c>
       <c r="I8" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -1711,7 +1711,7 @@
         <v>45310</v>
       </c>
       <c r="I9" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1834,16 +1834,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1855,7 +1855,7 @@
         <v>45310</v>
       </c>
       <c r="I10" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1978,16 +1978,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1999,7 +1999,7 @@
         <v>45345</v>
       </c>
       <c r="I11" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2143,7 +2143,7 @@
         <v>45345</v>
       </c>
       <c r="I12" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
@@ -2287,7 +2287,7 @@
         <v>45345</v>
       </c>
       <c r="I13" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
@@ -2431,7 +2431,7 @@
         <v>45310</v>
       </c>
       <c r="I14" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2554,16 +2554,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
@@ -2575,7 +2575,7 @@
         <v>45310</v>
       </c>
       <c r="I15" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>5707</v>
@@ -2719,7 +2719,7 @@
         <v>45310</v>
       </c>
       <c r="I16" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>45310</v>
       </c>
       <c r="I17" s="1">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2989,16 +2989,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="1">
-        <v>66924</v>
+        <v>165361568</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
         <v>114</v>
@@ -3007,13 +3007,13 @@
         <v>45316</v>
       </c>
       <c r="I18" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3132,17 +3132,15 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1">
-        <v>3100</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -3151,13 +3149,13 @@
         <v>45316</v>
       </c>
       <c r="I19" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3248,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3274,19 +3272,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
         <v>114</v>
@@ -3295,13 +3293,13 @@
         <v>45316</v>
       </c>
       <c r="I20" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3335,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3377,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3418,16 +3416,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>6213</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>112</v>
@@ -3439,7 +3437,7 @@
         <v>45316</v>
       </c>
       <c r="I21" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3545,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3562,14 +3560,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
         <v>112</v>
@@ -3581,7 +3581,7 @@
         <v>45316</v>
       </c>
       <c r="I22" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -3704,19 +3704,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
         <v>114</v>
@@ -3725,13 +3725,13 @@
         <v>45316</v>
       </c>
       <c r="I23" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3848,19 +3848,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>114</v>
@@ -3869,13 +3869,13 @@
         <v>45316</v>
       </c>
       <c r="I24" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -3995,16 +3995,16 @@
         <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>12562546</v>
+        <v>66924</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>114</v>
@@ -4013,13 +4013,13 @@
         <v>45316</v>
       </c>
       <c r="I25" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>165361568</v>
+        <v>165365057</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -4148,7 +4148,7 @@
         <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
         <v>114</v>
@@ -4157,13 +4157,13 @@
         <v>45316</v>
       </c>
       <c r="I26" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -4280,16 +4280,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>112</v>
@@ -4301,7 +4301,7 @@
         <v>45316</v>
       </c>
       <c r="I27" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4424,16 +4424,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
-        <v>156346345</v>
+        <v>3446</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
         <v>112</v>
@@ -4445,7 +4445,7 @@
         <v>45316</v>
       </c>
       <c r="I28" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="1">
         <v>0</v>
@@ -4568,19 +4568,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
         <v>114</v>
@@ -4589,13 +4589,13 @@
         <v>45316</v>
       </c>
       <c r="I29" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4712,19 +4712,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>114</v>
@@ -4733,13 +4733,13 @@
         <v>45316</v>
       </c>
       <c r="I30" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4856,16 +4856,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
@@ -4877,7 +4877,7 @@
         <v>45316</v>
       </c>
       <c r="I31" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -5000,16 +5000,14 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3446</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>112</v>
@@ -5021,7 +5019,7 @@
         <v>45316</v>
       </c>
       <c r="I32" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5144,17 +5142,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>88890</v>
+      </c>
       <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
         <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
       </c>
       <c r="G33" t="s">
         <v>114</v>
@@ -5163,13 +5163,13 @@
         <v>45316</v>
       </c>
       <c r="I33" s="1">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
         <v>68</v>
@@ -5307,7 +5307,7 @@
         <v>45420</v>
       </c>
       <c r="I34" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -5326,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" s="1">
         <v>0</v>
@@ -5430,16 +5430,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
@@ -5451,7 +5451,7 @@
         <v>45420</v>
       </c>
       <c r="I35" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5574,16 +5574,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>21812144</v>
+        <v>2519</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
         <v>68</v>
@@ -5595,7 +5595,7 @@
         <v>45420</v>
       </c>
       <c r="I36" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="1">
         <v>0</v>
@@ -5718,16 +5718,16 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>68</v>
@@ -5739,7 +5739,7 @@
         <v>45420</v>
       </c>
       <c r="I37" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5779,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5862,16 +5862,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>3676</v>
+        <v>66924</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
         <v>68</v>
@@ -5883,7 +5883,7 @@
         <v>45420</v>
       </c>
       <c r="I38" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -6006,19 +6006,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
-        <v>62300</v>
+        <v>3676</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
@@ -6027,13 +6027,13 @@
         <v>45420</v>
       </c>
       <c r="I39" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6150,19 +6150,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
         <v>114</v>
@@ -6171,13 +6171,13 @@
         <v>45420</v>
       </c>
       <c r="I40" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="1">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6294,16 +6294,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
         <v>68</v>
@@ -6315,7 +6315,7 @@
         <v>45420</v>
       </c>
       <c r="I41" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6438,19 +6438,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -6459,13 +6459,13 @@
         <v>45310</v>
       </c>
       <c r="I42" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6559,13 +6559,13 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="1">
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6582,16 +6582,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>68</v>
@@ -6603,7 +6603,7 @@
         <v>45310</v>
       </c>
       <c r="I43" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6622,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6726,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>114</v>
@@ -6747,13 +6747,13 @@
         <v>45310</v>
       </c>
       <c r="I44" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="1">
         <v>0</v>
@@ -6873,13 +6873,13 @@
         <v>35</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
         <v>68</v>
@@ -6891,7 +6891,7 @@
         <v>45310</v>
       </c>
       <c r="I45" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6916,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="AS45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="1">
         <v>0</v>
@@ -7014,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
-        <v>5462507</v>
+        <v>68602</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
         <v>114</v>
@@ -7035,13 +7035,13 @@
         <v>45310</v>
       </c>
       <c r="I46" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7158,16 +7158,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -7179,7 +7179,7 @@
         <v>45310</v>
       </c>
       <c r="I47" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -7302,19 +7302,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
         <v>114</v>
@@ -7323,13 +7323,13 @@
         <v>45310</v>
       </c>
       <c r="I48" s="1">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7446,16 +7446,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
         <v>68</v>
@@ -7467,7 +7467,7 @@
         <v>45420</v>
       </c>
       <c r="I49" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7590,16 +7590,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
@@ -7611,7 +7611,7 @@
         <v>45420</v>
       </c>
       <c r="I50" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7734,16 +7734,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>3100</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
         <v>68</v>
@@ -7755,7 +7755,7 @@
         <v>45420</v>
       </c>
       <c r="I51" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7878,19 +7878,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1">
-        <v>165365057</v>
+        <v>2519</v>
       </c>
       <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>68</v>
-      </c>
-      <c r="E52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
       </c>
       <c r="G52" t="s">
         <v>114</v>
@@ -7899,13 +7899,13 @@
         <v>45420</v>
       </c>
       <c r="I52" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -8022,16 +8022,16 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1">
         <v>6213</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
         <v>112</v>
@@ -8043,7 +8043,7 @@
         <v>45420</v>
       </c>
       <c r="I53" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -8166,16 +8166,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
         <v>68</v>
@@ -8187,7 +8187,7 @@
         <v>45420</v>
       </c>
       <c r="I54" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8212,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="1">
         <v>0</v>
@@ -8310,19 +8310,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1">
-        <v>3676</v>
+        <v>165365057</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -8331,13 +8331,13 @@
         <v>45420</v>
       </c>
       <c r="I55" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8454,16 +8454,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
         <v>68</v>
@@ -8475,7 +8475,7 @@
         <v>45420</v>
       </c>
       <c r="I56" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8494,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8598,16 +8598,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
         <v>68</v>
@@ -8619,7 +8619,7 @@
         <v>45420</v>
       </c>
       <c r="I57" s="1">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8659,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8742,16 +8742,16 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
         <v>68</v>
@@ -8763,7 +8763,7 @@
         <v>45310</v>
       </c>
       <c r="I58" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8782,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8886,16 +8886,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
         <v>68</v>
@@ -8907,7 +8907,7 @@
         <v>45310</v>
       </c>
       <c r="I59" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -9030,16 +9030,16 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
         <v>68</v>
@@ -9051,7 +9051,7 @@
         <v>45310</v>
       </c>
       <c r="I60" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9070,16 +9070,16 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9174,16 +9174,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
         <v>112</v>
@@ -9195,7 +9195,7 @@
         <v>45419</v>
       </c>
       <c r="I61" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
@@ -9339,7 +9339,7 @@
         <v>45419</v>
       </c>
       <c r="I62" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9462,16 +9462,16 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>112</v>
@@ -9483,7 +9483,7 @@
         <v>45419</v>
       </c>
       <c r="I63" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1">
         <v>5707</v>
@@ -9627,7 +9627,7 @@
         <v>45419</v>
       </c>
       <c r="I64" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9750,17 +9750,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3100</v>
+      </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>114</v>
@@ -9769,13 +9771,13 @@
         <v>45419</v>
       </c>
       <c r="I65" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9848,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9866,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9892,16 +9894,16 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
         <v>112</v>
@@ -9913,7 +9915,7 @@
         <v>45419</v>
       </c>
       <c r="I66" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -9950,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -9995,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -10036,16 +10038,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
         <v>112</v>
@@ -10057,7 +10059,7 @@
         <v>45419</v>
       </c>
       <c r="I67" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10094,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -10139,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10180,19 +10182,17 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="1">
-        <v>6213</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G68" t="s">
         <v>114</v>
@@ -10201,13 +10201,13 @@
         <v>45419</v>
       </c>
       <c r="I68" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10280,10 +10280,10 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10324,19 +10324,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G69" t="s">
         <v>114</v>
@@ -10345,13 +10345,13 @@
         <v>45420</v>
       </c>
       <c r="I69" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10468,16 +10468,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
         <v>112</v>
@@ -10489,7 +10489,7 @@
         <v>45420</v>
       </c>
       <c r="I70" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -10517,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="1">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -10612,19 +10612,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -10633,13 +10633,13 @@
         <v>45420</v>
       </c>
       <c r="I71" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="1">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10756,16 +10756,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
         <v>3345</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>68</v>
@@ -10777,7 +10777,7 @@
         <v>45420</v>
       </c>
       <c r="I72" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -10900,19 +10900,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
         <v>114</v>
@@ -10921,13 +10921,13 @@
         <v>45420</v>
       </c>
       <c r="I73" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10949,10 +10949,10 @@
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73" s="1">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -11044,16 +11044,16 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F74" t="s">
         <v>68</v>
@@ -11065,7 +11065,7 @@
         <v>45420</v>
       </c>
       <c r="I74" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ74" s="1">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11188,19 +11188,19 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1">
-        <v>2519</v>
+        <v>3100</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G75" t="s">
         <v>114</v>
@@ -11209,13 +11209,13 @@
         <v>45420</v>
       </c>
       <c r="I75" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="1">
         <v>0</v>
@@ -11332,16 +11332,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="1">
         <v>62300</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
         <v>112</v>
@@ -11353,7 +11353,7 @@
         <v>45420</v>
       </c>
       <c r="I76" s="1">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -11476,16 +11476,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F77" t="s">
         <v>68</v>
@@ -11497,7 +11497,7 @@
         <v>45420</v>
       </c>
       <c r="I77" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11516,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11531,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11620,16 +11620,16 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
         <v>68</v>
@@ -11641,7 +11641,7 @@
         <v>45420</v>
       </c>
       <c r="I78" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
         <v>88890</v>
@@ -11785,7 +11785,7 @@
         <v>45420</v>
       </c>
       <c r="I79" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -11908,16 +11908,16 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F80" t="s">
         <v>68</v>
@@ -11929,7 +11929,7 @@
         <v>45420</v>
       </c>
       <c r="I80" s="1">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -11954,19 +11954,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -12052,16 +12052,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1">
         <v>5462328</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
         <v>112</v>
@@ -12073,7 +12073,7 @@
         <v>45336</v>
       </c>
       <c r="I81" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C82" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
         <v>68</v>
@@ -12217,7 +12217,7 @@
         <v>45336</v>
       </c>
       <c r="I82" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -12323,10 +12323,10 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82" s="1">
         <v>0</v>
@@ -12340,16 +12340,16 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C83" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
         <v>68</v>
@@ -12361,7 +12361,7 @@
         <v>45336</v>
       </c>
       <c r="I83" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -12487,7 +12487,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D84" t="s">
         <v>66</v>
@@ -12505,7 +12505,7 @@
         <v>45336</v>
       </c>
       <c r="I84" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -12524,10 +12524,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -12628,16 +12628,16 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
         <v>68</v>
@@ -12649,7 +12649,7 @@
         <v>45336</v>
       </c>
       <c r="I85" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -12668,10 +12668,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -12758,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="AT85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="1">
         <v>0</v>
@@ -12774,14 +12774,12 @@
       <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="1">
-        <v>2337</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F86" t="s">
         <v>112</v>
@@ -12793,7 +12791,7 @@
         <v>45420</v>
       </c>
       <c r="I86" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J86" s="1">
         <v>0</v>
@@ -12872,10 +12870,10 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -12890,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AP86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ86" s="1">
         <v>0</v>
@@ -12916,16 +12914,16 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C87" s="1">
-        <v>165361568</v>
+        <v>2337</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F87" t="s">
         <v>112</v>
@@ -12937,7 +12935,7 @@
         <v>45420</v>
       </c>
       <c r="I87" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
@@ -13034,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ87" s="1">
         <v>0</v>
@@ -13043,10 +13041,10 @@
         <v>0</v>
       </c>
       <c r="AS87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU87" s="1">
         <v>0</v>
@@ -13060,19 +13058,19 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C88" s="1">
-        <v>88890</v>
+        <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
         <v>114</v>
@@ -13081,13 +13079,13 @@
         <v>45420</v>
       </c>
       <c r="I88" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -13187,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="1">
         <v>0</v>
@@ -13204,16 +13202,16 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
         <v>68</v>
@@ -13225,7 +13223,7 @@
         <v>45420</v>
       </c>
       <c r="I89" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -13244,10 +13242,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -13307,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13348,16 +13346,16 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1">
-        <v>1983</v>
+        <v>165365057</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
         <v>112</v>
@@ -13369,7 +13367,7 @@
         <v>45420</v>
       </c>
       <c r="I90" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -13475,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -13492,19 +13490,19 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
         <v>114</v>
@@ -13513,13 +13511,13 @@
         <v>45420</v>
       </c>
       <c r="I91" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -13547,10 +13545,10 @@
         <v>0</v>
       </c>
       <c r="U91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W91" s="1">
         <v>0</v>
@@ -13595,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="AK91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -13636,16 +13634,16 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C92" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F92" t="s">
         <v>68</v>
@@ -13657,7 +13655,7 @@
         <v>45420</v>
       </c>
       <c r="I92" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -13676,10 +13674,10 @@
         <v>0</v>
       </c>
       <c r="P92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" s="1">
         <v>0</v>
@@ -13739,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -13763,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT92" s="1">
         <v>0</v>
@@ -13780,10 +13778,10 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C93" s="1">
-        <v>165365057</v>
+        <v>165361568</v>
       </c>
       <c r="D93" t="s">
         <v>68</v>
@@ -13801,7 +13799,7 @@
         <v>45420</v>
       </c>
       <c r="I93" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J93" s="1">
         <v>0</v>
@@ -13910,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="AT93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU93" s="1">
         <v>0</v>
@@ -13924,16 +13922,16 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C94" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
         <v>68</v>
@@ -13945,7 +13943,7 @@
         <v>45420</v>
       </c>
       <c r="I94" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -13979,10 +13977,10 @@
         <v>0</v>
       </c>
       <c r="U94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94" s="1">
         <v>0</v>
@@ -14068,17 +14066,19 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C95" s="1">
+        <v>21812144</v>
+      </c>
       <c r="D95" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" t="s">
         <v>68</v>
-      </c>
-      <c r="E95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F95" t="s">
-        <v>112</v>
       </c>
       <c r="G95" t="s">
         <v>114</v>
@@ -14087,13 +14087,13 @@
         <v>45420</v>
       </c>
       <c r="I95" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK95" s="1">
         <v>1</v>
@@ -14196,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="AT95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU95" s="1">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
         <v>5707</v>
@@ -14231,7 +14231,7 @@
         <v>45420</v>
       </c>
       <c r="I96" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -14354,19 +14354,19 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
         <v>114</v>
@@ -14375,13 +14375,13 @@
         <v>45420</v>
       </c>
       <c r="I97" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="AT97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU97" s="1">
         <v>0</v>
@@ -14519,7 +14519,7 @@
         <v>45309</v>
       </c>
       <c r="I98" s="1">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -14642,16 +14642,16 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C99" s="1">
         <v>6213</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F99" t="s">
         <v>68</v>
@@ -14663,7 +14663,7 @@
         <v>45309</v>
       </c>
       <c r="I99" s="1">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -14786,16 +14786,16 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F100" t="s">
         <v>68</v>
@@ -14807,7 +14807,7 @@
         <v>45310</v>
       </c>
       <c r="I100" s="1">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -14826,10 +14826,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -14930,16 +14930,16 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F101" t="s">
         <v>68</v>
@@ -14951,7 +14951,7 @@
         <v>45310</v>
       </c>
       <c r="I101" s="1">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -14970,16 +14970,16 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="AK101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101" s="1">
         <v>0</v>
@@ -15074,16 +15074,16 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
         <v>68</v>
@@ -15095,7 +15095,7 @@
         <v>45310</v>
       </c>
       <c r="I102" s="1">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -15120,10 +15120,10 @@
         <v>0</v>
       </c>
       <c r="R102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" s="1">
         <v>0</v>
@@ -15201,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>45369</v>
       </c>
       <c r="I103" s="1">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -15383,7 +15383,7 @@
         <v>45310</v>
       </c>
       <c r="I104" s="1">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -15527,7 +15527,7 @@
         <v>45371</v>
       </c>
       <c r="I105" s="1">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -15650,17 +15650,19 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C106" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2519</v>
+      </c>
       <c r="D106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" t="s">
         <v>68</v>
-      </c>
-      <c r="E106" t="s">
-        <v>68</v>
-      </c>
-      <c r="F106" t="s">
-        <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>114</v>
@@ -15669,13 +15671,13 @@
         <v>45420</v>
       </c>
       <c r="I106" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -15715,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z106" s="1">
         <v>0</v>
@@ -15748,10 +15750,10 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106" s="1">
         <v>0</v>
@@ -15766,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="AP106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ106" s="1">
         <v>0</v>
@@ -15792,19 +15794,19 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C107" s="1">
-        <v>446220</v>
+        <v>6213</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
         <v>114</v>
@@ -15813,13 +15815,13 @@
         <v>45420</v>
       </c>
       <c r="I107" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -15853,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y107" s="1">
         <v>0</v>
@@ -15936,19 +15938,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C108" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
         <v>114</v>
@@ -15957,13 +15959,13 @@
         <v>45420</v>
       </c>
       <c r="I108" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -15997,10 +15999,10 @@
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y108" s="1">
         <v>0</v>
@@ -16080,7 +16082,7 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" t="s">
@@ -16099,7 +16101,7 @@
         <v>45420</v>
       </c>
       <c r="I109" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
@@ -16222,19 +16224,17 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2519</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -16243,13 +16243,13 @@
         <v>45420</v>
       </c>
       <c r="I110" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -16289,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -16322,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="AP110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ110" s="1">
         <v>0</v>
@@ -16366,16 +16366,16 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E111" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F111" t="s">
         <v>68</v>
@@ -16387,7 +16387,7 @@
         <v>45420</v>
       </c>
       <c r="I111" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -16412,10 +16412,10 @@
         <v>0</v>
       </c>
       <c r="R111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" s="1">
         <v>0</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16510,16 +16510,16 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F112" t="s">
         <v>68</v>
@@ -16531,7 +16531,7 @@
         <v>45420</v>
       </c>
       <c r="I112" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -16654,16 +16654,16 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
         <v>3345</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F113" t="s">
         <v>68</v>
@@ -16675,7 +16675,7 @@
         <v>45420</v>
       </c>
       <c r="I113" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -16801,13 +16801,13 @@
         <v>35</v>
       </c>
       <c r="C114" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
         <v>68</v>
@@ -16819,7 +16819,7 @@
         <v>45420</v>
       </c>
       <c r="I114" s="1">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J114" s="1">
         <v>1</v>
@@ -16844,10 +16844,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="AS114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>45372</v>
       </c>
       <c r="I115" s="1">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -17086,16 +17086,16 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F116" t="s">
         <v>68</v>
@@ -17107,7 +17107,7 @@
         <v>45428</v>
       </c>
       <c r="I116" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="AP116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ116" s="1">
         <v>0</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17230,16 +17230,16 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C117" s="1">
-        <v>156346345</v>
+        <v>3676</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
         <v>68</v>
@@ -17251,7 +17251,7 @@
         <v>45428</v>
       </c>
       <c r="I117" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J117" s="1">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ117" s="1">
         <v>0</v>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -17377,13 +17377,13 @@
         <v>34</v>
       </c>
       <c r="C118" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
         <v>68</v>
@@ -17395,7 +17395,7 @@
         <v>45428</v>
       </c>
       <c r="I118" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J118" s="1">
         <v>1</v>
@@ -17420,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="R118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" s="1">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="AS118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT118" s="1">
         <v>0</v>
@@ -17518,19 +17518,19 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C119" s="1">
-        <v>3672</v>
+        <v>165365057</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G119" t="s">
         <v>114</v>
@@ -17539,13 +17539,13 @@
         <v>45428</v>
       </c>
       <c r="I119" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="AP119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ119" s="1">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17662,16 +17662,16 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C120" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E120" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F120" t="s">
         <v>68</v>
@@ -17683,7 +17683,7 @@
         <v>45428</v>
       </c>
       <c r="I120" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J120" s="1">
         <v>1</v>
@@ -17702,16 +17702,16 @@
         <v>0</v>
       </c>
       <c r="P120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -17765,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="AK120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL120" s="1">
         <v>0</v>
@@ -17806,16 +17806,16 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C121" s="1">
-        <v>88890</v>
+        <v>3672</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E121" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F121" t="s">
         <v>68</v>
@@ -17827,7 +17827,7 @@
         <v>45428</v>
       </c>
       <c r="I121" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J121" s="1">
         <v>1</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AP121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ121" s="1">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AS121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT121" s="1">
         <v>0</v>
@@ -17950,19 +17950,19 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C122" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" t="s">
         <v>68</v>
-      </c>
-      <c r="E122" t="s">
-        <v>68</v>
-      </c>
-      <c r="F122" t="s">
-        <v>112</v>
       </c>
       <c r="G122" t="s">
         <v>114</v>
@@ -17971,13 +17971,13 @@
         <v>45428</v>
       </c>
       <c r="I122" s="1">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
@@ -17990,10 +17990,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" s="1">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="AK122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL122" s="1">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -18094,17 +18094,19 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5707</v>
+      </c>
       <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" t="s">
         <v>68</v>
-      </c>
-      <c r="E123" t="s">
-        <v>68</v>
-      </c>
-      <c r="F123" t="s">
-        <v>112</v>
       </c>
       <c r="G123" t="s">
         <v>114</v>
@@ -18113,13 +18115,13 @@
         <v>45418</v>
       </c>
       <c r="I123" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
@@ -18138,10 +18140,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" s="1">
         <v>0</v>
@@ -18236,16 +18238,16 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C124" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E124" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
         <v>68</v>
@@ -18257,7 +18259,7 @@
         <v>45418</v>
       </c>
       <c r="I124" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -18276,10 +18278,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" s="1">
         <v>0</v>
@@ -18339,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="AK124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL124" s="1">
         <v>0</v>
@@ -18363,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="AS124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT124" s="1">
         <v>0</v>
@@ -18380,17 +18382,19 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2519</v>
+      </c>
       <c r="D125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" t="s">
         <v>68</v>
-      </c>
-      <c r="E125" t="s">
-        <v>68</v>
-      </c>
-      <c r="F125" t="s">
-        <v>112</v>
       </c>
       <c r="G125" t="s">
         <v>114</v>
@@ -18399,13 +18403,13 @@
         <v>45418</v>
       </c>
       <c r="I125" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -18445,7 +18449,7 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z125" s="1">
         <v>0</v>
@@ -18496,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="AP125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ125" s="1">
         <v>0</v>
@@ -18522,7 +18526,7 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C126" s="1">
         <v>12107</v>
@@ -18543,7 +18547,7 @@
         <v>45418</v>
       </c>
       <c r="I126" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -18666,19 +18670,17 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="1">
-        <v>446220</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C127" s="1"/>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G127" t="s">
         <v>114</v>
@@ -18687,13 +18689,13 @@
         <v>45418</v>
       </c>
       <c r="I127" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
@@ -18727,10 +18729,10 @@
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="1">
         <v>0</v>
@@ -18810,19 +18812,19 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C128" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F128" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
         <v>114</v>
@@ -18831,13 +18833,13 @@
         <v>45418</v>
       </c>
       <c r="I128" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -18937,7 +18939,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -18954,19 +18956,17 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="1">
-        <v>5707</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C129" s="1"/>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E129" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G129" t="s">
         <v>114</v>
@@ -18975,13 +18975,13 @@
         <v>45418</v>
       </c>
       <c r="I129" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19000,10 +19000,10 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" s="1">
         <v>0</v>
@@ -19098,16 +19098,16 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E130" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F130" t="s">
         <v>68</v>
@@ -19119,7 +19119,7 @@
         <v>45418</v>
       </c>
       <c r="I130" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J130" s="1">
         <v>1</v>
@@ -19159,13 +19159,13 @@
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z130" s="1">
         <v>0</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="AP130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ130" s="1">
         <v>0</v>
@@ -19242,19 +19242,19 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C131" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D131" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E131" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G131" t="s">
         <v>114</v>
@@ -19263,13 +19263,13 @@
         <v>45418</v>
       </c>
       <c r="I131" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
@@ -19282,10 +19282,10 @@
         <v>0</v>
       </c>
       <c r="P131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R131" s="1">
         <v>0</v>
@@ -19345,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="AK131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131" s="1">
         <v>0</v>
@@ -19369,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="AS131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT131" s="1">
         <v>0</v>
@@ -19386,16 +19386,16 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C132" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F132" t="s">
         <v>112</v>
@@ -19407,7 +19407,7 @@
         <v>45418</v>
       </c>
       <c r="I132" s="1">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J132" s="1">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AS132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT132" s="1">
         <v>0</v>
@@ -19530,16 +19530,16 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C133" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D133" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E133" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F133" t="s">
         <v>68</v>
@@ -19551,7 +19551,7 @@
         <v>45422</v>
       </c>
       <c r="I133" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J133" s="1">
         <v>1</v>
@@ -19570,16 +19570,16 @@
         <v>0</v>
       </c>
       <c r="P133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -19674,16 +19674,16 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F134" t="s">
         <v>112</v>
@@ -19695,7 +19695,7 @@
         <v>45422</v>
       </c>
       <c r="I134" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J134" s="1">
         <v>0</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="X134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y134" s="1">
         <v>0</v>
@@ -19801,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -19818,19 +19818,17 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="1">
-        <v>88890</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E135" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F135" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G135" t="s">
         <v>114</v>
@@ -19839,13 +19837,13 @@
         <v>45422</v>
       </c>
       <c r="I135" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -19945,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -19962,16 +19960,14 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="1">
-        <v>5707</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C136" s="1"/>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F136" t="s">
         <v>68</v>
@@ -19983,7 +19979,7 @@
         <v>45422</v>
       </c>
       <c r="I136" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -20008,10 +20004,10 @@
         <v>0</v>
       </c>
       <c r="R136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T136" s="1">
         <v>0</v>
@@ -20106,17 +20102,19 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
-      </c>
-      <c r="C137" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C137" s="1">
+        <v>88890</v>
+      </c>
       <c r="D137" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" t="s">
         <v>68</v>
-      </c>
-      <c r="E137" t="s">
-        <v>68</v>
-      </c>
-      <c r="F137" t="s">
-        <v>112</v>
       </c>
       <c r="G137" t="s">
         <v>114</v>
@@ -20125,13 +20123,13 @@
         <v>45422</v>
       </c>
       <c r="I137" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20231,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -20248,14 +20246,16 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3345</v>
+      </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F138" t="s">
         <v>68</v>
@@ -20267,7 +20267,7 @@
         <v>45422</v>
       </c>
       <c r="I138" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J138" s="1">
         <v>1</v>
@@ -20286,10 +20286,10 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" s="1">
         <v>0</v>
@@ -20349,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="AK138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL138" s="1">
         <v>0</v>
@@ -20390,16 +20390,16 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C139" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F139" t="s">
         <v>112</v>
@@ -20411,7 +20411,7 @@
         <v>45422</v>
       </c>
       <c r="I139" s="1">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J139" s="1">
         <v>0</v>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="X139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="1">
         <v>0</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="AS139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -20534,16 +20534,16 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C140" s="1">
         <v>3345</v>
       </c>
       <c r="D140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E140" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F140" t="s">
         <v>68</v>
@@ -20555,7 +20555,7 @@
         <v>45420</v>
       </c>
       <c r="I140" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -20678,19 +20678,19 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C141" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E141" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G141" t="s">
         <v>114</v>
@@ -20699,13 +20699,13 @@
         <v>45420</v>
       </c>
       <c r="I141" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
@@ -20724,10 +20724,10 @@
         <v>0</v>
       </c>
       <c r="R141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T141" s="1">
         <v>0</v>
@@ -20781,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -20822,19 +20822,19 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C142" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D142" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
         <v>114</v>
@@ -20843,13 +20843,13 @@
         <v>45420</v>
       </c>
       <c r="I142" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="AP142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ142" s="1">
         <v>0</v>
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="AS142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -20969,13 +20969,13 @@
         <v>35</v>
       </c>
       <c r="C143" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F143" t="s">
         <v>68</v>
@@ -20987,7 +20987,7 @@
         <v>45420</v>
       </c>
       <c r="I143" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J143" s="1">
         <v>1</v>
@@ -21012,10 +21012,10 @@
         <v>0</v>
       </c>
       <c r="R143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143" s="1">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="AS143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -21110,16 +21110,16 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C144" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E144" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F144" t="s">
         <v>112</v>
@@ -21131,7 +21131,7 @@
         <v>45420</v>
       </c>
       <c r="I144" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -21254,16 +21254,16 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C145" s="1">
-        <v>165365057</v>
+        <v>3100</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E145" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F145" t="s">
         <v>112</v>
@@ -21275,7 +21275,7 @@
         <v>45420</v>
       </c>
       <c r="I145" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="AP145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ145" s="1">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="AS145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -21398,16 +21398,16 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C146" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D146" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F146" t="s">
         <v>112</v>
@@ -21419,7 +21419,7 @@
         <v>45420</v>
       </c>
       <c r="I146" s="1">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J146" s="1">
         <v>0</v>
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="AK146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL146" s="1">
         <v>0</v>
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="AS146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -21542,19 +21542,19 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C147" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G147" t="s">
         <v>114</v>
@@ -21563,13 +21563,13 @@
         <v>45372</v>
       </c>
       <c r="I147" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AK147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL147" s="1">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="AS147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -21707,7 +21707,7 @@
         <v>45372</v>
       </c>
       <c r="I148" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J148" s="1">
         <v>0</v>
@@ -21830,16 +21830,16 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C149" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E149" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F149" t="s">
         <v>68</v>
@@ -21851,7 +21851,7 @@
         <v>45372</v>
       </c>
       <c r="I149" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -21870,10 +21870,10 @@
         <v>0</v>
       </c>
       <c r="P149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" s="1">
         <v>0</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="AK149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL149" s="1">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="AS149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -21974,19 +21974,19 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C150" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E150" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F150" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G150" t="s">
         <v>114</v>
@@ -21995,13 +21995,13 @@
         <v>45372</v>
       </c>
       <c r="I150" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
@@ -22118,7 +22118,7 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C151" s="1">
         <v>156346345</v>
@@ -22139,7 +22139,7 @@
         <v>45372</v>
       </c>
       <c r="I151" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -22262,16 +22262,16 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C152" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F152" t="s">
         <v>68</v>
@@ -22283,7 +22283,7 @@
         <v>45372</v>
       </c>
       <c r="I152" s="1">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J152" s="1">
         <v>1</v>
@@ -22302,10 +22302,10 @@
         <v>0</v>
       </c>
       <c r="P152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152" s="1">
         <v>0</v>
@@ -22427,7 +22427,7 @@
         <v>45428</v>
       </c>
       <c r="I153" s="1">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J153" s="1">
         <v>1</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -108,28 +108,34 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>MMB-FUBINACA</t>
@@ -138,34 +144,25 @@
     <t>bromazolam</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>p-fluoro phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>diphenhydramine</t>
   </si>
   <si>
     <t>gabapentin</t>
   </si>
   <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>caffeine</t>
   </si>
   <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -174,7 +171,13 @@
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>N-desethyl etonitazene</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>N-pyrrolidino-etonitazene</t>
@@ -183,22 +186,19 @@
     <t>benzocaine</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>pending nitazene</t>
   </si>
   <si>
     <t>ibuprofen</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
     <t>acetanilide</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>etaqualone</t>
@@ -213,52 +213,49 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>50-36-2</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
+    <t>58-73-1</t>
   </si>
   <si>
     <t>60142-96-3</t>
   </si>
   <si>
-    <t>58-73-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
   </si>
   <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>58-08-2</t>
   </si>
   <si>
     <t>86347-14-0</t>
@@ -267,10 +264,13 @@
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>94-09-7</t>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>103-90-2</t>
+  </si>
+  <si>
+    <t>94-09-7</t>
   </si>
   <si>
     <t>15687-27-1</t>
@@ -291,43 +291,40 @@
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>70D95007SX</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>8GTS82S83M</t>
   </si>
   <si>
     <t>6CW7F3G59X</t>
   </si>
   <si>
-    <t>8GTS82S83M</t>
-  </si>
-  <si>
     <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
@@ -336,10 +333,13 @@
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>U3RSY48JW5</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>U3RSY48JW5</t>
   </si>
   <si>
     <t>WK2XYI10QM</t>
@@ -694,7 +694,7 @@
         <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>114</v>
@@ -829,16 +829,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>114</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>114</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>114</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1258,19 +1258,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
         <v>114</v>
@@ -1408,13 +1408,13 @@
         <v>156346345</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
@@ -1546,19 +1546,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1690,19 +1690,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
@@ -1837,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -1846,7 +1846,7 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -1990,7 +1990,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
         <v>114</v>
@@ -2024,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2122,19 +2122,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -2269,7 +2269,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2278,7 +2278,7 @@
         <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>114</v>
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2410,19 +2410,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -2554,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
@@ -2698,19 +2698,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
         <v>114</v>
@@ -2722,10 +2722,10 @@
         <v>1681</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>114</v>
@@ -2866,10 +2866,10 @@
         <v>1681</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2986,16 +2986,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>165361568</v>
+        <v>5707</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
@@ -3130,17 +3130,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>88890</v>
+      </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -3152,10 +3154,10 @@
         <v>1684</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3255,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3272,19 +3274,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
         <v>114</v>
@@ -3296,10 +3298,10 @@
         <v>1684</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3333,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3375,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3416,19 +3418,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
-        <v>156346345</v>
+        <v>66924</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
         <v>114</v>
@@ -3440,10 +3442,10 @@
         <v>1684</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3543,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>12562546</v>
+        <v>6213</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>112</v>
@@ -3654,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -3704,16 +3706,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>112</v>
@@ -3848,19 +3850,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
         <v>114</v>
@@ -3872,10 +3874,10 @@
         <v>1684</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3909,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3992,19 +3994,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
-        <v>66924</v>
+        <v>156346345</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>114</v>
@@ -4016,10 +4018,10 @@
         <v>1684</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
         <v>0</v>
@@ -4139,16 +4141,16 @@
         <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
         <v>114</v>
@@ -4176,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4239,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4263,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -4280,16 +4282,14 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5707</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>112</v>
@@ -4329,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -4424,16 +4424,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
-        <v>3446</v>
+        <v>12562546</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>112</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="1">
         <v>0</v>
@@ -4571,16 +4571,16 @@
         <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
         <v>114</v>
@@ -4592,10 +4592,10 @@
         <v>1684</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -4712,19 +4712,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>3100</v>
+        <v>165361568</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
         <v>114</v>
@@ -4736,10 +4736,10 @@
         <v>1684</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -4856,19 +4856,17 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3345</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
         <v>114</v>
@@ -4880,10 +4878,10 @@
         <v>1684</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4896,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -4959,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -5000,17 +4998,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3100</v>
+      </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
         <v>114</v>
@@ -5022,10 +5022,10 @@
         <v>1684</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5142,19 +5142,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>3446</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
         <v>114</v>
@@ -5166,10 +5166,10 @@
         <v>1684</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5286,19 +5286,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>114</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5413,10 +5413,10 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="1">
         <v>0</v>
@@ -5430,19 +5430,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>114</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" s="1">
         <v>0</v>
@@ -5574,19 +5574,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -5635,13 +5635,13 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5718,19 +5718,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5862,19 +5862,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>66924</v>
+        <v>3676</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
         <v>114</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="1">
-        <v>3676</v>
+        <v>2519</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -6018,7 +6018,7 @@
         <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6150,19 +6150,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
         <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
       </c>
       <c r="G40" t="s">
         <v>114</v>
@@ -6174,10 +6174,10 @@
         <v>1686</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6190,10 +6190,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6297,16 +6297,16 @@
         <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D41" t="s">
         <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
         <v>114</v>
@@ -6318,10 +6318,10 @@
         <v>1686</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6438,19 +6438,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6582,19 +6582,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G43" t="s">
         <v>114</v>
@@ -6606,10 +6606,10 @@
         <v>1689</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6622,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6726,16 +6726,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1">
         <v>5486550</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
         <v>112</v>
@@ -6870,19 +6870,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
         <v>5707</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
         <v>114</v>
@@ -7014,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
         <v>114</v>
@@ -7054,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7158,19 +7158,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
         <v>114</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7302,19 +7302,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
         <v>114</v>
@@ -7326,10 +7326,10 @@
         <v>1689</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7446,19 +7446,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -7486,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7590,19 +7590,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
         <v>114</v>
@@ -7651,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="W50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="1">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7734,19 +7734,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>3100</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" t="s">
         <v>114</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7878,19 +7878,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1">
-        <v>2519</v>
+        <v>3100</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G52" t="s">
         <v>114</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -8022,19 +8022,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
         <v>114</v>
@@ -8046,10 +8046,10 @@
         <v>1693</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8068,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -8178,7 +8178,7 @@
         <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
         <v>114</v>
@@ -8212,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8310,16 +8310,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
         <v>112</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8454,19 +8454,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
         <v>114</v>
@@ -8478,10 +8478,10 @@
         <v>1693</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8494,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8598,19 +8598,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
         <v>114</v>
@@ -8659,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8742,19 +8742,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>114</v>
@@ -8782,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8886,19 +8886,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
         <v>114</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -9030,19 +9030,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
         <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G60" t="s">
         <v>114</v>
@@ -9174,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1">
         <v>6213</v>
@@ -9318,16 +9318,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9462,19 +9462,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G63" t="s">
         <v>114</v>
@@ -9486,10 +9486,10 @@
         <v>1699</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9505,13 +9505,13 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9606,19 +9606,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
         <v>114</v>
@@ -9630,10 +9630,10 @@
         <v>1699</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -9750,16 +9750,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
         <v>112</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9894,16 +9894,16 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1">
         <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
         <v>112</v>
@@ -10038,19 +10038,17 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="1">
-        <v>10836</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
         <v>114</v>
@@ -10062,10 +10060,10 @@
         <v>1699</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10096,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -10138,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10182,17 +10180,19 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C68" s="1">
+        <v>88890</v>
+      </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G68" t="s">
         <v>114</v>
@@ -10204,10 +10204,10 @@
         <v>1699</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10280,10 +10280,10 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10324,19 +10324,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
         <v>114</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10468,16 +10468,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
         <v>112</v>
@@ -10517,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="1">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -10612,19 +10612,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -10636,10 +10636,10 @@
         <v>1700</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10759,16 +10759,16 @@
         <v>32</v>
       </c>
       <c r="C72" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D72" t="s">
         <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
         <v>114</v>
@@ -10780,10 +10780,10 @@
         <v>1700</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10796,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="P72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -10900,19 +10900,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
         <v>114</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="1">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -11044,19 +11044,19 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1">
         <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
         <v>114</v>
@@ -11194,10 +11194,10 @@
         <v>3100</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
         <v>112</v>
@@ -11332,16 +11332,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F76" t="s">
         <v>112</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>89</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G77" t="s">
         <v>114</v>
@@ -11620,19 +11620,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G78" t="s">
         <v>114</v>
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11764,19 +11764,19 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C79" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G79" t="s">
         <v>114</v>
@@ -11804,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="1">
         <v>0</v>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -11911,7 +11911,7 @@
         <v>35</v>
       </c>
       <c r="C80" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D80" t="s">
         <v>69</v>
@@ -11920,7 +11920,7 @@
         <v>92</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
         <v>114</v>
@@ -11954,10 +11954,10 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="AS80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
@@ -12052,19 +12052,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
         <v>114</v>
@@ -12076,10 +12076,10 @@
         <v>1707</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -12092,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
         <v>0</v>
@@ -12196,19 +12196,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
         <v>114</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
         <v>0</v>
@@ -12323,10 +12323,10 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="1">
         <v>0</v>
@@ -12340,19 +12340,19 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G83" t="s">
         <v>114</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -12484,19 +12484,19 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C84" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" t="s">
         <v>66</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" t="s">
-        <v>68</v>
       </c>
       <c r="G84" t="s">
         <v>114</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AT84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU84" s="1">
         <v>0</v>
@@ -12628,19 +12628,19 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C85" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G85" t="s">
         <v>114</v>
@@ -12652,10 +12652,10 @@
         <v>1707</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -12668,10 +12668,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -12772,17 +12772,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3345</v>
+      </c>
       <c r="D86" t="s">
         <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G86" t="s">
         <v>114</v>
@@ -12794,10 +12796,10 @@
         <v>1708</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -12810,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
@@ -12870,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK86" s="1">
         <v>1</v>
@@ -12914,10 +12916,10 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="1">
-        <v>2337</v>
+        <v>1983</v>
       </c>
       <c r="D87" t="s">
         <v>84</v>
@@ -13032,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ87" s="1">
         <v>0</v>
@@ -13058,16 +13060,16 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1">
-        <v>1983</v>
+        <v>62300</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F88" t="s">
         <v>112</v>
@@ -13161,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13202,19 +13204,19 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C89" s="1">
-        <v>3345</v>
+        <v>165361568</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G89" t="s">
         <v>114</v>
@@ -13226,10 +13228,10 @@
         <v>1708</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -13242,10 +13244,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -13305,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13329,10 +13331,10 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU89" s="1">
         <v>0</v>
@@ -13346,19 +13348,19 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G90" t="s">
         <v>114</v>
@@ -13370,10 +13372,10 @@
         <v>1708</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -13401,10 +13403,10 @@
         <v>0</v>
       </c>
       <c r="U90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" s="1">
         <v>0</v>
@@ -13473,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -13490,19 +13492,19 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C91" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
         <v>114</v>
@@ -13545,10 +13547,10 @@
         <v>0</v>
       </c>
       <c r="U91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" s="1">
         <v>0</v>
@@ -13634,19 +13636,19 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C92" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
         <v>114</v>
@@ -13737,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -13761,10 +13763,10 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU92" s="1">
         <v>0</v>
@@ -13778,19 +13780,19 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C93" s="1">
-        <v>165361568</v>
+        <v>88890</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
         <v>114</v>
@@ -13802,10 +13804,10 @@
         <v>1708</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -13908,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="AT93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU93" s="1">
         <v>0</v>
@@ -13922,19 +13924,17 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="1">
-        <v>66924</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G94" t="s">
         <v>114</v>
@@ -13946,10 +13946,10 @@
         <v>1708</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -14022,10 +14022,10 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14066,19 +14066,19 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
-        <v>21812144</v>
+        <v>165365057</v>
       </c>
       <c r="D95" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
         <v>114</v>
@@ -14090,10 +14090,10 @@
         <v>1708</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="AK95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="1">
         <v>0</v>
@@ -14193,10 +14193,10 @@
         <v>0</v>
       </c>
       <c r="AS95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU95" s="1">
         <v>0</v>
@@ -14210,19 +14210,19 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1">
         <v>5707</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
         <v>114</v>
@@ -14354,16 +14354,16 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C97" s="1">
-        <v>62300</v>
+        <v>2337</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F97" t="s">
         <v>112</v>
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -14472,7 +14472,7 @@
         <v>0</v>
       </c>
       <c r="AP97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ97" s="1">
         <v>0</v>
@@ -14498,19 +14498,19 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
         <v>114</v>
@@ -14553,10 +14553,10 @@
         <v>0</v>
       </c>
       <c r="U98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
@@ -14642,19 +14642,19 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C99" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D99" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
         <v>114</v>
@@ -14697,10 +14697,10 @@
         <v>0</v>
       </c>
       <c r="U99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" s="1">
         <v>0</v>
@@ -14786,19 +14786,19 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
         <v>114</v>
@@ -14826,10 +14826,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -14930,19 +14930,19 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1">
         <v>5707</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
         <v>114</v>
@@ -15074,19 +15074,19 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G102" t="s">
         <v>114</v>
@@ -15114,10 +15114,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -15177,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>0</v>
@@ -15201,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -15230,7 +15230,7 @@
         <v>94</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
         <v>114</v>
@@ -15374,7 +15374,7 @@
         <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
         <v>114</v>
@@ -15518,7 +15518,7 @@
         <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
         <v>114</v>
@@ -15650,19 +15650,19 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C106" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
         <v>114</v>
@@ -15690,10 +15690,10 @@
         <v>0</v>
       </c>
       <c r="P106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" s="1">
         <v>0</v>
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z106" s="1">
         <v>0</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
         <v>0</v>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="AP106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ106" s="1">
         <v>0</v>
@@ -15794,19 +15794,19 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
         <v>114</v>
@@ -15818,10 +15818,10 @@
         <v>1739</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -15855,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y107" s="1">
         <v>0</v>
@@ -15938,19 +15938,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
         <v>114</v>
@@ -15999,10 +15999,10 @@
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y108" s="1">
         <v>0</v>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="AS108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT108" s="1">
         <v>0</v>
@@ -16082,14 +16082,14 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F109" t="s">
         <v>112</v>
@@ -16224,17 +16224,19 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C110" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -16246,10 +16248,10 @@
         <v>1739</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -16322,10 +16324,10 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -16349,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="AS110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT110" s="1">
         <v>0</v>
@@ -16366,19 +16368,17 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="1">
-        <v>165365057</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C111" s="1"/>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G111" t="s">
         <v>114</v>
@@ -16390,10 +16390,10 @@
         <v>1739</v>
       </c>
       <c r="J111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -16466,10 +16466,10 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16510,19 +16510,19 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C112" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G112" t="s">
         <v>114</v>
@@ -16534,10 +16534,10 @@
         <v>1739</v>
       </c>
       <c r="J112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -16654,19 +16654,19 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
         <v>114</v>
@@ -16694,16 +16694,16 @@
         <v>0</v>
       </c>
       <c r="P113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" s="1">
         <v>0</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="AK113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113" s="1">
         <v>0</v>
@@ -16798,19 +16798,19 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C114" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G114" t="s">
         <v>114</v>
@@ -16844,10 +16844,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T114" s="1">
         <v>0</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z114" s="1">
         <v>0</v>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="AP114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ114" s="1">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>89</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
         <v>114</v>
@@ -17089,7 +17089,7 @@
         <v>36</v>
       </c>
       <c r="C116" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D116" t="s">
         <v>70</v>
@@ -17098,7 +17098,7 @@
         <v>93</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G116" t="s">
         <v>114</v>
@@ -17132,10 +17132,10 @@
         <v>0</v>
       </c>
       <c r="R116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="1">
         <v>0</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17230,19 +17230,19 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C117" s="1">
-        <v>3676</v>
+        <v>165365057</v>
       </c>
       <c r="D117" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G117" t="s">
         <v>114</v>
@@ -17254,10 +17254,10 @@
         <v>1746</v>
       </c>
       <c r="J117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ117" s="1">
         <v>0</v>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="AS117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -17374,19 +17374,19 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C118" s="1">
-        <v>156346345</v>
+        <v>3672</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E118" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G118" t="s">
         <v>114</v>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ118" s="1">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="AS118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT118" s="1">
         <v>0</v>
@@ -17521,16 +17521,16 @@
         <v>33</v>
       </c>
       <c r="C119" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D119" t="s">
         <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F119" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
         <v>114</v>
@@ -17542,10 +17542,10 @@
         <v>1746</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17558,10 +17558,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" s="1">
         <v>0</v>
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="AK119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL119" s="1">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17662,19 +17662,19 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C120" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
         <v>114</v>
@@ -17708,10 +17708,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="AP120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ120" s="1">
         <v>0</v>
@@ -17806,19 +17806,19 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C121" s="1">
-        <v>3672</v>
+        <v>88890</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E121" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G121" t="s">
         <v>114</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AP121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ121" s="1">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AS121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT121" s="1">
         <v>0</v>
@@ -17950,19 +17950,19 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C122" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
         <v>114</v>
@@ -17990,10 +17990,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" s="1">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="AK122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122" s="1">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="AS122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -18097,7 +18097,7 @@
         <v>35</v>
       </c>
       <c r="C123" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D123" t="s">
         <v>69</v>
@@ -18106,7 +18106,7 @@
         <v>92</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
         <v>114</v>
@@ -18140,10 +18140,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" s="1">
         <v>0</v>
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="AS123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT123" s="1">
         <v>0</v>
@@ -18238,19 +18238,19 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E124" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
         <v>114</v>
@@ -18278,10 +18278,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R124" s="1">
         <v>0</v>
@@ -18299,10 +18299,10 @@
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y124" s="1">
         <v>0</v>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="AK124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL124" s="1">
         <v>0</v>
@@ -18382,19 +18382,17 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2519</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C125" s="1"/>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G125" t="s">
         <v>114</v>
@@ -18406,10 +18404,10 @@
         <v>1749</v>
       </c>
       <c r="J125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
@@ -18449,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z125" s="1">
         <v>0</v>
@@ -18500,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="AP125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ125" s="1">
         <v>0</v>
@@ -18526,16 +18524,16 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C126" s="1">
-        <v>12107</v>
+        <v>6213</v>
       </c>
       <c r="D126" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F126" t="s">
         <v>112</v>
@@ -18653,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="AS126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT126" s="1">
         <v>0</v>
@@ -18670,17 +18668,19 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2519</v>
+      </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
         <v>114</v>
@@ -18692,10 +18692,10 @@
         <v>1749</v>
       </c>
       <c r="J127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
@@ -18735,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z127" s="1">
         <v>0</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="AP127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ127" s="1">
         <v>0</v>
@@ -18812,19 +18812,17 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
-      </c>
-      <c r="C128" s="1">
-        <v>88890</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E128" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G128" t="s">
         <v>114</v>
@@ -18836,10 +18834,10 @@
         <v>1749</v>
       </c>
       <c r="J128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -18939,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -18956,17 +18954,19 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5707</v>
+      </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G129" t="s">
         <v>114</v>
@@ -18978,10 +18978,10 @@
         <v>1749</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19000,10 +19000,10 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" s="1">
         <v>0</v>
@@ -19098,19 +19098,19 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C130" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E130" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G130" t="s">
         <v>114</v>
@@ -19138,10 +19138,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" s="1">
         <v>0</v>
@@ -19159,10 +19159,10 @@
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="1">
         <v>0</v>
@@ -19201,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="AK130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL130" s="1">
         <v>0</v>
@@ -19242,16 +19242,16 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C131" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F131" t="s">
         <v>112</v>
@@ -19386,16 +19386,16 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C132" s="1">
-        <v>6213</v>
+        <v>165365057</v>
       </c>
       <c r="D132" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F132" t="s">
         <v>112</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AS132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT132" s="1">
         <v>0</v>
@@ -19530,19 +19530,19 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C133" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G133" t="s">
         <v>114</v>
@@ -19554,10 +19554,10 @@
         <v>1751</v>
       </c>
       <c r="J133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="AS133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT133" s="1">
         <v>0</v>
@@ -19674,19 +19674,19 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C134" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F134" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G134" t="s">
         <v>114</v>
@@ -19698,10 +19698,10 @@
         <v>1751</v>
       </c>
       <c r="J134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="X134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="1">
         <v>0</v>
@@ -19801,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -19818,17 +19818,17 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F135" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
         <v>114</v>
@@ -19840,10 +19840,10 @@
         <v>1751</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -19960,17 +19960,19 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3345</v>
+      </c>
       <c r="D136" t="s">
         <v>68</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
         <v>114</v>
@@ -19998,10 +20000,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
@@ -20061,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -20102,19 +20104,19 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E137" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G137" t="s">
         <v>114</v>
@@ -20126,10 +20128,10 @@
         <v>1751</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20166,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="X137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y137" s="1">
         <v>0</v>
@@ -20229,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="AS137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT137" s="1">
         <v>0</v>
@@ -20246,19 +20248,19 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C138" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D138" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G138" t="s">
         <v>114</v>
@@ -20286,16 +20288,16 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T138" s="1">
         <v>0</v>
@@ -20349,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="AK138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL138" s="1">
         <v>0</v>
@@ -20390,16 +20392,14 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
-      </c>
-      <c r="C139" s="1">
-        <v>165365057</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C139" s="1"/>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F139" t="s">
         <v>112</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="AS139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -20534,19 +20534,19 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C140" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D140" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E140" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G140" t="s">
         <v>114</v>
@@ -20558,10 +20558,10 @@
         <v>1753</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
@@ -20574,10 +20574,10 @@
         <v>0</v>
       </c>
       <c r="P140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" s="1">
         <v>0</v>
@@ -20637,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -20652,7 +20652,7 @@
         <v>0</v>
       </c>
       <c r="AP140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ140" s="1">
         <v>0</v>
@@ -20678,19 +20678,19 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C141" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" t="s">
+        <v>92</v>
+      </c>
+      <c r="F141" t="s">
         <v>66</v>
-      </c>
-      <c r="E141" t="s">
-        <v>90</v>
-      </c>
-      <c r="F141" t="s">
-        <v>112</v>
       </c>
       <c r="G141" t="s">
         <v>114</v>
@@ -20702,10 +20702,10 @@
         <v>1753</v>
       </c>
       <c r="J141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
@@ -20781,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -20825,7 +20825,7 @@
         <v>36</v>
       </c>
       <c r="C142" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D142" t="s">
         <v>70</v>
@@ -20834,7 +20834,7 @@
         <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
         <v>114</v>
@@ -20868,10 +20868,10 @@
         <v>0</v>
       </c>
       <c r="R142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" s="1">
         <v>0</v>
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="AS142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -20966,19 +20966,19 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C143" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G143" t="s">
         <v>114</v>
@@ -20990,10 +20990,10 @@
         <v>1753</v>
       </c>
       <c r="J143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
@@ -21012,10 +21012,10 @@
         <v>0</v>
       </c>
       <c r="R143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T143" s="1">
         <v>0</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="AK143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL143" s="1">
         <v>0</v>
@@ -21110,19 +21110,19 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C144" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F144" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G144" t="s">
         <v>114</v>
@@ -21134,10 +21134,10 @@
         <v>1753</v>
       </c>
       <c r="J144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
@@ -21150,10 +21150,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" s="1">
         <v>0</v>
@@ -21254,16 +21254,16 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C145" s="1">
-        <v>3100</v>
+        <v>165365057</v>
       </c>
       <c r="D145" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F145" t="s">
         <v>112</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="AP145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ145" s="1">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="AS145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -21398,16 +21398,16 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C146" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E146" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F146" t="s">
         <v>112</v>
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="AK146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL146" s="1">
         <v>0</v>
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="AS146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -21542,19 +21542,19 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C147" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D147" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F147" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G147" t="s">
         <v>114</v>
@@ -21566,10 +21566,10 @@
         <v>1754</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AK147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL147" s="1">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="AS147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -21689,16 +21689,16 @@
         <v>33</v>
       </c>
       <c r="C148" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D148" t="s">
         <v>68</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F148" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G148" t="s">
         <v>114</v>
@@ -21710,10 +21710,10 @@
         <v>1754</v>
       </c>
       <c r="J148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1">
@@ -21726,10 +21726,10 @@
         <v>0</v>
       </c>
       <c r="P148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148" s="1">
         <v>0</v>
@@ -21789,7 +21789,7 @@
         <v>0</v>
       </c>
       <c r="AK148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL148" s="1">
         <v>0</v>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="AS148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT148" s="1">
         <v>0</v>
@@ -21830,19 +21830,19 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C149" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E149" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G149" t="s">
         <v>114</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="AK149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL149" s="1">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="AS149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -21974,19 +21974,19 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C150" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D150" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G150" t="s">
         <v>114</v>
@@ -21998,10 +21998,10 @@
         <v>1754</v>
       </c>
       <c r="J150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="AK150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL150" s="1">
         <v>0</v>
@@ -22101,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="AS150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -22118,16 +22118,16 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C151" s="1">
-        <v>156346345</v>
+        <v>5462507</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F151" t="s">
         <v>112</v>
@@ -22221,7 +22221,7 @@
         <v>0</v>
       </c>
       <c r="AK151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL151" s="1">
         <v>0</v>
@@ -22245,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="AS151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT151" s="1">
         <v>0</v>
@@ -22262,19 +22262,19 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C152" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E152" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F152" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G152" t="s">
         <v>114</v>
@@ -22286,10 +22286,10 @@
         <v>1754</v>
       </c>
       <c r="J152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1">
@@ -22302,10 +22302,10 @@
         <v>0</v>
       </c>
       <c r="P152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R152" s="1">
         <v>0</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="AK152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL152" s="1">
         <v>0</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="AS152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT152" s="1">
         <v>0</v>
@@ -22418,7 +22418,7 @@
         <v>94</v>
       </c>
       <c r="F153" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G153" t="s">
         <v>114</v>

--- a/datasets/selfservice/HC/lab_detail.xlsx
+++ b/datasets/selfservice/HC/lab_detail.xlsx
@@ -108,52 +108,55 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>cocaine</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>MMB-FUBINACA</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>p-fluoro phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>2-fluoro deschloroketamine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>MMB-FUBINACA</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>p-fluoro phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>2-fluoro deschloroketamine</t>
-  </si>
-  <si>
-    <t>diphenhydramine</t>
-  </si>
-  <si>
-    <t>gabapentin</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>despropionyl p-fluorofentanyl</t>
@@ -162,22 +165,16 @@
     <t>lidocaine</t>
   </si>
   <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>N-desethyl etonitazene</t>
+    <t>medetomidine</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>N-desethyl etonitazene</t>
   </si>
   <si>
     <t>N-pyrrolidino-etonitazene</t>
@@ -186,19 +183,22 @@
     <t>benzocaine</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>pending nitazene</t>
   </si>
   <si>
     <t>ibuprofen</t>
   </si>
   <si>
-    <t>2-Fluoro-2-oxo PCE</t>
-  </si>
-  <si>
     <t>acetanilide</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>2-Fluoro-2-oxo PCE</t>
   </si>
   <si>
     <t>etaqualone</t>
@@ -213,31 +213,28 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t/>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>67-71-0</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
+    <t>60142-96-3</t>
   </si>
   <si>
     <t>71368-80-4</t>
@@ -246,7 +243,13 @@
     <t>58-73-1</t>
   </si>
   <si>
-    <t>60142-96-3</t>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
   </si>
   <si>
     <t>122861-41-0</t>
@@ -255,22 +258,19 @@
     <t>137-58-6</t>
   </si>
   <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>103-90-2</t>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>94-09-7</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>15687-27-1</t>
@@ -291,22 +291,19 @@
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
+    <t>6CW7F3G59X</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
@@ -315,7 +312,13 @@
     <t>8GTS82S83M</t>
   </si>
   <si>
-    <t>6CW7F3G59X</t>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -324,22 +327,19 @@
     <t>98PI200987</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>U3RSY48JW5</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>WK2XYI10QM</t>
@@ -694,7 +694,7 @@
         <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>114</v>
@@ -829,16 +829,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>114</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>114</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>114</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1258,19 +1258,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>114</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1402,19 +1402,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
-        <v>156346345</v>
+        <v>5707</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1546,19 +1546,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
@@ -1690,19 +1690,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1978,19 +1978,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>114</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2122,19 +2122,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2266,19 +2266,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>114</v>
@@ -2410,19 +2410,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -2554,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
@@ -2578,10 +2578,10 @@
         <v>1681</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2698,19 +2698,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>114</v>
@@ -2722,10 +2722,10 @@
         <v>1681</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
         <v>114</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2986,16 +2986,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3130,19 +3130,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1">
-        <v>88890</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -3154,10 +3152,10 @@
         <v>1684</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3257,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3274,16 +3272,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
-        <v>5462328</v>
+        <v>156346345</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -3377,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3401,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3421,16 +3419,16 @@
         <v>39</v>
       </c>
       <c r="C21" s="1">
-        <v>66924</v>
+        <v>6213</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
         <v>114</v>
@@ -3442,10 +3440,10 @@
         <v>1684</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3562,19 +3560,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>114</v>
@@ -3586,10 +3584,10 @@
         <v>1684</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3602,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3665,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3706,19 +3704,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
         <v>114</v>
@@ -3730,10 +3728,10 @@
         <v>1684</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3809,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3833,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3850,19 +3848,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>446220</v>
+        <v>3446</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>114</v>
@@ -3874,10 +3872,10 @@
         <v>1684</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3911,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3994,16 +3992,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>156346345</v>
+        <v>165361568</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -4124,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4138,19 +4136,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>12562546</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>114</v>
@@ -4162,10 +4160,10 @@
         <v>1684</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4178,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4232,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="1">
         <v>0</v>
@@ -4241,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4282,17 +4280,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3100</v>
+      </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>114</v>
@@ -4304,10 +4304,10 @@
         <v>1684</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4424,19 +4424,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
-        <v>12562546</v>
+        <v>66924</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>114</v>
@@ -4448,10 +4448,10 @@
         <v>1684</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="1">
         <v>0</v>
@@ -4568,19 +4568,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>165365057</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
         <v>114</v>
@@ -4592,10 +4590,10 @@
         <v>1684</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4695,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
         <v>0</v>
@@ -4712,16 +4710,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>165361568</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
         <v>112</v>
@@ -4761,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4839,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -4856,17 +4854,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>114</v>
@@ -4878,10 +4878,10 @@
         <v>1684</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -4998,19 +4998,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>3100</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>114</v>
@@ -5059,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5145,7 +5145,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="1">
-        <v>3446</v>
+        <v>5462328</v>
       </c>
       <c r="D33" t="s">
         <v>77</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5286,19 +5286,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
         <v>114</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="1">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5430,19 +5430,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>21812144</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>114</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="1">
         <v>0</v>
@@ -5574,19 +5574,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -5598,10 +5598,10 @@
         <v>1686</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5718,19 +5718,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
-        <v>66924</v>
+        <v>21812144</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
@@ -5862,19 +5862,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>114</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="1">
-        <v>2519</v>
+        <v>3676</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -6018,7 +6018,7 @@
         <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6150,19 +6150,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
         <v>68</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
       </c>
       <c r="G40" t="s">
         <v>114</v>
@@ -6190,10 +6190,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6294,19 +6294,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
         <v>114</v>
@@ -6318,10 +6318,10 @@
         <v>1686</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>68602</v>
+        <v>5462507</v>
       </c>
       <c r="D42" t="s">
         <v>81</v>
@@ -6450,7 +6450,7 @@
         <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -6462,10 +6462,10 @@
         <v>1689</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6582,19 +6582,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
         <v>114</v>
@@ -6606,10 +6606,10 @@
         <v>1689</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6726,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
         <v>114</v>
@@ -6750,10 +6750,10 @@
         <v>1689</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="1">
         <v>0</v>
@@ -6870,19 +6870,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
         <v>114</v>
@@ -6910,16 +6910,16 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7014,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>114</v>
@@ -7038,10 +7038,10 @@
         <v>1689</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7054,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46" s="1">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -7170,7 +7170,7 @@
         <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
         <v>114</v>
@@ -7204,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7302,19 +7302,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
         <v>114</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7446,19 +7446,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -7470,10 +7470,10 @@
         <v>1693</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7486,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
         <v>114</v>
@@ -7734,19 +7734,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
         <v>114</v>
@@ -7780,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7878,19 +7878,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1">
-        <v>3100</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
         <v>114</v>
@@ -7918,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -8022,19 +8022,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C53" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
         <v>114</v>
@@ -8068,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="1">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
@@ -8166,19 +8166,19 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
         <v>114</v>
@@ -8190,10 +8190,10 @@
         <v>1693</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8310,19 +8310,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -8334,10 +8334,10 @@
         <v>1693</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
@@ -8454,19 +8454,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C56" s="1">
-        <v>165365057</v>
+        <v>3676</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
         <v>114</v>
@@ -8478,10 +8478,10 @@
         <v>1693</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56" s="1">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8598,19 +8598,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G57" t="s">
         <v>114</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D58" t="s">
         <v>69</v>
@@ -8754,7 +8754,7 @@
         <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
         <v>114</v>
@@ -8788,10 +8788,10 @@
         <v>0</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8886,19 +8886,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
         <v>91</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
         <v>114</v>
@@ -9033,7 +9033,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
@@ -9042,7 +9042,7 @@
         <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
         <v>114</v>
@@ -9076,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9174,16 +9174,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
-        <v>6213</v>
+        <v>3100</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
         <v>112</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9462,19 +9462,17 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5707</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
         <v>114</v>
@@ -9508,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -9562,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9606,16 +9604,16 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
@@ -9649,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -9664,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -9709,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9750,19 +9748,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s">
         <v>68</v>
-      </c>
-      <c r="E65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" t="s">
-        <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>114</v>
@@ -9774,10 +9772,10 @@
         <v>1699</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9793,13 +9791,13 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9853,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9894,16 +9892,16 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
         <v>112</v>
@@ -9952,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -9997,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -10038,17 +10036,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6213</v>
+      </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G67" t="s">
         <v>114</v>
@@ -10060,10 +10060,10 @@
         <v>1699</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10136,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10180,16 +10180,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>112</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10324,19 +10324,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" t="s">
         <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" t="s">
-        <v>66</v>
       </c>
       <c r="G69" t="s">
         <v>114</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="1">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10612,19 +10612,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -10652,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10756,16 +10756,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1">
-        <v>62300</v>
+        <v>3100</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
         <v>112</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10900,19 +10900,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1">
         <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
         <v>114</v>
@@ -11044,19 +11044,19 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1">
         <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
         <v>114</v>
@@ -11188,16 +11188,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C75" s="1">
-        <v>3100</v>
+        <v>62300</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
         <v>112</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="1">
         <v>0</v>
@@ -11332,16 +11332,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1">
         <v>5707</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
         <v>112</v>
@@ -11476,19 +11476,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G77" t="s">
         <v>114</v>
@@ -11531,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11620,19 +11620,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G78" t="s">
         <v>114</v>
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11764,19 +11764,19 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C79" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" t="s">
         <v>68</v>
-      </c>
-      <c r="E79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" t="s">
-        <v>66</v>
       </c>
       <c r="G79" t="s">
         <v>114</v>
@@ -11804,16 +11804,16 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
@@ -11908,19 +11908,19 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G80" t="s">
         <v>114</v>
@@ -11963,10 +11963,10 @@
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="AS80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
@@ -12052,19 +12052,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s">
         <v>68</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
-      </c>
-